--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1303.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1303.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8091910046234552</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04045955023117276</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06473528036987641</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06092407856241663</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01137071406614044</v>
+        <v>0.01984832191679197</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0004445187820043273</v>
+        <v>0.001453543287215323</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007568183730580153</v>
+        <v>0.0008135460923000123</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001550176569515609</v>
+        <v>0.00456614648851969</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000789412439429307</v>
+        <v>0.0007921769618693663</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004022364480094465</v>
+        <v>0.007478617294580547</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007282727228606128</v>
+        <v>0.0007898104876304577</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.007324082029897649</v>
+        <v>0.001453543287215323</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007705580666221339</v>
+        <v>0.0008135460923000123</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002831058779799125</v>
+        <v>0.00326762884034934</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001513636746116031</v>
+        <v>0.001627092184600025</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003166979513327707</v>
+        <v>0.01044239993970228</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001578824878858614</v>
+        <v>0.001584353923738733</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0087096582725458</v>
+        <v>0.01451529545862551</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001456545445721226</v>
+        <v>0.001579620975260915</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01584936588497082</v>
+        <v>0.00326762884034934</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001541116133244268</v>
+        <v>0.001627092184600025</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002101641209174873</v>
+        <v>0.004827657307821649</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002270455119174046</v>
+        <v>0.002440638276900037</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004736103286573971</v>
+        <v>0.01544080700608</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002368237318287921</v>
+        <v>0.002376530885608099</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01337346185306523</v>
+        <v>0.02180507273599686</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002184818168581838</v>
+        <v>0.002369431462891373</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02355595524308651</v>
+        <v>0.004827657307821649</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002311674199866402</v>
+        <v>0.002440638276900037</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005198287285922032</v>
+        <v>0.006519029338051832</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003027273492232061</v>
+        <v>0.003254184369200049</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.00614324234439205</v>
+        <v>0.01937341434018514</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003157649757717228</v>
+        <v>0.003168707847477465</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01692535569736409</v>
+        <v>0.02674298737055669</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002913090891442451</v>
+        <v>0.003159241950521831</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03112395378211152</v>
+        <v>0.006519029338051832</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003082232266488536</v>
+        <v>0.003254184369200049</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003790238022046812</v>
+        <v>0.00936796875</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.015</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.008027145579459466</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003790238022046812</v>
+        <v>0.004067730461500062</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007674091141919602</v>
+        <v>0.02385226859454986</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003947062197146535</v>
+        <v>0.003960884809346831</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02087692028115362</v>
+        <v>0.03299999999999997</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003641363614303064</v>
+        <v>0.003963371394230765</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03723346517991305</v>
+        <v>0.008027145579459466</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00385279033311067</v>
+        <v>0.004067730461500062</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005743712411711108</v>
+        <v>0.009537406680464142</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004540910238348092</v>
+        <v>0.004881276553800074</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.00911434413429428</v>
+        <v>0.0268894164217065</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004736474636575842</v>
+        <v>0.004753061771216198</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0244397360801451</v>
+        <v>0.03563030120965066</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004369636337163677</v>
+        <v>0.004738862925782746</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04346459311435774</v>
+        <v>0.009537406680464142</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004623348399732803</v>
+        <v>0.004881276553800074</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.005340161243205098</v>
+        <v>0.01073521328948546</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005297728611406106</v>
+        <v>0.005694822646100086</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01004969577665375</v>
+        <v>0.0297969044741872</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005525887076005149</v>
+        <v>0.005545238733085565</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02799999999999997</v>
+        <v>0.04030865228918062</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005397183641975301</v>
+        <v>0.005528673413413203</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04789744126331269</v>
+        <v>0.01073521328948546</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005393906466354938</v>
+        <v>0.005694822646100086</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00586764452858652</v>
+        <v>0.01210596605494299</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006054546984464122</v>
+        <v>0.006508368738400098</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01116584052413564</v>
+        <v>0.03299999999999997</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006315299515434456</v>
+        <v>0.006480984669811314</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02841932148729384</v>
+        <v>0.04369268858363978</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005826181782884902</v>
+        <v>0.006318483901043661</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.0523121133046448</v>
+        <v>0.01210596605494299</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006164464532977071</v>
+        <v>0.006508368738400098</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.008341435785094289</v>
+        <v>0.01283506562525633</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006811365357522137</v>
+        <v>0.007321914830700111</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01234847283187766</v>
+        <v>0.03346556514208027</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007104711954863763</v>
+        <v>0.007129592656824297</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03060621745312958</v>
+        <v>0.0466157862661899</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006554454505745515</v>
+        <v>0.007108294388674119</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05499999999999999</v>
+        <v>0.01283506562525633</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.00693923611111111</v>
+        <v>0.007321914830700111</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.007776808529967337</v>
+        <v>0.01370791264884505</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007568183730580152</v>
+        <v>0.008135460923000123</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.0131832871550174</v>
+        <v>0.03519519296054593</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007894124394293069</v>
+        <v>0.007921769618693663</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03206546705592772</v>
+        <v>0.04931132150999257</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007282727228606129</v>
+        <v>0.007898104876304577</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.05622745753770986</v>
+        <v>0.01370791264884505</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007705580666221339</v>
+        <v>0.008135460923000123</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.009189036280444568</v>
+        <v>0.01440990777412875</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008325002103638167</v>
+        <v>0.008949007015300136</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.014</v>
+        <v>0.03673016612616131</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008743437499999999</v>
+        <v>0.008713946580563028</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03334433072959997</v>
+        <v>0.05261267048820928</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008010999951466742</v>
+        <v>0.008687915363935034</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05728321466533598</v>
+        <v>0.01440990777412875</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008476138732843473</v>
+        <v>0.008949007015300136</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.007593392553764913</v>
+        <v>0.015</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009081820476696183</v>
+        <v>0.00936796875</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01438915840054968</v>
+        <v>0.03691619107311769</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009472949273151685</v>
+        <v>0.009506123542432396</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03449006890805814</v>
+        <v>0.05525320937400185</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008739272674327354</v>
+        <v>0.009477725851565491</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05855539390612546</v>
+        <v>0.015</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009246696799465607</v>
+        <v>0.00936796875</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009005150867167293</v>
+        <v>0.01538563852805154</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0098386388497542</v>
+        <v>0.01057609919990016</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0146358208371722</v>
+        <v>0.03839897423560645</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01026236171258099</v>
+        <v>0.01029830050430176</v>
       </c>
       <c r="L78" t="n">
-        <v>0.035549942025214</v>
+        <v>0.05746631434053184</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009467545397187966</v>
+        <v>0.01026753633919595</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06014339325983753</v>
+        <v>0.01538563852805154</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01001725486608774</v>
+        <v>0.01057609919990016</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01043958473789063</v>
+        <v>0.01607022174777915</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01059545722281221</v>
+        <v>0.01138964529220017</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01521105954100177</v>
+        <v>0.03892422204781901</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0110517741520103</v>
+        <v>0.01109047746617113</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03607121051497927</v>
+        <v>0.05888536156096091</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01019581812004858</v>
+        <v>0.01105734682682641</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0602466107262315</v>
+        <v>0.01607022174777915</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01078781293270988</v>
+        <v>0.01138964529220017</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.0164049611506623</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01137071406614044</v>
+        <v>0.01220319138450019</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01552974788366762</v>
+        <v>0.03953764094394671</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01184118659143961</v>
+        <v>0.01188265442804049</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03710113481126581</v>
+        <v>0.06104372720845075</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01092409084290919</v>
+        <v>0.01184715731445686</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06126444430506661</v>
+        <v>0.0164049611506623</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01155837099933201</v>
+        <v>0.01220319138450019</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01043522834322212</v>
+        <v>0.01670038009669285</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01210909396892824</v>
+        <v>0.0130167374768002</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01580675923679892</v>
+        <v>0.04098493735818093</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01263059903086891</v>
+        <v>0.01267483138990986</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03868697534798526</v>
+        <v>0.06427478745616289</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0116523635657698</v>
+        <v>0.01263696780208732</v>
       </c>
       <c r="N81" t="n">
-        <v>0.06259629199610228</v>
+        <v>0.01670038009669285</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01232892906595414</v>
+        <v>0.0130167374768002</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01000665453502294</v>
+        <v>0.0169670019458627</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01286591234198626</v>
+        <v>0.01383028356910021</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01615696697202487</v>
+        <v>0.04121181772471302</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01342001147029822</v>
+        <v>0.01346700835177923</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03947599255904954</v>
+        <v>0.06622912469196368</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01238063628863042</v>
+        <v>0.01325710193278139</v>
       </c>
       <c r="N82" t="n">
-        <v>0.06344155179909755</v>
+        <v>0.0169670019458627</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01309948713257628</v>
+        <v>0.01383028356910021</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01061783951279487</v>
+        <v>0.01711535005816373</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01362273071504427</v>
+        <v>0.01464382966140022</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01619524446097466</v>
+        <v>0.04264890762500126</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01420942390972753</v>
+        <v>0.01395994527787031</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0408154468783703</v>
+        <v>0.06778089318993341</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01310890901149103</v>
+        <v>0.01421658877734824</v>
       </c>
       <c r="N83" t="n">
-        <v>0.06622912469196368</v>
+        <v>0.01711535005816373</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01392665253544712</v>
+        <v>0.01464382966140022</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01126037565026131</v>
+        <v>0.01745594779358783</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01437954908810229</v>
+        <v>0.01545737575370023</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0164364650752775</v>
+        <v>0.04418557160814554</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01499883634915683</v>
+        <v>0.01505136227551796</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04264890762500126</v>
+        <v>0.06998121361948956</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01370142777272457</v>
+        <v>0.0150063992649787</v>
       </c>
       <c r="N84" t="n">
-        <v>0.06706798110428119</v>
+        <v>0.01745594779358783</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01464060326582054</v>
+        <v>0.01545737575370023</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01392585532114567</v>
+        <v>0.01749931851212688</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0151363674611603</v>
+        <v>0.01627092184600025</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01659550218656258</v>
+        <v>0.04507638097003688</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01578824878858614</v>
+        <v>0.01584353923738733</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04432721822503494</v>
+        <v>0.07350789374638728</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01456545445721226</v>
+        <v>0.01579620975260915</v>
       </c>
       <c r="N85" t="n">
-        <v>0.06996550448070837</v>
+        <v>0.01749931851212688</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01541116133244268</v>
+        <v>0.01627092184600025</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01260587089917133</v>
+        <v>0.01765598557377278</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01589318583421832</v>
+        <v>0.01708446793830026</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01718722916645905</v>
+        <v>0.04662467509327795</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01657766122801545</v>
+        <v>0.01663571619925669</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04663964763539188</v>
+        <v>0.07475588979441183</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01529372718007287</v>
+        <v>0.01658602024023961</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07416240294419202</v>
+        <v>0.01765598557377278</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01618171939906481</v>
+        <v>0.01708446793830026</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01529201475806169</v>
+        <v>0.01803647233851739</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01665000420727633</v>
+        <v>0.01789801403060027</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01742651938659617</v>
+        <v>0.04742513538200929</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01736707366744475</v>
+        <v>0.01742789316112606</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04923514476559038</v>
+        <v>0.0782201579873481</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01602199990293348</v>
+        <v>0.01737583072787007</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0784274349053935</v>
+        <v>0.01803647233851739</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01695227746568695</v>
+        <v>0.01789801403060027</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01497587927154016</v>
+        <v>0.01855130216635263</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01740682258033435</v>
+        <v>0.01871156012290029</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01772824621860308</v>
+        <v>0.04857244324037166</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01815648610687406</v>
+        <v>0.01822007012299542</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05215607626030008</v>
+        <v>0.08009565454898121</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0167502726257941</v>
+        <v>0.01816564121550053</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08322935877497389</v>
+        <v>0.01855130216635263</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01772283553230908</v>
+        <v>0.01871156012290029</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01564905681333011</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01816364095339237</v>
+        <v>0.01984832191679197</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01820728303410898</v>
+        <v>0.05026128007250569</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01894589854630337</v>
+        <v>0.01901224708486479</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05434480876419073</v>
+        <v>0.08307733570309622</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01747854534865471</v>
+        <v>0.01895545170313098</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08763693296359443</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01849339359893121</v>
+        <v>0.01984832191679197</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01730313975715498</v>
+        <v>0.01922916551943611</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01892045932645038</v>
+        <v>0.02033865230750031</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.05128632728255214</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01984832191679197</v>
+        <v>0.01980442404673416</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05814370892193207</v>
+        <v>0.08456015767347824</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01820681807151532</v>
+        <v>0.01974526219076144</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09411891588191656</v>
+        <v>0.01922916551943611</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01926395166555335</v>
+        <v>0.02033865230750031</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01592972047673812</v>
+        <v>0.01972158521417604</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0196772776995084</v>
+        <v>0.02115219839980032</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0196514297944957</v>
+        <v>0.05344226627465162</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02052472342516198</v>
+        <v>0.02059660100860352</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06119514337819384</v>
+        <v>0.08743907668391226</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01893509079437593</v>
+        <v>0.0205350726783919</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09904406594060133</v>
+        <v>0.01972158521417604</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02003450973217548</v>
+        <v>0.02115219839980032</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01752039134580297</v>
+        <v>0.02008354986899011</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02043409607256641</v>
+        <v>0.02196574449210034</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02170119009766798</v>
+        <v>0.05452377845294479</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02131413586459129</v>
+        <v>0.02138877797047289</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06364147877764584</v>
+        <v>0.08910904895818333</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01966336351723655</v>
+        <v>0.02132488316602235</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1039811415503102</v>
+        <v>0.02008354986899011</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02080506779879762</v>
+        <v>0.02196574449210034</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.0170667447380729</v>
+        <v>0.02100856539742145</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02119091444562442</v>
+        <v>0.02277929058440034</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02400888801350451</v>
+        <v>0.05652554522157238</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0221035483040206</v>
+        <v>0.02218095493234226</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06642508176495771</v>
+        <v>0.09216503072007659</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02039163624009716</v>
+        <v>0.02211469365365281</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1082989011217044</v>
+        <v>0.02100856539742145</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02157562586541975</v>
+        <v>0.02277929058440034</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01756037302727131</v>
+        <v>0.02149013771301322</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02194773281868244</v>
+        <v>0.02359283667670036</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02644657298858179</v>
+        <v>0.05744224798467504</v>
       </c>
       <c r="K94" t="n">
-        <v>0.0228929607434499</v>
+        <v>0.02297313189421162</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06968831898479927</v>
+        <v>0.09480197819337705</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02111990896295777</v>
+        <v>0.02290450414128327</v>
       </c>
       <c r="N94" t="n">
-        <v>0.112766103065445</v>
+        <v>0.02149013771301322</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02234618393204188</v>
+        <v>0.02359283667670036</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01999286858712162</v>
+        <v>0.02212177272930857</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02270455119174046</v>
+        <v>0.02440638276900037</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02938629446947634</v>
+        <v>0.05936856814639344</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02368237318287921</v>
+        <v>0.02376530885608099</v>
       </c>
       <c r="L95" t="n">
-        <v>0.07277355708184025</v>
+        <v>0.09671484760186971</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02184818168581839</v>
+        <v>0.02369431462891373</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1174515057921934</v>
+        <v>0.02212177272930857</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02311674199866402</v>
+        <v>0.02440638276900037</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0183558237913472</v>
+        <v>0.02309697635985061</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02346136956479847</v>
+        <v>0.02521992886130038</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03190010190276463</v>
+        <v>0.06069918711086819</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02447178562230852</v>
+        <v>0.02455748581795035</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07482316270075035</v>
+        <v>0.09939859516933974</v>
       </c>
       <c r="M96" t="n">
-        <v>0.022576454408679</v>
+        <v>0.02448412511654419</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1210238677126109</v>
+        <v>0.02309697635985061</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02388730006528615</v>
+        <v>0.02521992886130038</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02064083101367147</v>
+        <v>0.02400925451818249</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02421818793785649</v>
+        <v>0.02603347495360039</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03406004473502318</v>
+        <v>0.06242878628224011</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02526119806173783</v>
+        <v>0.02534966277981972</v>
       </c>
       <c r="L97" t="n">
-        <v>0.07667950248619934</v>
+        <v>0.1012481771195721</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02330472713153961</v>
+        <v>0.02527393560417465</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1231519472373588</v>
+        <v>0.02400925451818249</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02465785813190828</v>
+        <v>0.02603347495360039</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.01983948262781782</v>
+        <v>0.02455211311784737</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0249750063109145</v>
+        <v>0.02684702104590041</v>
       </c>
       <c r="J98" t="n">
-        <v>0.03563817241282848</v>
+        <v>0.06355204706464984</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02605061050116713</v>
+        <v>0.02614183974168909</v>
       </c>
       <c r="L98" t="n">
-        <v>0.07848494308285697</v>
+        <v>0.103758549676352</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02403299985440023</v>
+        <v>0.0260637460918051</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1255045027770981</v>
+        <v>0.02455211311784737</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02542841619853042</v>
+        <v>0.02684702104590041</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02094337100750963</v>
+        <v>0.02541905807238835</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02573182468397252</v>
+        <v>0.02766056713820042</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03650653438275701</v>
+        <v>0.06496365086223793</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02684002294059644</v>
+        <v>0.02693401670355846</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08008185113539298</v>
+        <v>0.1054246690634643</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02476127257726084</v>
+        <v>0.02685355657943556</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1257502927424904</v>
+        <v>0.02541905807238835</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02619897426515255</v>
+        <v>0.02766056713820042</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01994956261335792</v>
+        <v>0.02660359529534859</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02648864305703054</v>
+        <v>0.02847411323050043</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03656822829579487</v>
+        <v>0.0669582790791452</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02762943538002575</v>
+        <v>0.02772619366542782</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08111259328847706</v>
+        <v>0.1069414915046942</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02548954530012145</v>
+        <v>0.02764336706706602</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1259777361645129</v>
+        <v>0.02660359529534859</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02696953233177469</v>
+        <v>0.02847411323050043</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01988958642711244</v>
+        <v>0.02739923070027124</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02724546143008855</v>
+        <v>0.02928765932280044</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03682088738547058</v>
+        <v>0.06833061311951225</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02841884781945505</v>
+        <v>0.02851837062729719</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08131953618677906</v>
+        <v>0.1099039732238268</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02621781802298206</v>
+        <v>0.02843317755469648</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1261987106240431</v>
+        <v>0.02739923070027124</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02774009039839682</v>
+        <v>0.02928765932280044</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01877582866603904</v>
+        <v>0.02809947020069943</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02800227980314656</v>
+        <v>0.03010120541510046</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03673549070603131</v>
+        <v>0.0694753343874798</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02920826025888436</v>
+        <v>0.02931054758916656</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08107176579790673</v>
+        <v>0.111007070444647</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02694609074584267</v>
+        <v>0.02922298804232693</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1243853499339595</v>
+        <v>0.02809947020069943</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02851064846501896</v>
+        <v>0.03010120541510046</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01961542177839676</v>
+        <v>0.0289978197101763</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02875909817620458</v>
+        <v>0.03091475150740047</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03631536908760985</v>
+        <v>0.07098712428718845</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02999767269831367</v>
+        <v>0.03010272455103592</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08092752510148496</v>
+        <v>0.11374573939094</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02767436346870329</v>
+        <v>0.03001279852995739</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1240850586942898</v>
+        <v>0.0289978197101763</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02928120653164109</v>
+        <v>0.03091475150740047</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01941549821244462</v>
+        <v>0.02988778514224498</v>
       </c>
       <c r="G104" t="n">
-        <v>0.0295159165492626</v>
+        <v>0.03172829759970048</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03636385336033895</v>
+        <v>0.07226066422277899</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03078708513774298</v>
+        <v>0.03089490151290529</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08041629908800008</v>
+        <v>0.1151149362864908</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0284026361915639</v>
+        <v>0.03080260901758785</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1224452415050618</v>
+        <v>0.02988778514224498</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03005176459826322</v>
+        <v>0.03172829759970048</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01818319041644161</v>
+        <v>0.0307628724104486</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03027273492232061</v>
+        <v>0.03254184369200049</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03628427435435146</v>
+        <v>0.07369063559839203</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03157649757717228</v>
+        <v>0.03168707847477465</v>
       </c>
       <c r="L105" t="n">
-        <v>0.0800587616300748</v>
+        <v>0.1178096173550844</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02913090891442452</v>
+        <v>0.03159241950521831</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1215133029663028</v>
+        <v>0.0307628724104486</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03082232266488536</v>
+        <v>0.03254184369200049</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01892563083864678</v>
+        <v>0.03171658742833033</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03102955329537863</v>
+        <v>0.03335538978430051</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03597996289978014</v>
+        <v>0.07467171981816823</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03236591001660159</v>
+        <v>0.03247925543664402</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07947558660033185</v>
+        <v>0.118924738820506</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02985918163728513</v>
+        <v>0.03238222999284877</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1189366476780407</v>
+        <v>0.03171658742833033</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03159288073150749</v>
+        <v>0.03335538978430051</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01864995192731912</v>
+        <v>0.0325424361094333</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03178637166843664</v>
+        <v>0.03416893587660052</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03555424982675782</v>
+        <v>0.0762985982862483</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03315532245603089</v>
+        <v>0.03327143239851339</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07918744787139403</v>
+        <v>0.1203552569065406</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03058745436014574</v>
+        <v>0.03317204048047923</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1180626802403031</v>
+        <v>0.0325424361094333</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03236343879812962</v>
+        <v>0.03416893587660052</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01736328613071766</v>
+        <v>0.03343392436730067</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03254319004149465</v>
+        <v>0.03498248196890053</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03561046596541728</v>
+        <v>0.07726595240677292</v>
       </c>
       <c r="K108" t="n">
-        <v>0.0339447348954602</v>
+        <v>0.03406360936038275</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07791501931588404</v>
+        <v>0.1220961278369733</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03131572708300635</v>
+        <v>0.03396185096810968</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1158388052531177</v>
+        <v>0.03343392436730067</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03313399686475176</v>
+        <v>0.03498248196890053</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01707276589710139</v>
+        <v>0.03408455811547552</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03330000841455267</v>
+        <v>0.03579602806120055</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03525194214589131</v>
+        <v>0.07846846358388271</v>
       </c>
       <c r="K109" t="n">
-        <v>0.0347341473348895</v>
+        <v>0.03485578632225211</v>
       </c>
       <c r="L109" t="n">
-        <v>0.0765789748064247</v>
+        <v>0.1233423078355889</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03204399980586697</v>
+        <v>0.03475166145574014</v>
       </c>
       <c r="N109" t="n">
-        <v>0.114312427316512</v>
+        <v>0.03408455811547552</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03390455493137389</v>
+        <v>0.03579602806120055</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01778552367472937</v>
+        <v>0.03498784326750105</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03405682678761068</v>
+        <v>0.03660957415350056</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0350820091983127</v>
+        <v>0.0797008132217184</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03552355977431881</v>
+        <v>0.03564796328412148</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07629998821563871</v>
+        <v>0.1249887531261729</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03277227252872758</v>
+        <v>0.0355414719433706</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1125309510305138</v>
+        <v>0.03498784326750105</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03467511299799603</v>
+        <v>0.03660957415350056</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01650869191186057</v>
+        <v>0.03533728573692037</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0348136451606687</v>
+        <v>0.03742312024580057</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03450399795281425</v>
+        <v>0.0806576827244207</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03631297221374812</v>
+        <v>0.03644014024599085</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07459873341614884</v>
+        <v>0.12583041993251</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03350054525158819</v>
+        <v>0.03633128243100105</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1098417809951506</v>
+        <v>0.03533728573692037</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03544567106461816</v>
+        <v>0.03742312024580057</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01824940305675404</v>
+        <v>0.03612639143727658</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03557046353372671</v>
+        <v>0.03823666633810058</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03442123923952878</v>
+        <v>0.08183375349613015</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03710238465317743</v>
+        <v>0.03723231720786022</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07419588428057783</v>
+        <v>0.1275622644783855</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0342288179744488</v>
+        <v>0.03712109291863151</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1090923218104501</v>
+        <v>0.03612639143727658</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03621622913124029</v>
+        <v>0.03823666633810058</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01801478955766878</v>
+        <v>0.03664866628211291</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03632728190678473</v>
+        <v>0.03905021243040059</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03403706388858906</v>
+        <v>0.08212370694098761</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03789179709260674</v>
+        <v>0.03802449416972958</v>
       </c>
       <c r="L113" t="n">
-        <v>0.07321211468154842</v>
+        <v>0.1278792429875843</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03495709069730941</v>
+        <v>0.03791090340626196</v>
       </c>
       <c r="N113" t="n">
-        <v>0.10682997807644</v>
+        <v>0.03664866628211291</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03698678719786243</v>
+        <v>0.03905021243040059</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0168119838628638</v>
+        <v>0.03719761618497243</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03708410027984275</v>
+        <v>0.0398637585227006</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03375480273012789</v>
+        <v>0.0829222244631336</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03868120953203604</v>
+        <v>0.03881667113159894</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07236809849168344</v>
+        <v>0.1289763116838915</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03568536342017003</v>
+        <v>0.03870071389389242</v>
       </c>
       <c r="N114" t="n">
-        <v>0.106302154393148</v>
+        <v>0.03719761618497243</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03775734526448456</v>
+        <v>0.0398637585227006</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01764811842059814</v>
+        <v>0.03726674705939832</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03784091865290076</v>
+        <v>0.04067730461500062</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03347778659427805</v>
+        <v>0.08332398746670894</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03947062197146536</v>
+        <v>0.03960884809346831</v>
       </c>
       <c r="L115" t="n">
-        <v>0.07078450958360555</v>
+        <v>0.1299484267910922</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03641363614303064</v>
+        <v>0.03949052438152288</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1052562553606016</v>
+        <v>0.03726674705939832</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03852790333110669</v>
+        <v>0.04067730461500062</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01653032567913079</v>
+        <v>0.03754956481893369</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03859773702595878</v>
+        <v>0.04149085070730063</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03320934631117239</v>
+        <v>0.08392367735585413</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04026003441089466</v>
+        <v>0.04040102505533768</v>
       </c>
       <c r="L116" t="n">
-        <v>0.07078202182993754</v>
+        <v>0.1307905445329714</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03714190886589126</v>
+        <v>0.04028033486915334</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1053396855788285</v>
+        <v>0.03754956481893369</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03929846139772884</v>
+        <v>0.04149085070730063</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01746573808672078</v>
+        <v>0.0379395753771217</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0393545553990168</v>
+        <v>0.04230439679960064</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03315281271094367</v>
+        <v>0.08411597553470998</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04104944685032397</v>
+        <v>0.04119320201720705</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07008130910330215</v>
+        <v>0.1306976211333142</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03787018158875186</v>
+        <v>0.0410701453567838</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1050971660977831</v>
+        <v>0.0379395753771217</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04006901946435096</v>
+        <v>0.04230439679960064</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01745773260860605</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04011137377207481</v>
+        <v>0.04311794289190065</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03281151662372467</v>
+        <v>0.08509556340741709</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04183885928975327</v>
+        <v>0.04198537897907641</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06880304527632219</v>
+        <v>0.1317646128159057</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03859845431161248</v>
+        <v>0.04185995584441425</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1045183356282545</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04083957753097309</v>
+        <v>0.04311794289190065</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01648012517125499</v>
+        <v>0.0379338904005769</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04086819214513282</v>
+        <v>0.04393148898420067</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03238878887964822</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04262827172918258</v>
+        <v>0.04277755594094578</v>
       </c>
       <c r="L119" t="n">
-        <v>0.06906790422162032</v>
+        <v>0.1324582493839274</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0393267270344731</v>
+        <v>0.04264976633204471</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1056151219038545</v>
+        <v>0.0379338904005769</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04161013559759524</v>
+        <v>0.04393148898420067</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01652526035807857</v>
+        <v>0.03811469352265545</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04162501051819084</v>
+        <v>0.04474503507650068</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03218796030884707</v>
+        <v>0.084597660878313</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04341768416861189</v>
+        <v>0.04356973290281515</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06869655981181938</v>
+        <v>0.1318582393856943</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04005499975733371</v>
+        <v>0.04343957681967517</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1058744848468334</v>
+        <v>0.03811469352265545</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04238069366421737</v>
+        <v>0.04474503507650068</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01559166150898525</v>
+        <v>0.03807950849013063</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04238182889124885</v>
+        <v>0.04555858116880069</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03231236174145406</v>
+        <v>0.08529213633715096</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0442070966080412</v>
+        <v>0.04436190986468452</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06820954235915871</v>
+        <v>0.1312483568624622</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04078327248019432</v>
+        <v>0.04422938730730563</v>
       </c>
       <c r="N121" t="n">
-        <v>0.105683384379441</v>
+        <v>0.03807950849013063</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0431512517308395</v>
+        <v>0.04555858116880069</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01767785196388352</v>
+        <v>0.03792921185828887</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04313864726430687</v>
+        <v>0.0463721272611007</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03206532400760198</v>
+        <v>0.08487876336822431</v>
       </c>
       <c r="K122" t="n">
-        <v>0.0449965090474705</v>
+        <v>0.04515408682655388</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06837749986726244</v>
+        <v>0.1323201702439648</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04151154520305493</v>
+        <v>0.04501919779493609</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1066287804239275</v>
+        <v>0.03792921185828887</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04392180979746164</v>
+        <v>0.0463721272611007</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01778235506268182</v>
+        <v>0.03786468018241661</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04389546563736488</v>
+        <v>0.04718567335340072</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03175017793742362</v>
+        <v>0.08485764154820741</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04578592148689981</v>
+        <v>0.04594626378842324</v>
       </c>
       <c r="L123" t="n">
-        <v>0.0685606172208485</v>
+        <v>0.1317740380934059</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04223981792591554</v>
+        <v>0.04580900828256654</v>
       </c>
       <c r="N123" t="n">
-        <v>0.108397632902543</v>
+        <v>0.03786468018241661</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04469236786408377</v>
+        <v>0.04718567335340072</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01690369414528863</v>
+        <v>0.03778679001780023</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0446522840104229</v>
+        <v>0.04799921944570073</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03187025436105176</v>
+        <v>0.08522887045377459</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04657533392632911</v>
+        <v>0.04673844075029261</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06895008861082813</v>
+        <v>0.131710318973989</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04296809064877616</v>
+        <v>0.046598818770197</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1086769017375372</v>
+        <v>0.03778679001780023</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0454629259307059</v>
+        <v>0.04799921944570073</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.0180403925516124</v>
+        <v>0.03779641791972617</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04540910238348091</v>
+        <v>0.04881276553800074</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03192888410861922</v>
+        <v>0.0847925496616001</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04736474636575842</v>
+        <v>0.04753061771216198</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06963710822811262</v>
+        <v>0.1309293714489179</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04369636337163677</v>
+        <v>0.04738862925782746</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1099535468511607</v>
+        <v>0.03779641791972617</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04623348399732804</v>
+        <v>0.04881276553800074</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01619097362156161</v>
+        <v>0.03769444044348086</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04616592075653893</v>
+        <v>0.04962631163030076</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03173967189707666</v>
+        <v>0.08454877874835839</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04815415880518772</v>
+        <v>0.04832279467403135</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06951287026361325</v>
+        <v>0.1313315540813962</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04442463609449739</v>
+        <v>0.04817843974545791</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1108145281656632</v>
+        <v>0.03769444044348086</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04700404206395017</v>
+        <v>0.04962631163030076</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01735396069504473</v>
+        <v>0.0375817341443507</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04692273912959694</v>
+        <v>0.05043985772260077</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03195869466999669</v>
+        <v>0.08489765729072371</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04894357124461703</v>
+        <v>0.04911497163590071</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06986856890824128</v>
+        <v>0.1319172254346277</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04515290881735799</v>
+        <v>0.04896825023308837</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1120468056032949</v>
+        <v>0.0375817341443507</v>
       </c>
       <c r="O127" t="n">
-        <v>0.0477746001305723</v>
+        <v>0.05043985772260077</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01652787711197021</v>
+        <v>0.03745917557762211</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04767955750265496</v>
+        <v>0.05125340381490078</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03218161571897343</v>
+        <v>0.08463928486537045</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04973298368404634</v>
+        <v>0.04990714859777007</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07069539835290803</v>
+        <v>0.1313867440718157</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04588118154021861</v>
+        <v>0.04975806072071883</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1132373390863057</v>
+        <v>0.03745917557762211</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04854515819719444</v>
+        <v>0.05125340381490078</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01771124621224653</v>
+        <v>0.0371276412985815</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04843637587571298</v>
+        <v>0.05206694990720079</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03239378525540895</v>
+        <v>0.08487376104897287</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05052239612347565</v>
+        <v>0.05069932555963944</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07178455278852475</v>
+        <v>0.1308404685561642</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04660945426307922</v>
+        <v>0.05054787120834929</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1145730885369459</v>
+        <v>0.0371276412985815</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04931571626381657</v>
+        <v>0.05206694990720079</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01690259133578214</v>
+        <v>0.03688800786251532</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04919319424877099</v>
+        <v>0.05288049599950081</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03298055349070542</v>
+        <v>0.08420118541820532</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05131180856290496</v>
+        <v>0.05149150252150881</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07272722640600279</v>
+        <v>0.1308787574508768</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04733772698593983</v>
+        <v>0.05133768169597975</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1159410138774654</v>
+        <v>0.03688800786251532</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0500862743304387</v>
+        <v>0.05288049599950081</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01710043582248553</v>
+        <v>0.03684115182470996</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04995001262182901</v>
+        <v>0.05369404209180082</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03332727063626492</v>
+        <v>0.08482165754974216</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05210122100233426</v>
+        <v>0.05228367948337818</v>
       </c>
       <c r="L131" t="n">
-        <v>0.07351461339625334</v>
+        <v>0.131001969319157</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04806599970880045</v>
+        <v>0.05212749218361021</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1174280750301142</v>
+        <v>0.03684115182470996</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05085683239706084</v>
+        <v>0.05369404209180082</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01730330301226514</v>
+        <v>0.03678794974045187</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05070683099488702</v>
+        <v>0.05450758818410083</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03381928690348959</v>
+        <v>0.08463527702025772</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05289063344176357</v>
+        <v>0.05307585644524754</v>
       </c>
       <c r="L132" t="n">
-        <v>0.07363790795018771</v>
+        <v>0.1312104627242086</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04879427243166106</v>
+        <v>0.05291730267124067</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1196212319171425</v>
+        <v>0.03678794974045187</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05162739046368298</v>
+        <v>0.05450758818410083</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01850971624502945</v>
+        <v>0.03662927816502744</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05146364936794504</v>
+        <v>0.05532113427640084</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03414195250378156</v>
+        <v>0.08464214340642628</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05368004588119288</v>
+        <v>0.05386803340711691</v>
       </c>
       <c r="L133" t="n">
-        <v>0.07448830425871719</v>
+        <v>0.1310045962292352</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04952254515452167</v>
+        <v>0.05370711315887113</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1199074444608002</v>
+        <v>0.03662927816502744</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05239794853030511</v>
+        <v>0.05532113427640084</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01871819886068692</v>
+        <v>0.03636601365372309</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05222046774100305</v>
+        <v>0.05613468036870085</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03468061764854292</v>
+        <v>0.08384235628492223</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05446945832062219</v>
+        <v>0.05466021036898628</v>
       </c>
       <c r="L134" t="n">
-        <v>0.07545699651275309</v>
+        <v>0.1298847283974405</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05025081787738229</v>
+        <v>0.05449692364650158</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1222736725833375</v>
+        <v>0.03636601365372309</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05316850659692723</v>
+        <v>0.05613468036870085</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01892727419914603</v>
+        <v>0.03619903276182525</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05297728611406107</v>
+        <v>0.05694822646100086</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03552063254917581</v>
+        <v>0.08383601523241987</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0552588707600515</v>
+        <v>0.05545238733085565</v>
       </c>
       <c r="L135" t="n">
-        <v>0.07663517890320662</v>
+        <v>0.1299512177920282</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0509790906002429</v>
+        <v>0.05528673413413204</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1231068762070044</v>
+        <v>0.03619903276182525</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05393906466354938</v>
+        <v>0.05694822646100086</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02013546560031522</v>
+        <v>0.03622921204462035</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05373410448711908</v>
+        <v>0.05776177255330087</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03594734741708232</v>
+        <v>0.08432321982559354</v>
       </c>
       <c r="K136" t="n">
-        <v>0.0560482831994808</v>
+        <v>0.05624456429272501</v>
       </c>
       <c r="L136" t="n">
-        <v>0.07751404562098912</v>
+        <v>0.1290044229762018</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05170736332310352</v>
+        <v>0.0560765446217625</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1246940152540511</v>
+        <v>0.03622921204462035</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05470962273017151</v>
+        <v>0.05776177255330087</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01834129640410297</v>
+        <v>0.03595742805739477</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05449092286017709</v>
+        <v>0.05857531864560089</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03634611246366462</v>
+        <v>0.08350406964111753</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05683769563891011</v>
+        <v>0.05703674125459438</v>
       </c>
       <c r="L137" t="n">
-        <v>0.07818479085701185</v>
+        <v>0.1299447025131651</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05243563604596412</v>
+        <v>0.05686635510939295</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1259220496467274</v>
+        <v>0.03595742805739477</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05548018079679364</v>
+        <v>0.05857531864560089</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01954328995041776</v>
+        <v>0.03558455735543499</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05524774123323511</v>
+        <v>0.05938886473790091</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03670227790032482</v>
+        <v>0.08347866425566625</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05762710807833941</v>
+        <v>0.05782891821646374</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07903860880218611</v>
+        <v>0.1297724149661218</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05316390876882474</v>
+        <v>0.05765616559702341</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1273779393072836</v>
+        <v>0.03558455735543499</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05625073886341578</v>
+        <v>0.05938886473790091</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01873996957916803</v>
+        <v>0.03541147649402737</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05600455960629313</v>
+        <v>0.06020241083020092</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03710119393846499</v>
+        <v>0.08364710324591393</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05841652051776872</v>
+        <v>0.05862109517833311</v>
       </c>
       <c r="L139" t="n">
-        <v>0.0803666936474231</v>
+        <v>0.1284879188982754</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05389218149168534</v>
+        <v>0.05844597608465386</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1286486441579696</v>
+        <v>0.03541147649402737</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05702129693003791</v>
+        <v>0.06020241083020092</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01892985863026225</v>
+        <v>0.03523906202845836</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05676137797935114</v>
+        <v>0.06101595692250093</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0374282107894873</v>
+        <v>0.083609486188535</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05920593295719803</v>
+        <v>0.05941327214020248</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08086023958363422</v>
+        <v>0.1290915728728297</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05462045421454596</v>
+        <v>0.05923578657228432</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1293211241210354</v>
+        <v>0.03523906202845836</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05779185499666004</v>
+        <v>0.06101595692250093</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02011148044360891</v>
+        <v>0.03516819051401436</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05751819635240916</v>
+        <v>0.06182950301480094</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03796867866479384</v>
+        <v>0.0834659126602037</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05999534539662733</v>
+        <v>0.06020544910207184</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08161044080173072</v>
+        <v>0.1283837354529883</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05534872693740658</v>
+        <v>0.06002559705991478</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1297823391187313</v>
+        <v>0.03516819051401436</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05856241306328218</v>
+        <v>0.06182950301480094</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02128335835911646</v>
+        <v>0.0349997385059818</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05827501472546717</v>
+        <v>0.06264304910710095</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03813738111607763</v>
+        <v>0.08271648223759442</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06078475783605664</v>
+        <v>0.06099762606394121</v>
       </c>
       <c r="L142" t="n">
-        <v>0.08260849149262381</v>
+        <v>0.1278647652019548</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05607699966026719</v>
+        <v>0.06081540754754524</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1305192490733071</v>
+        <v>0.0349997385059818</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05933297112990431</v>
+        <v>0.06264304910710095</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02044401571669336</v>
+        <v>0.03503458255964713</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05903183309852519</v>
+        <v>0.06345659519940096</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03783718256934017</v>
+        <v>0.0833612944973815</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06157417027548595</v>
+        <v>0.06178980302581057</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0827455858472248</v>
+        <v>0.1271350206829329</v>
       </c>
       <c r="M143" t="n">
-        <v>0.0568052723831278</v>
+        <v>0.06160521803517569</v>
       </c>
       <c r="N143" t="n">
-        <v>0.131218813907013</v>
+        <v>0.03503458255964713</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06010352919652644</v>
+        <v>0.06345659519940096</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01959197585624808</v>
+        <v>0.03487359923029673</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05978865147158321</v>
+        <v>0.06427014129170097</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03803382541116915</v>
+        <v>0.08310044901623923</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06236358271491525</v>
+        <v>0.06258197998767993</v>
       </c>
       <c r="L144" t="n">
-        <v>0.083312918056445</v>
+        <v>0.1265948604591263</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05753354510598842</v>
+        <v>0.06239502852280615</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1311679935420991</v>
+        <v>0.03487359923029673</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06087408726314858</v>
+        <v>0.06427014129170097</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01972576211768908</v>
+        <v>0.03441766507321702</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06054546984464122</v>
+        <v>0.06508368738400098</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03802643110444683</v>
+        <v>0.08293404537084192</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06315299515434455</v>
+        <v>0.0633741569495493</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08390168231119569</v>
+        <v>0.1275446430937386</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05826181782884903</v>
+        <v>0.06318483901043662</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1324582493839274</v>
+        <v>0.03441766507321702</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06164464532977072</v>
+        <v>0.06508368738400098</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02184815712483326</v>
+        <v>0.03446765664369442</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06130228821769923</v>
+        <v>0.065897233476301</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03791514321868573</v>
+        <v>0.08286218313786395</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06394240759377387</v>
+        <v>0.06416633391141867</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08390307280238818</v>
+        <v>0.1268847271499736</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05899009055170965</v>
+        <v>0.06397464949806707</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1315336230402033</v>
+        <v>0.03446765664369442</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06241520339639284</v>
+        <v>0.065897233476301</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02195376528302236</v>
+        <v>0.03442445049701535</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06205910659075725</v>
+        <v>0.06671077956860101</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03810010532339841</v>
+        <v>0.08228496189397963</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06473182003320317</v>
+        <v>0.06495851087328804</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08450828372093364</v>
+        <v>0.1261154711910348</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05971836327457026</v>
+        <v>0.06476445998569753</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1319948128508171</v>
+        <v>0.03442445049701535</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06318576146301498</v>
+        <v>0.06671077956860101</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02206498590263251</v>
+        <v>0.03418892318846624</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06281592496381527</v>
+        <v>0.06752432566090102</v>
       </c>
       <c r="J148" t="n">
-        <v>0.03778146098809732</v>
+        <v>0.08210248121586328</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06552123247263249</v>
+        <v>0.0657506878351574</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08529781525000252</v>
+        <v>0.125237233780126</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06044663599743087</v>
+        <v>0.06555427047332799</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1333510898806671</v>
+        <v>0.03418892318846624</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06395631952963712</v>
+        <v>0.06752432566090102</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02017733024260181</v>
+        <v>0.03416195127333352</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06357274333687328</v>
+        <v>0.06833787175320104</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03785935378229499</v>
+        <v>0.08191484068018925</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06631064491206179</v>
+        <v>0.06654286479702677</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08509494360372888</v>
+        <v>0.1249503734804506</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06117490872029147</v>
+        <v>0.06634408096095845</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1326023538103649</v>
+        <v>0.03416195127333352</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06472687759625924</v>
+        <v>0.06833787175320104</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02029055464194365</v>
+        <v>0.03384441130690358</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06432956170993129</v>
+        <v>0.06915141784550105</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03803392727550398</v>
+        <v>0.08182213986363188</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06710005735149109</v>
+        <v>0.06733504175889614</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08449444149725052</v>
+        <v>0.1253552488552125</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06190318144315209</v>
+        <v>0.0671338914485889</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1330485043205217</v>
+        <v>0.03384441130690358</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06549743566288138</v>
+        <v>0.06915141784550105</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02140441543967146</v>
+        <v>0.0339370371470432</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06508638008298931</v>
+        <v>0.06996496393780106</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03790532503723675</v>
+        <v>0.08152447834286547</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06788946979092041</v>
+        <v>0.06812721872076551</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08478058751018075</v>
+        <v>0.1241522184676154</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06263145416601271</v>
+        <v>0.06792370193621937</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1328894410917492</v>
+        <v>0.0339370371470432</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06626799372950352</v>
+        <v>0.06996496393780106</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02151866897479861</v>
+        <v>0.03363640183706663</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06584319845604733</v>
+        <v>0.07077851003010108</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03767369063700587</v>
+        <v>0.08132195569456438</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06867888223034972</v>
+        <v>0.06891939568263487</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08505641933856278</v>
+        <v>0.1239416408808628</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06335972688887331</v>
+        <v>0.06871351242384982</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1336250638046586</v>
+        <v>0.03363640183706663</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06703855179612565</v>
+        <v>0.07077851003010108</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02163307158633851</v>
+        <v>0.03354050509633236</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06660001682910534</v>
+        <v>0.07159205612240109</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03763916764432383</v>
+        <v>0.08091467149540291</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06946829466977901</v>
+        <v>0.06971157264450423</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08502236038380145</v>
+        <v>0.1243238746581584</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06408799961173393</v>
+        <v>0.06950332291148027</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1343552721398613</v>
+        <v>0.03354050509633236</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06780910986274778</v>
+        <v>0.07159205612240109</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02274737961330454</v>
+        <v>0.03354905657990612</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06735683520216336</v>
+        <v>0.07240560221470109</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03760189962870315</v>
+        <v>0.08120272532205541</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07025770710920833</v>
+        <v>0.07050374960637359</v>
       </c>
       <c r="L154" t="n">
-        <v>0.08457883404730165</v>
+        <v>0.1227992783627059</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06481627233459454</v>
+        <v>0.07029313339911072</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1334799657779688</v>
+        <v>0.03354905657990612</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06857966792936993</v>
+        <v>0.07240560221470109</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02086134939471017</v>
+        <v>0.03326176594285377</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06811365357522137</v>
+        <v>0.07321914830700112</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03756203015965633</v>
+        <v>0.08088621675119617</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07104711954863763</v>
+        <v>0.07129592656824296</v>
       </c>
       <c r="L155" t="n">
-        <v>0.08442626373046813</v>
+        <v>0.1227682105577088</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06554454505745516</v>
+        <v>0.07108294388674119</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1341990443995927</v>
+        <v>0.03326176594285377</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06935022599599205</v>
+        <v>0.07321914830700112</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02297473726956875</v>
+        <v>0.03327834284024107</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06887047194827939</v>
+        <v>0.07403269439930113</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03751970280669592</v>
+        <v>0.08076524535949958</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07183653198806694</v>
+        <v>0.07208810353011233</v>
       </c>
       <c r="L156" t="n">
-        <v>0.08456507283470585</v>
+        <v>0.1230310298063711</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06627281778031577</v>
+        <v>0.07187275437437164</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1342124076853443</v>
+        <v>0.03327834284024107</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07012078406261418</v>
+        <v>0.07403269439930113</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02108729957689368</v>
+        <v>0.03339849692713391</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06962729032133741</v>
+        <v>0.07484624049160114</v>
       </c>
       <c r="J157" t="n">
-        <v>0.0377750611393344</v>
+        <v>0.08063991072363991</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07262594442749624</v>
+        <v>0.0728802804919817</v>
       </c>
       <c r="L157" t="n">
-        <v>0.08459568476141957</v>
+        <v>0.1224880946718961</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06700109050317639</v>
+        <v>0.07266256486200211</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1354199553158349</v>
+        <v>0.03339849692713391</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07089134212923633</v>
+        <v>0.07484624049160114</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02119879265569836</v>
+        <v>0.03312193785859807</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07038410869439542</v>
+        <v>0.07565978658390116</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03772824872708433</v>
+        <v>0.08041031242029156</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07341535686692555</v>
+        <v>0.07367245745385106</v>
       </c>
       <c r="L158" t="n">
-        <v>0.08471852291201423</v>
+        <v>0.1214397637174877</v>
       </c>
       <c r="M158" t="n">
-        <v>0.067729363226037</v>
+        <v>0.07345237534963256</v>
       </c>
       <c r="N158" t="n">
-        <v>0.134621586971676</v>
+        <v>0.03312193785859807</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07166190019585846</v>
+        <v>0.07565978658390116</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02130897284499625</v>
+        <v>0.03304837528969937</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07114092706745342</v>
+        <v>0.07647333267620116</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0375794091394582</v>
+        <v>0.07987655002612878</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07420476930635486</v>
+        <v>0.07446463441572043</v>
       </c>
       <c r="L159" t="n">
-        <v>0.08403401068789462</v>
+        <v>0.1209863955063494</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0684576359488976</v>
+        <v>0.07424218583726301</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1357172023334791</v>
+        <v>0.03304837528969937</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07243245826248058</v>
+        <v>0.07647333267620116</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02141759648380068</v>
+        <v>0.03317751887550363</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07189774544051146</v>
+        <v>0.07728687876850117</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03752868594596855</v>
+        <v>0.07913872311782597</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07499418174578416</v>
+        <v>0.0752568113775898</v>
       </c>
       <c r="L160" t="n">
-        <v>0.08404257149046557</v>
+        <v>0.120328348601685</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06918590867175822</v>
+        <v>0.07503199632489348</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1358067010818557</v>
+        <v>0.03317751887550363</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07320301632910273</v>
+        <v>0.07728687876850117</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02152441991112508</v>
+        <v>0.03300907827107667</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07265456381356947</v>
+        <v>0.07810042486080118</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03757622271612786</v>
+        <v>0.07909693127205744</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07578359418521348</v>
+        <v>0.07604898833945917</v>
       </c>
       <c r="L161" t="n">
-        <v>0.084544628721132</v>
+        <v>0.1204659815666981</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06991418139461883</v>
+        <v>0.07582180681252393</v>
       </c>
       <c r="N161" t="n">
-        <v>0.135989982897417</v>
+        <v>0.03300907827107667</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07397357439572486</v>
+        <v>0.07810042486080118</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02162919946598287</v>
+        <v>0.0329427631314843</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07341138218662747</v>
+        <v>0.0789139709531012</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03742216301944866</v>
+        <v>0.07935127406549747</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07657300662464278</v>
+        <v>0.07684116530132852</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08374060578129866</v>
+        <v>0.1196996529645923</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07064245411747945</v>
+        <v>0.07661161730015439</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1361669474607746</v>
+        <v>0.0329427631314843</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07474413246234698</v>
+        <v>0.0789139709531012</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02373169148738741</v>
+        <v>0.03287828311179235</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0741682005596855</v>
+        <v>0.07972751704540121</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03716665042544351</v>
+        <v>0.07900185107482047</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07736241906407208</v>
+        <v>0.07763334226319789</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08413092607237049</v>
+        <v>0.1186297213585713</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07137072684034006</v>
+        <v>0.07740142778778485</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1363374944525398</v>
+        <v>0.03287828311179235</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07551469052896913</v>
+        <v>0.07972751704540121</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02383165231435214</v>
+        <v>0.03271534786706663</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0749250189327435</v>
+        <v>0.08054106313770122</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03710982850362486</v>
+        <v>0.07874876187670068</v>
       </c>
       <c r="K164" t="n">
-        <v>0.0781518315035014</v>
+        <v>0.07842551922506726</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08351601299575231</v>
+        <v>0.1182565453118389</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07209899956320068</v>
+        <v>0.07819123827541531</v>
       </c>
       <c r="N164" t="n">
-        <v>0.136001523553324</v>
+        <v>0.03271534786706663</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07628524859559127</v>
+        <v>0.08054106313770122</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02192883828589046</v>
+        <v>0.03285366705237297</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07568183730580152</v>
+        <v>0.08135460923000123</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03735184082350526</v>
+        <v>0.07859210604781255</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07894124394293071</v>
+        <v>0.07921769618693662</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08409628995284896</v>
+        <v>0.1176804833875985</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07282727228606128</v>
+        <v>0.07898104876304576</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1367589344437388</v>
+        <v>0.03285366705237297</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07705580666221339</v>
+        <v>0.08135460923000123</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02202300574101575</v>
+        <v>0.03249295032277716</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07643865567885955</v>
+        <v>0.08216815532230125</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03709283095459724</v>
+        <v>0.0779319831648303</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07973065638236</v>
+        <v>0.08000987314880599</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08407218034506531</v>
+        <v>0.1175971047313588</v>
       </c>
       <c r="M166" t="n">
-        <v>0.0735555450089219</v>
+        <v>0.07977085925067623</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1359096268043956</v>
+        <v>0.03249295032277716</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07782636472883553</v>
+        <v>0.08216815532230125</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02211391101874143</v>
+        <v>0.03243290733334503</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07719547405191755</v>
+        <v>0.08298170141460126</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03703294246641328</v>
+        <v>0.07736849280442831</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08052006882178932</v>
+        <v>0.08080205011067536</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08354410757380615</v>
+        <v>0.1170615284291213</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07428381773178251</v>
+        <v>0.08056066973830668</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1363535003159057</v>
+        <v>0.03243290733334503</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07859692279545767</v>
+        <v>0.08298170141460126</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02220131045808089</v>
+        <v>0.0325732477391424</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07795229242497556</v>
+        <v>0.08379524750690127</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03717231892846595</v>
+        <v>0.0771017345432809</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08130948126121862</v>
+        <v>0.08159422707254473</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08361249504047641</v>
+        <v>0.1165649050632343</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07501209045464313</v>
+        <v>0.08135048022593715</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1371904546588806</v>
+        <v>0.0325732477391424</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07936748086207979</v>
+        <v>0.08379524750690127</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02328496039804755</v>
+        <v>0.03241368119523509</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0787091107980336</v>
+        <v>0.08460879359920129</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03701110391026773</v>
+        <v>0.07683162556722747</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08209889370064793</v>
+        <v>0.08238640403441409</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08327776614648091</v>
+        <v>0.1156100646986019</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07574036317750373</v>
+        <v>0.0821402907135676</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1364203895139316</v>
+        <v>0.03241368119523509</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08013803892870193</v>
+        <v>0.08460879359920129</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0223646171776548</v>
+        <v>0.03245391735668891</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0794659291710916</v>
+        <v>0.0854223396915013</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03684944098133114</v>
+        <v>0.07661648812826855</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08288830614007724</v>
+        <v>0.08317858099628346</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08284034429322448</v>
+        <v>0.1154998374001279</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07646863590036435</v>
+        <v>0.08293010120119805</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1365432045616704</v>
+        <v>0.03245391735668891</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08090859699532407</v>
+        <v>0.0854223396915013</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02244003713591604</v>
+        <v>0.03249366587856969</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08022274754414961</v>
+        <v>0.0862358857838013</v>
       </c>
       <c r="J171" t="n">
-        <v>0.0368874737111687</v>
+        <v>0.07652811582092603</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08367771857950654</v>
+        <v>0.08397075795815283</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08320065288211201</v>
+        <v>0.1146370532327162</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07719690862322497</v>
+        <v>0.0837199116888285</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1366587994827082</v>
+        <v>0.03249366587856969</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08167915506194619</v>
+        <v>0.0862358857838013</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02251097661184466</v>
+        <v>0.03233263641594324</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08097956591720763</v>
+        <v>0.08704943187610133</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03682534566929292</v>
+        <v>0.07617187594967162</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08446713101893585</v>
+        <v>0.0847629349200222</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08315911531454828</v>
+        <v>0.1133245422612708</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07792518134608557</v>
+        <v>0.08450972217645897</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1365670739576565</v>
+        <v>0.03233263641594324</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08244971312856833</v>
+        <v>0.08704943187610133</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0235771919444541</v>
+        <v>0.03237053862387536</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08173638429026564</v>
+        <v>0.08786297796840134</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03676320042521634</v>
+        <v>0.0759531358189772</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08525654345836516</v>
+        <v>0.08555511188189156</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08291615499193819</v>
+        <v>0.1126651345506954</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07865345406894619</v>
+        <v>0.08529953266408942</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1371679276671268</v>
+        <v>0.03237053862387536</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08322027119519047</v>
+        <v>0.08786297796840134</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02463843947275773</v>
+        <v>0.0323070821574319</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08249320266332366</v>
+        <v>0.08867652406070135</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03660118154845145</v>
+        <v>0.0747772627333145</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08604595589779446</v>
+        <v>0.08634728884376093</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08247219531568661</v>
+        <v>0.111761660165894</v>
       </c>
       <c r="M174" t="n">
-        <v>0.0793817267918068</v>
+        <v>0.08608934315171989</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1377612602917303</v>
+        <v>0.0323070821574319</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0839908292618126</v>
+        <v>0.08867652406070135</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02369447553576898</v>
+        <v>0.03224197667167866</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08325002103638168</v>
+        <v>0.08949007015300137</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03643943260851082</v>
+        <v>0.07394962399715535</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08683536833722377</v>
+        <v>0.0871394658056303</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08282765968719835</v>
+        <v>0.1107169491717706</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08010999951466742</v>
+        <v>0.08687915363935034</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1377469715120786</v>
+        <v>0.03224197667167866</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08476138732843473</v>
+        <v>0.08949007015300137</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0227450564725012</v>
+        <v>0.03187493182168147</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08400683940943969</v>
+        <v>0.09030361624530137</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03657809717490688</v>
+        <v>0.07407558691497154</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08762478077665307</v>
+        <v>0.08793164276749967</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08208297150787827</v>
+        <v>0.1098338316332289</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08083827223752803</v>
+        <v>0.0876689641269808</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1381249610087831</v>
+        <v>0.03187493182168147</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08553194539505687</v>
+        <v>0.09030361624530137</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02278993862196785</v>
+        <v>0.03210565726250611</v>
       </c>
       <c r="G177" t="n">
-        <v>0.0847636577824977</v>
+        <v>0.09111716233760138</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03631731881715221</v>
+        <v>0.07286051879123484</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08841419321608239</v>
+        <v>0.08872381972936903</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08193855417913123</v>
+        <v>0.109615137615173</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08156654496038865</v>
+        <v>0.08845877461461125</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1373951284624553</v>
+        <v>0.03210565726250611</v>
       </c>
       <c r="O177" t="n">
-        <v>0.086302503461679</v>
+        <v>0.09111716233760138</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02382887832318231</v>
+        <v>0.03183386264921843</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08552047615555573</v>
+        <v>0.09193070842990139</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03655724110475932</v>
+        <v>0.07240978693041711</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08920360565551171</v>
+        <v>0.0895159966912384</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08209483110236204</v>
+        <v>0.1073636971825066</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08229481768324926</v>
+        <v>0.08924858510224172</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1382573735537064</v>
+        <v>0.03183386264921843</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08707306152830113</v>
+        <v>0.09193070842990139</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.024861631915158</v>
+        <v>0.03195925763688427</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08627729452861374</v>
+        <v>0.09274425452220141</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03639800760724071</v>
+        <v>0.07132875863699009</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08999301809494099</v>
+        <v>0.09030817365310777</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08175222567897561</v>
+        <v>0.1074823404001338</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08302309040610986</v>
+        <v>0.09003839558987217</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1378115959631481</v>
+        <v>0.03195925763688427</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08784361959492328</v>
+        <v>0.09274425452220141</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02488795573690827</v>
+        <v>0.03188155188056938</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08703411290167175</v>
+        <v>0.09355780061450142</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03633976189410891</v>
+        <v>0.07082280121542558</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09078243053437031</v>
+        <v>0.09110035061497712</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08171116131037673</v>
+        <v>0.1064738973329584</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08375136312897047</v>
+        <v>0.09082820607750264</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1381576953713917</v>
+        <v>0.03188155188056938</v>
       </c>
       <c r="O180" t="n">
-        <v>0.0886141776615454</v>
+        <v>0.09355780061450142</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02290760612744656</v>
+        <v>0.03150045503533964</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08779093127472977</v>
+        <v>0.09437134670680143</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03608264753487644</v>
+        <v>0.06949728197019542</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09157184297379961</v>
+        <v>0.09189252757684649</v>
       </c>
       <c r="L181" t="n">
-        <v>0.0817720613979703</v>
+        <v>0.1042411980458842</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08447963585183109</v>
+        <v>0.09161801656513309</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1373955714590486</v>
+        <v>0.03150045503533964</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08938473572816753</v>
+        <v>0.09437134670680143</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02492033942578628</v>
+        <v>0.03151567675626082</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08854774964778779</v>
+        <v>0.09518489279910144</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03602680809905581</v>
+        <v>0.06895756820577134</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09236125541322893</v>
+        <v>0.09268470453871586</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08173534934316115</v>
+        <v>0.1041870726038152</v>
       </c>
       <c r="M182" t="n">
-        <v>0.0852079085746917</v>
+        <v>0.09240782705276356</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1373251239067302</v>
+        <v>0.03151567675626082</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09015529379478968</v>
+        <v>0.09518489279910144</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02392591197094082</v>
+        <v>0.0313269266983988</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0893045680208458</v>
+        <v>0.09599843889140146</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03607164183723977</v>
+        <v>0.0684090272266252</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09315066785265823</v>
+        <v>0.09347688150058522</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08110124349995165</v>
+        <v>0.1021143510716553</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08593618129755232</v>
+        <v>0.09319763754039401</v>
       </c>
       <c r="N183" t="n">
-        <v>0.137946252395048</v>
+        <v>0.0313269266983988</v>
       </c>
       <c r="O183" t="n">
-        <v>0.0909258518614118</v>
+        <v>0.09599843889140146</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0229151287102525</v>
+        <v>0.03133391451681933</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09006138639390382</v>
+        <v>0.09681198498370147</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03601611833478843</v>
+        <v>0.06765702633722875</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09394008029208753</v>
+        <v>0.09426905846245459</v>
       </c>
       <c r="L184" t="n">
-        <v>0.08125882108256932</v>
+        <v>0.1011258635143085</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08666445402041294</v>
+        <v>0.09398744802802446</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1380588566046135</v>
+        <v>0.03133391451681933</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09169640992803393</v>
+        <v>0.09681198498370147</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0248668784779327</v>
+        <v>0.03133634986658826</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09081820476696183</v>
+        <v>0.09762553107600148</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03586017655998681</v>
+        <v>0.06610693284205377</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09472949273151685</v>
+        <v>0.09506123542432396</v>
       </c>
       <c r="L185" t="n">
-        <v>0.08080245360647018</v>
+        <v>0.1005244399966785</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08739272674327354</v>
+        <v>0.09477725851565491</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1382627201641736</v>
+        <v>0.03133634986658826</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09246696799465608</v>
+        <v>0.09762553107600148</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02278285362781524</v>
+        <v>0.03123394240277141</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09157502314001983</v>
+        <v>0.0984390771683015</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03580376281857996</v>
+        <v>0.06576411404557211</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09551890517094615</v>
+        <v>0.09585341238619333</v>
       </c>
       <c r="L186" t="n">
-        <v>0.08123321364621</v>
+        <v>0.09881291058366926</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08812099946613416</v>
+        <v>0.09556706900328538</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1372881091368532</v>
+        <v>0.03123394240277141</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09323752606127821</v>
+        <v>0.0984390771683015</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02366585090696256</v>
+        <v>0.03102640178043456</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09233184151307787</v>
+        <v>0.09925262326060151</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03574682341631293</v>
+        <v>0.06483393725225556</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09630831761037545</v>
+        <v>0.09664558934806269</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08075217377634458</v>
+        <v>0.09759410534018476</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08884927218899477</v>
+        <v>0.09635687949091583</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1381816549481963</v>
+        <v>0.03102640178043456</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09400808412790033</v>
+        <v>0.09925262326060151</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02451866706243717</v>
+        <v>0.03111343765464358</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09308865988613588</v>
+        <v>0.1000661693529015</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03598930465893081</v>
+        <v>0.0637217697665759</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09709773004980476</v>
+        <v>0.09743776630993206</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08036040657142968</v>
+        <v>0.09697085433112879</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08957754491185539</v>
+        <v>0.09714668997854629</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1374517457504623</v>
+        <v>0.03111343765464358</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09477864219452248</v>
+        <v>0.1000661693529015</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02434409884130158</v>
+        <v>0.03069475968046428</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09384547825919388</v>
+        <v>0.1008797154452015</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03583115285217869</v>
+        <v>0.0628329788930049</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09788714248923407</v>
+        <v>0.09822994327180141</v>
       </c>
       <c r="L189" t="n">
-        <v>0.0802589846060211</v>
+        <v>0.09544598762140527</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09030581763471598</v>
+        <v>0.09793650046617675</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1368067696959106</v>
+        <v>0.03069475968046428</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09554920026114461</v>
+        <v>0.1008797154452015</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0221449429906182</v>
+        <v>0.03067007751296244</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09460229663225191</v>
+        <v>0.1016932615375016</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03567231430180164</v>
+        <v>0.06257293193601438</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09867655492866338</v>
+        <v>0.09902212023367078</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08024898045467463</v>
+        <v>0.09332233527591821</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09103409035757661</v>
+        <v>0.0987263109538072</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1362551149368005</v>
+        <v>0.03067007751296244</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09631975832776674</v>
+        <v>0.1016932615375016</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02392399625744955</v>
+        <v>0.03073910080720391</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09535911500530993</v>
+        <v>0.1025068076298016</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03551273531354474</v>
+        <v>0.06184699620007611</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09946596736809268</v>
+        <v>0.09981429719554015</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08003146669194605</v>
+        <v>0.09220272735957136</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09176236308043721</v>
+        <v>0.09951612144143766</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1356051696253913</v>
+        <v>0.03073910080720391</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09709031639438888</v>
+        <v>0.1025068076298016</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02368405538885809</v>
+        <v>0.03030153921825451</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09611593337836793</v>
+        <v>0.1033203537221016</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03545236219315302</v>
+        <v>0.06086053898966198</v>
       </c>
       <c r="K192" t="n">
-        <v>0.100255379807522</v>
+        <v>0.1006064741574095</v>
       </c>
       <c r="L192" t="n">
-        <v>0.07950751589239105</v>
+        <v>0.09168999393726873</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09249063580329783</v>
+        <v>0.1003059319290681</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1346653219139422</v>
+        <v>0.03030153921825451</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09786087446101101</v>
+        <v>0.1033203537221016</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02342791713190634</v>
+        <v>0.03035710240118002</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09687275175142596</v>
+        <v>0.1041338998144016</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03569114124637159</v>
+        <v>0.06071892760924369</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1010447922469513</v>
+        <v>0.1013986511192789</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07947820063056557</v>
+        <v>0.09088696507391408</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09321890852615844</v>
+        <v>0.1010957424166986</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1344439599547129</v>
+        <v>0.03035710240118002</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09863143252763314</v>
+        <v>0.1041338998144016</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02215837823365674</v>
+        <v>0.03020550001104629</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09762957012448396</v>
+        <v>0.1049474459067016</v>
       </c>
       <c r="J194" t="n">
-        <v>0.0355290187789455</v>
+        <v>0.05972752936329304</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1018342046863806</v>
+        <v>0.1021908280811483</v>
       </c>
       <c r="L194" t="n">
-        <v>0.07894459348102525</v>
+        <v>0.08869647083441146</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09394718124901906</v>
+        <v>0.101885552904329</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1328494718999624</v>
+        <v>0.03020550001104629</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09940199059425528</v>
+        <v>0.1049474459067016</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02287823544117178</v>
+        <v>0.02994535930386481</v>
       </c>
       <c r="G195" t="n">
-        <v>0.09838638849754197</v>
+        <v>0.1057609919990016</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03546594109661985</v>
+        <v>0.05949171155628186</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1026236171258099</v>
+        <v>0.1029830050430176</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07850776701832596</v>
+        <v>0.08812134128366472</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09467545397187967</v>
+        <v>0.1026753633919595</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1316902459019502</v>
+        <v>0.02994535930386481</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1001725486608774</v>
+        <v>0.1057609919990016</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02059028550151393</v>
+        <v>0.02971374308072285</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09914320687060001</v>
+        <v>0.1065745380913016</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03550185450513971</v>
+        <v>0.05870483128729528</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1034130295652392</v>
+        <v>0.103775182004887</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0784687938170234</v>
+        <v>0.08616440648657769</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09540372669474029</v>
+        <v>0.10346517387959</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1312746701129355</v>
+        <v>0.02971374308072285</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1009431067274996</v>
+        <v>0.1065745380913016</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02029732516174568</v>
+        <v>0.02938278478716502</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09990002524365801</v>
+        <v>0.1073880841836016</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03543670531025013</v>
+        <v>0.05783360082869066</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1042024420046685</v>
+        <v>0.1045673589667564</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07822874645167344</v>
+        <v>0.08602849650805433</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09613199941760091</v>
+        <v>0.1042549843672204</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1297111326851778</v>
+        <v>0.02938278478716502</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1017136647941217</v>
+        <v>0.1073880841836016</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02000215116892951</v>
+        <v>0.02886459241908819</v>
       </c>
       <c r="G198" t="n">
-        <v>0.100656843616716</v>
+        <v>0.1082016302759016</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0351704398176962</v>
+        <v>0.05767511713948612</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1049918544440978</v>
+        <v>0.1053595359286257</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07788869749683178</v>
+        <v>0.08501644141299852</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0968602721404615</v>
+        <v>0.1050447948548509</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1293080217709364</v>
+        <v>0.02886459241908819</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1024842228607438</v>
+        <v>0.1082016302759016</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02170756027012791</v>
+        <v>0.02857127397238933</v>
       </c>
       <c r="G199" t="n">
-        <v>0.101413661989774</v>
+        <v>0.1090151763682017</v>
       </c>
       <c r="J199" t="n">
-        <v>0.035203004333223</v>
+        <v>0.05712876730667185</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1057812668835271</v>
+        <v>0.1061517128904951</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07804971952705425</v>
+        <v>0.08333107126631423</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09758854486332212</v>
+        <v>0.1058346053424813</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1281737255224706</v>
+        <v>0.02857127397238933</v>
       </c>
       <c r="O199" t="n">
-        <v>0.103254780927366</v>
+        <v>0.1090151763682017</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01941634921240332</v>
+        <v>0.02801493744296532</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1021704803628321</v>
+        <v>0.1098287224605017</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03503434516257559</v>
+        <v>0.05719393841723813</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1065706793229564</v>
+        <v>0.1069438898523644</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07811288511689657</v>
+        <v>0.08297521613290515</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09831681758618273</v>
+        <v>0.1066244158301118</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1262166320920398</v>
+        <v>0.02801493744296532</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1040253389939881</v>
+        <v>0.1098287224605017</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01913131474281825</v>
+        <v>0.02750769082671309</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1029272987358901</v>
+        <v>0.1106422685528017</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03506440861149904</v>
+        <v>0.05647001755817505</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1073600917623858</v>
+        <v>0.1077360668142338</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07737926684091462</v>
+        <v>0.08135051698998669</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09904509030904335</v>
+        <v>0.1074142263177423</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1250451296319031</v>
+        <v>0.02750769082671309</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1047958970606102</v>
+        <v>0.1106422685528017</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0208552536084352</v>
+        <v>0.02656164211952958</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1036841171089481</v>
+        <v>0.1114558146451017</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03489314098573844</v>
+        <v>0.05585639181647289</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1081495042018151</v>
+        <v>0.1085282437761032</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07724993727366411</v>
+        <v>0.08042439445870658</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09977336303190396</v>
+        <v>0.1082040368053727</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1246676062943201</v>
+        <v>0.02656164211952958</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1055664551272324</v>
+        <v>0.1114558146451017</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.0195909625563166</v>
+        <v>0.02598889931731167</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1044409354820061</v>
+        <v>0.1122693607374017</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03482048859103883</v>
+        <v>0.05575244827912185</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1089389166412444</v>
+        <v>0.1093204207379726</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07672596898970083</v>
+        <v>0.07918361339652613</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1005016357547646</v>
+        <v>0.1089938472930032</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1231924502315501</v>
+        <v>0.02598889931731167</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1063370131938545</v>
+        <v>0.1122693607374017</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01934123833352495</v>
+        <v>0.02530157041595631</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1051977538550641</v>
+        <v>0.1130829068297017</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03474639773314532</v>
+        <v>0.05565757403311214</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1097283290806737</v>
+        <v>0.1101125976998419</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07720843456358059</v>
+        <v>0.07783159600162431</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1012299084776252</v>
+        <v>0.1097836577806336</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1220280495958522</v>
+        <v>0.02530157041595631</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1071075712604766</v>
+        <v>0.1130829068297017</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02010887768712272</v>
+        <v>0.0247117634113604</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1059545722281221</v>
+        <v>0.1138964529220017</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03487081471780298</v>
+        <v>0.05457115616543387</v>
       </c>
       <c r="K205" t="n">
-        <v>0.110517741520103</v>
+        <v>0.1109047746617113</v>
       </c>
       <c r="L205" t="n">
-        <v>0.0761984065698591</v>
+        <v>0.07697176447218029</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1019581812004858</v>
+        <v>0.1105734682682641</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1214827925394861</v>
+        <v>0.0247117634113604</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1078781293270988</v>
+        <v>0.1138964529220017</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01889667736417242</v>
+        <v>0.02403158629942088</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1067113906011801</v>
+        <v>0.1147099990143017</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03479368585075686</v>
+        <v>0.05489258176307735</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1113071539595323</v>
+        <v>0.1116969516235806</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07629695758309224</v>
+        <v>0.07540754100637342</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1026864539233464</v>
+        <v>0.1113632787558945</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1196650672147109</v>
+        <v>0.02403158629942088</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1086486873937209</v>
+        <v>0.1147099990143017</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0197074341117365</v>
+        <v>0.02337314707603466</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1074682089742382</v>
+        <v>0.1155235451066017</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03451495743775206</v>
+        <v>0.05452123791303273</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1120965663989616</v>
+        <v>0.11248912858545</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07590516017783569</v>
+        <v>0.07474234780238259</v>
       </c>
       <c r="M207" t="n">
-        <v>0.103414726646207</v>
+        <v>0.112153089243525</v>
       </c>
       <c r="N207" t="n">
-        <v>0.118783261773786</v>
+        <v>0.02337314707603466</v>
       </c>
       <c r="O207" t="n">
-        <v>0.109419245460343</v>
+        <v>0.1155235451066017</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01754394467687744</v>
+        <v>0.02254855373709866</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1082250273472962</v>
+        <v>0.1163370911989018</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03463457578453363</v>
+        <v>0.05365651170229022</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1128859788383909</v>
+        <v>0.1132813055473194</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0757240869286453</v>
+        <v>0.07327960705838721</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1041429993690676</v>
+        <v>0.1129428997311554</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1172457643689707</v>
+        <v>0.02254855373709866</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1101898035269652</v>
+        <v>0.1163370911989018</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01740900580665773</v>
+        <v>0.02216991427850977</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1089818457203542</v>
+        <v>0.1171506372912018</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03435248719684665</v>
+        <v>0.05339779021784002</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1136753912778202</v>
+        <v>0.1140734825091888</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07595481041007685</v>
+        <v>0.07282274097256636</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1048712720919282</v>
+        <v>0.1137327102187859</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1170609631525244</v>
+        <v>0.02216991427850977</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1109603615935873</v>
+        <v>0.1171506372912018</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01730541424813985</v>
+        <v>0.02164933669616496</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1097386640934122</v>
+        <v>0.1179641833835018</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03436863798043618</v>
+        <v>0.05334446054667238</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1144648037172495</v>
+        <v>0.1148656594710581</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07609840319668607</v>
+        <v>0.07147517174309909</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1055995448147889</v>
+        <v>0.1145225207064164</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1163368460152907</v>
+        <v>0.02164933669616496</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1117309196602094</v>
+        <v>0.1179641833835018</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01823595179733585</v>
+        <v>0.02119892898596111</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1104954824664702</v>
+        <v>0.1187777294758018</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03428298648866282</v>
+        <v>0.05309590977577738</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1152542161566788</v>
+        <v>0.1156578364329275</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07555593786302872</v>
+        <v>0.07104032156816464</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1063278175376495</v>
+        <v>0.1153123311940468</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1147387131042504</v>
+        <v>0.02119892898596111</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1125014777268316</v>
+        <v>0.1187777294758018</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01718390267408388</v>
+        <v>0.02063079914379519</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1112523008395282</v>
+        <v>0.1195912755681018</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03419554181457121</v>
+        <v>0.05235152499214529</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1160436285961081</v>
+        <v>0.1164500133947968</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07572848698366069</v>
+        <v>0.06972161264594218</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1070560902605101</v>
+        <v>0.1161021416816773</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1136400096597626</v>
+        <v>0.02063079914379519</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1132720357934537</v>
+        <v>0.1195912755681018</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0171327214765709</v>
+        <v>0.02035705516556406</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1120091192125863</v>
+        <v>0.1204048216604018</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03400631180072028</v>
+        <v>0.05181069328276638</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1168330410355374</v>
+        <v>0.1172421903566662</v>
       </c>
       <c r="L213" t="n">
-        <v>0.0751171231331377</v>
+        <v>0.06872246717461084</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1077843629833707</v>
+        <v>0.1168919521693077</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1131407279080139</v>
+        <v>0.02035705516556406</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1140425938600758</v>
+        <v>0.1204048216604018</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01708241300052268</v>
+        <v>0.02048980504716465</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1127659375856443</v>
+        <v>0.1212183677527019</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03401530319585988</v>
+        <v>0.05147280173463079</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1176224534749668</v>
+        <v>0.1180343673185356</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07532291888601553</v>
+        <v>0.06764630735234967</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1085126357062313</v>
+        <v>0.1176817626569382</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1118408600751912</v>
+        <v>0.02048980504716465</v>
       </c>
       <c r="O214" t="n">
-        <v>0.114813151926698</v>
+        <v>0.1212183677527019</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01903298204166497</v>
+        <v>0.02009717801852134</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1135227559587023</v>
+        <v>0.1220319138450019</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03402252274873981</v>
+        <v>0.05153723743472866</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1184118659143961</v>
+        <v>0.118826544280405</v>
       </c>
       <c r="L215" t="n">
-        <v>0.0755469468168499</v>
+        <v>0.06619655537733804</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1092409084290919</v>
+        <v>0.1184715731445686</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1115403983874809</v>
+        <v>0.02009717801852134</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1155837099933201</v>
+        <v>0.1220319138450019</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01798443339572356</v>
+        <v>0.02030797420345548</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1142795743317603</v>
+        <v>0.1228454599373019</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03382797720810987</v>
+        <v>0.05120338747005027</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1192012783538254</v>
+        <v>0.1196187212422743</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07529027950019671</v>
+        <v>0.06637663344775496</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1099691811519525</v>
+        <v>0.1192613836321991</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1107393350710699</v>
+        <v>0.02030797420345548</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1163542680599422</v>
+        <v>0.1228454599373019</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01893677185842423</v>
+        <v>0.02002085872546688</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1150363927048183</v>
+        <v>0.1236590060296019</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0335316733227199</v>
+        <v>0.05057063892758581</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1199906907932547</v>
+        <v>0.1204108982041437</v>
       </c>
       <c r="L217" t="n">
-        <v>0.07465398951061167</v>
+        <v>0.06498996376177962</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1106974538748132</v>
+        <v>0.1200511941198296</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1093376623521446</v>
+        <v>0.02002085872546688</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1171248261265644</v>
+        <v>0.1236590060296019</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01789000222549272</v>
+        <v>0.01983582109646422</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1157932110778763</v>
+        <v>0.1244725521219019</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03373361784131973</v>
+        <v>0.05023837889432547</v>
       </c>
       <c r="K218" t="n">
-        <v>0.120780103232684</v>
+        <v>0.121203075166013</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07463914942265054</v>
+        <v>0.06413996851759124</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1114257265976738</v>
+        <v>0.12084100460746</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1089353724568919</v>
+        <v>0.01983582109646422</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1178953841931865</v>
+        <v>0.1244725521219019</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01784412929265484</v>
+        <v>0.02005285082835617</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1165500294509343</v>
+        <v>0.1252860982142019</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03343381751265913</v>
+        <v>0.05010599445725947</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1215695156721133</v>
+        <v>0.1219952521278824</v>
       </c>
       <c r="L219" t="n">
-        <v>0.0752398078681582</v>
+        <v>0.06293006991336886</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1121539993205344</v>
+        <v>0.1216308150950905</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1075324576114982</v>
+        <v>0.02005285082835617</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1186659422598086</v>
+        <v>0.1252860982142019</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01679915785563633</v>
+        <v>0.01997193743305145</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1173068478239924</v>
+        <v>0.1260996443065019</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03343227908548796</v>
+        <v>0.04947287270337797</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1223589281115426</v>
+        <v>0.1227874290897518</v>
       </c>
       <c r="L220" t="n">
-        <v>0.07524361526146639</v>
+        <v>0.06264644847763717</v>
       </c>
       <c r="M220" t="n">
-        <v>0.112882272043395</v>
+        <v>0.1224206255827209</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1070289100421504</v>
+        <v>0.01997193743305145</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1194365003264308</v>
+        <v>0.1260996443065019</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01775509271016298</v>
+        <v>0.0196930704224587</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1180636661970504</v>
+        <v>0.1269131903988019</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03332900930855603</v>
+        <v>0.04953840071967119</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1231483405509719</v>
+        <v>0.1235796060516211</v>
       </c>
       <c r="L221" t="n">
-        <v>0.07535044218569581</v>
+        <v>0.06166647202295361</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1136105447662556</v>
+        <v>0.1232104360703514</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1062247219750351</v>
+        <v>0.0196930704224587</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1202070583930529</v>
+        <v>0.1269131903988019</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01871193865196055</v>
+        <v>0.01961623930848662</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1188204845701084</v>
+        <v>0.1277267364911019</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03332401493061313</v>
+        <v>0.04880198768129385</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1239377529904012</v>
+        <v>0.1243717830134905</v>
       </c>
       <c r="L222" t="n">
-        <v>0.07516043395248204</v>
+        <v>0.06149027570461951</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1143388174891162</v>
+        <v>0.1240002465579819</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1043198856363388</v>
+        <v>0.01961623930848662</v>
       </c>
       <c r="O222" t="n">
-        <v>0.120977616459675</v>
+        <v>0.1277267364911019</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01666970047675483</v>
+        <v>0.01974143360304392</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1195773029431664</v>
+        <v>0.1285402825834019</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0330173027004091</v>
+        <v>0.04846540979234162</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1247271654298305</v>
+        <v>0.1251639599753599</v>
       </c>
       <c r="L223" t="n">
-        <v>0.07467373587346088</v>
+        <v>0.05961815546717619</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1150670902119768</v>
+        <v>0.1247900570456123</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1034143932522483</v>
+        <v>0.01974143360304392</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1217481745262972</v>
+        <v>0.1285402825834019</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01762838298027156</v>
+        <v>0.01946864281803926</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1203341213162244</v>
+        <v>0.129353828675702</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03310887936669378</v>
+        <v>0.04833011999206463</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1255165778692598</v>
+        <v>0.1259561369372292</v>
       </c>
       <c r="L224" t="n">
-        <v>0.07499049326026797</v>
+        <v>0.05995040725516509</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1157953629348374</v>
+        <v>0.1255798675332428</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1030082370489503</v>
+        <v>0.01946864281803926</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1225187325929193</v>
+        <v>0.129353828675702</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01858799095823654</v>
+        <v>0.01939785646538131</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1210909396892824</v>
+        <v>0.130167374768002</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03279875167821691</v>
+        <v>0.04829615147865707</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1263059903086891</v>
+        <v>0.1267483138990986</v>
       </c>
       <c r="L225" t="n">
-        <v>0.07541085142453904</v>
+        <v>0.05828732701312739</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1165236356576981</v>
+        <v>0.1263696780208732</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1022014092526313</v>
+        <v>0.01939785646538131</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1232892906595414</v>
+        <v>0.130167374768002</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01854852920637554</v>
+        <v>0.01942906405697878</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1218477580623405</v>
+        <v>0.130980920860302</v>
       </c>
       <c r="J226" t="n">
-        <v>0.0326869263837284</v>
+        <v>0.04746353745031306</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1270954027481184</v>
+        <v>0.127540490860968</v>
       </c>
       <c r="L226" t="n">
-        <v>0.07513495567790976</v>
+        <v>0.05792921068560453</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1172519083805587</v>
+        <v>0.1271594885085037</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1011939020894781</v>
+        <v>0.01942906405697878</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1240598487261636</v>
+        <v>0.130980920860302</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01751000252041431</v>
+        <v>0.01926225510474032</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1226045764353985</v>
+        <v>0.131794466952602</v>
       </c>
       <c r="J227" t="n">
-        <v>0.032573410231978</v>
+        <v>0.04693231110522686</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1278848151875477</v>
+        <v>0.1283326678228373</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0750629513320159</v>
+        <v>0.05717635421713779</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1179801811034193</v>
+        <v>0.1279492989961341</v>
       </c>
       <c r="N227" t="n">
-        <v>0.09988570778567735</v>
+        <v>0.01926225510474032</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1248304067927857</v>
+        <v>0.131794466952602</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01747241569607864</v>
+        <v>0.01909741912057467</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1233613948084565</v>
+        <v>0.132608013044902</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03235820997171557</v>
+        <v>0.04720250564159259</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1286742276269771</v>
+        <v>0.1291248447847067</v>
       </c>
       <c r="L228" t="n">
-        <v>0.07499498369849306</v>
+        <v>0.05692905355226857</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1187084538262799</v>
+        <v>0.1287391094837646</v>
       </c>
       <c r="N228" t="n">
-        <v>0.09987681856741554</v>
+        <v>0.01909741912057467</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1256009648594078</v>
+        <v>0.132608013044902</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01743577352909429</v>
+        <v>0.01913454561639044</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1241182131815145</v>
+        <v>0.133421559137202</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03254133235169089</v>
+        <v>0.0465741542576045</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1294636400664063</v>
+        <v>0.1299170217465761</v>
       </c>
       <c r="L229" t="n">
-        <v>0.07503119808897704</v>
+        <v>0.05528760463553817</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1194367265491405</v>
+        <v>0.1295289199713951</v>
       </c>
       <c r="N229" t="n">
-        <v>0.09876722666087945</v>
+        <v>0.01913454561639044</v>
       </c>
       <c r="O229" t="n">
-        <v>0.12637152292603</v>
+        <v>0.133421559137202</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01640008081518703</v>
+        <v>0.01927362410409639</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1248750315545725</v>
+        <v>0.134235105229502</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03212278412065379</v>
+        <v>0.04594729015145674</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1302530525058357</v>
+        <v>0.1307091987084454</v>
       </c>
       <c r="L230" t="n">
-        <v>0.07567173981510347</v>
+        <v>0.05435230341148789</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1201649992720011</v>
+        <v>0.1303187304590255</v>
       </c>
       <c r="N230" t="n">
-        <v>0.09755692429225582</v>
+        <v>0.01927362410409639</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1271420809926521</v>
+        <v>0.134235105229502</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01736534235008266</v>
+        <v>0.01921464409560115</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1256318499276305</v>
+        <v>0.135048651321802</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0322025720273541</v>
+        <v>0.04642194652134349</v>
       </c>
       <c r="K231" t="n">
-        <v>0.131042464945265</v>
+        <v>0.1315013756703148</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07511675418850808</v>
+        <v>0.0548234458246592</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1208932719948617</v>
+        <v>0.131108540946656</v>
       </c>
       <c r="N231" t="n">
-        <v>0.09664590368773118</v>
+        <v>0.01921464409560115</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1279126390592742</v>
+        <v>0.135048651321802</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01633156292950692</v>
+        <v>0.01895759510281343</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1263886683006885</v>
+        <v>0.1358621974141021</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03198070282054162</v>
+        <v>0.04529815656545899</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1318318773846943</v>
+        <v>0.1322935526321841</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07506638652082653</v>
+        <v>0.05390132781959323</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1216215447177224</v>
+        <v>0.1318983514342864</v>
       </c>
       <c r="N232" t="n">
-        <v>0.09593415707349223</v>
+        <v>0.01895759510281343</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1286831971258964</v>
+        <v>0.1358621974141021</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01729874734918559</v>
+        <v>0.01900246663764191</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1271454866737466</v>
+        <v>0.1366757435064021</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03195718324896618</v>
+        <v>0.04547595348199737</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1326212898241236</v>
+        <v>0.1330857295940535</v>
       </c>
       <c r="L233" t="n">
-        <v>0.07502078212369462</v>
+        <v>0.05278624534083154</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1223498174405829</v>
+        <v>0.1326881619219169</v>
       </c>
       <c r="N233" t="n">
-        <v>0.09522167667572551</v>
+        <v>0.01900246663764191</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1294537551925185</v>
+        <v>0.1366757435064021</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01826690040484444</v>
+        <v>0.01894924821199527</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1279023050468046</v>
+        <v>0.1374892895987021</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03183202006137759</v>
+        <v>0.04525537046915282</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1334107022635529</v>
+        <v>0.1338779065559229</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07588008630874796</v>
+        <v>0.05227849433291532</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1230780901634436</v>
+        <v>0.1334779724095473</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09340845472061798</v>
+        <v>0.01894924821199527</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1302243132591406</v>
+        <v>0.1374892895987021</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01723602689220925</v>
+        <v>0.01889792933778218</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1286591234198626</v>
+        <v>0.1383028356910021</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03170522000652568</v>
+        <v>0.04483644072511955</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1342001147029822</v>
+        <v>0.1346700835177923</v>
       </c>
       <c r="L235" t="n">
-        <v>0.07584444438762228</v>
+        <v>0.05127837074038588</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1238063628863042</v>
+        <v>0.1342677828971778</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09239448343435602</v>
+        <v>0.01889792933778218</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1309948713257628</v>
+        <v>0.1383028356910021</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01720613160700578</v>
+        <v>0.01884849952691135</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1294159417929206</v>
+        <v>0.1391163817833021</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03157678983316024</v>
+        <v>0.04471919744809175</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1349895271424115</v>
+        <v>0.1354622604796616</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07551400167195327</v>
+        <v>0.05128617050778478</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1245346356091648</v>
+        <v>0.1350575933848082</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09217975504312637</v>
+        <v>0.01884849952691135</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1317654293923849</v>
+        <v>0.1391163817833021</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01617721934495981</v>
+        <v>0.01880094829129146</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1301727601659786</v>
+        <v>0.1399299278756021</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0314467362900311</v>
+        <v>0.04430367383626357</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1357789395818408</v>
+        <v>0.136254437441531</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07548890347337664</v>
+        <v>0.05010218957965307</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1252629083320254</v>
+        <v>0.1358474038724387</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09096426177311567</v>
+        <v>0.01880094829129146</v>
       </c>
       <c r="O237" t="n">
-        <v>0.132535987459007</v>
+        <v>0.1399299278756021</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01714929490179711</v>
+        <v>0.01875526514283117</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1309295785390366</v>
+        <v>0.1407434739679021</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03121506612588808</v>
+        <v>0.04368990308782925</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1365683520212701</v>
+        <v>0.1370466144034004</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07566929510352807</v>
+        <v>0.05002672390053226</v>
       </c>
       <c r="M238" t="n">
-        <v>0.125991181054886</v>
+        <v>0.1366372143600692</v>
       </c>
       <c r="N238" t="n">
-        <v>0.0896479958505107</v>
+        <v>0.01875526514283117</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1333065455256292</v>
+        <v>0.1407434739679021</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01712236307324345</v>
+        <v>0.01881143959343917</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1316863969120947</v>
+        <v>0.1415570200602022</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03108178608948101</v>
+        <v>0.04347791840098292</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1373577644606994</v>
+        <v>0.1378387913652697</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07555532187404332</v>
+        <v>0.04816006941496365</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1267194537777466</v>
+        <v>0.1374270248476996</v>
       </c>
       <c r="N239" t="n">
-        <v>0.08963094950149791</v>
+        <v>0.01881143959343917</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1340771035922513</v>
+        <v>0.1415570200602022</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01709642865502461</v>
+        <v>0.01856946115502417</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1324432152851527</v>
+        <v>0.1423705661525022</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03104690292955968</v>
+        <v>0.04306775297391882</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1381471769001287</v>
+        <v>0.1386309683271391</v>
       </c>
       <c r="L240" t="n">
-        <v>0.07554712909655806</v>
+        <v>0.04860252206748855</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1274477265006072</v>
+        <v>0.1382168353353301</v>
       </c>
       <c r="N240" t="n">
-        <v>0.08791311495226412</v>
+        <v>0.01856946115502417</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1348476616588734</v>
+        <v>0.1423705661525022</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01807149644286635</v>
+        <v>0.01842931933949483</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1332000336582107</v>
+        <v>0.1431841122448022</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03071042339487393</v>
+        <v>0.04255944000483108</v>
       </c>
       <c r="K241" t="n">
-        <v>0.138936589339558</v>
+        <v>0.1394231452890085</v>
       </c>
       <c r="L241" t="n">
-        <v>0.07574486208270795</v>
+        <v>0.0473543778026484</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1281759992234679</v>
+        <v>0.1390066458229605</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0872944844289959</v>
+        <v>0.01842931933949483</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1356182197254956</v>
+        <v>0.1431841122448022</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01704757123249444</v>
+        <v>0.01849100365875984</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1339568520312687</v>
+        <v>0.1439976583371022</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03057235423417355</v>
+        <v>0.04225301269191395</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1397260017789873</v>
+        <v>0.1402153222508778</v>
       </c>
       <c r="L242" t="n">
-        <v>0.07634866614412872</v>
+        <v>0.04651593256498432</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1289042719463285</v>
+        <v>0.139796456310591</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08657505015788003</v>
+        <v>0.01849100365875984</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1363887777921177</v>
+        <v>0.1439976583371022</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01802465781963465</v>
+        <v>0.0183545036247279</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1347136704043267</v>
+        <v>0.1448112044294022</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03053270219620838</v>
+        <v>0.04234850423336159</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1405154142184167</v>
+        <v>0.1410074992127472</v>
       </c>
       <c r="L243" t="n">
-        <v>0.07585868659245609</v>
+        <v>0.04598748229903782</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1296325446691891</v>
+        <v>0.1405862667982214</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08565480436510298</v>
+        <v>0.0183545036247279</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1371593358587399</v>
+        <v>0.1448112044294022</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01700276100001277</v>
+        <v>0.01861980874930766</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1354704887773847</v>
+        <v>0.1456247505217022</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03039147402972822</v>
+        <v>0.04174594782736815</v>
       </c>
       <c r="K244" t="n">
-        <v>0.141304826657846</v>
+        <v>0.1417996761746166</v>
       </c>
       <c r="L244" t="n">
-        <v>0.07627506873932574</v>
+        <v>0.04536932294935025</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1303608173920497</v>
+        <v>0.1413760772858519</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08533373927685151</v>
+        <v>0.01861980874930766</v>
       </c>
       <c r="O244" t="n">
-        <v>0.137929893925362</v>
+        <v>0.1456247505217022</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01598188556935456</v>
+        <v>0.01848690854440782</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1362273071504427</v>
+        <v>0.1464382966140022</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03024867648348291</v>
+        <v>0.04144537667212786</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1420942390972753</v>
+        <v>0.1425918531364859</v>
       </c>
       <c r="L245" t="n">
-        <v>0.07629795789637339</v>
+        <v>0.04456175046046296</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1310890901149103</v>
+        <v>0.1421658877734824</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08341184711931232</v>
+        <v>0.01848690854440782</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1387004519919841</v>
+        <v>0.1464382966140022</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01596203632338578</v>
+        <v>0.01835579252193707</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1369841255235008</v>
+        <v>0.1472518427063022</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03030431630622227</v>
+        <v>0.04164682396583491</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1428836515367046</v>
+        <v>0.1433840300983553</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07692749937523471</v>
+        <v>0.04436506077691715</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1318173628377709</v>
+        <v>0.1429556982611128</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08308912011867198</v>
+        <v>0.01835579252193707</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1394710100586062</v>
+        <v>0.1472518427063022</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01594321805783222</v>
+        <v>0.0185264501938041</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1377409438965588</v>
+        <v>0.1480653887986023</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03005840024669607</v>
+        <v>0.04115032290668344</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1436730639761339</v>
+        <v>0.1441762070602247</v>
       </c>
       <c r="L247" t="n">
-        <v>0.07676383848754539</v>
+        <v>0.04337954984325426</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1325456355606315</v>
+        <v>0.1437455087487433</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08136555050111721</v>
+        <v>0.0185264501938041</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1402415681252284</v>
+        <v>0.1480653887986023</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01792543556841964</v>
+        <v>0.01819887107191757</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1384977622696168</v>
+        <v>0.1488789348909023</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02991093505365418</v>
+        <v>0.0406559066928677</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1444624764155632</v>
+        <v>0.144968384022094</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07680712054494121</v>
+        <v>0.04300551360401556</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1332739082834922</v>
+        <v>0.1445353192363737</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08054113049283462</v>
+        <v>0.01819887107191757</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1410121261918505</v>
+        <v>0.1488789348909023</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01590869365087381</v>
+        <v>0.01847304466818619</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1392545806426748</v>
+        <v>0.1496924809832023</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02966192747584638</v>
+        <v>0.0401636085225818</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1452518888549925</v>
+        <v>0.1457605609839634</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07725749085905778</v>
+        <v>0.04204324800374248</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1340021810063528</v>
+        <v>0.1453251297240042</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08051585232001091</v>
+        <v>0.01847304466818619</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1417826842584727</v>
+        <v>0.1496924809832023</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01589299710092051</v>
+        <v>0.01814896049451865</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1400113990157328</v>
+        <v>0.1505060270755023</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0294113842620225</v>
+        <v>0.04017346159402002</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1460413012944218</v>
+        <v>0.1465527379458328</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07721509474153085</v>
+        <v>0.04189304898697627</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1347304537292134</v>
+        <v>0.1461149402116347</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07898970820883272</v>
+        <v>0.01814896049451865</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1425532423250948</v>
+        <v>0.1505060270755023</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01587835071428552</v>
+        <v>0.0181266080628236</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1407682173887908</v>
+        <v>0.1513195731678023</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02935931216093236</v>
+        <v>0.04028549910537652</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1468307137338511</v>
+        <v>0.1473449149077021</v>
       </c>
       <c r="L251" t="n">
-        <v>0.07718007750399611</v>
+        <v>0.04115521249825832</v>
       </c>
       <c r="M251" t="n">
-        <v>0.135458726452074</v>
+        <v>0.1469047506992651</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07866269038548668</v>
+        <v>0.0181266080628236</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1433238003917169</v>
+        <v>0.1513195731678023</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01686475928669459</v>
+        <v>0.01810597688500971</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1415250357618489</v>
+        <v>0.1521331192601023</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02940571792132578</v>
+        <v>0.03949975425484539</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1476201261732804</v>
+        <v>0.1481370918695715</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07735258445808926</v>
+        <v>0.04043003448212995</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1361869991749346</v>
+        <v>0.1476945611868956</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07773479107615944</v>
+        <v>0.01810597688500971</v>
       </c>
       <c r="O252" t="n">
-        <v>0.144094358458339</v>
+        <v>0.1521331192601023</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0178522276138735</v>
+        <v>0.01808705647298571</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1422818541349068</v>
+        <v>0.1529466653524023</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02915060829195257</v>
+        <v>0.03891626024062095</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1484095386127097</v>
+        <v>0.1489292688314409</v>
       </c>
       <c r="L253" t="n">
-        <v>0.077332760915446</v>
+        <v>0.04021781088313242</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1369152718977952</v>
+        <v>0.148484371674526</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07580600250703778</v>
+        <v>0.01808705647298571</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1448649165249612</v>
+        <v>0.1529466653524023</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01584076049154802</v>
+        <v>0.01806983633866027</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1430386725079649</v>
+        <v>0.1537602114447023</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02909399002156254</v>
+        <v>0.0394350502608973</v>
       </c>
       <c r="K254" t="n">
-        <v>0.149198951052139</v>
+        <v>0.1497214457933102</v>
       </c>
       <c r="L254" t="n">
-        <v>0.07782075218770201</v>
+        <v>0.03931883764580724</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1376435446206558</v>
+        <v>0.1492741821621565</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07567631690430832</v>
+        <v>0.01806983633866027</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1456354745915833</v>
+        <v>0.1537602114447023</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01783036271544392</v>
+        <v>0.01835430599394208</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1437954908810229</v>
+        <v>0.1545737575370023</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02893586985890553</v>
+        <v>0.03915615751386867</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1499883634915683</v>
+        <v>0.1505136227551796</v>
       </c>
       <c r="L255" t="n">
-        <v>0.07841670358649305</v>
+        <v>0.04013341071469562</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1383718173435164</v>
+        <v>0.150063992649787</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0742457264941575</v>
+        <v>0.01835430599394208</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1464060326582055</v>
+        <v>0.1545737575370023</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01782103908128699</v>
+        <v>0.0180404549507398</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1445523092540809</v>
+        <v>0.1553873036293024</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02847625455273134</v>
+        <v>0.03857961519772923</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1507777759309976</v>
+        <v>0.151305799717049</v>
       </c>
       <c r="L256" t="n">
-        <v>0.07812076042345475</v>
+        <v>0.03886182603433885</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1391000900663771</v>
+        <v>0.1508538031374174</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07371422350277224</v>
+        <v>0.0180404549507398</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1471765907248276</v>
+        <v>0.1553873036293024</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01581279438480298</v>
+        <v>0.01822827272096213</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1453091276271389</v>
+        <v>0.1562008497216024</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02861515085178978</v>
+        <v>0.03810545651067318</v>
       </c>
       <c r="K257" t="n">
-        <v>0.151567188370427</v>
+        <v>0.1520979766789183</v>
       </c>
       <c r="L257" t="n">
-        <v>0.07853306801022283</v>
+        <v>0.03870437954927852</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1398283627892377</v>
+        <v>0.1516436136250479</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07258180015633903</v>
+        <v>0.01822827272096213</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1479471487914497</v>
+        <v>0.1562008497216024</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01580563342171767</v>
+        <v>0.01821774881651776</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1460659460001969</v>
+        <v>0.1570143958139024</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02825256550483067</v>
+        <v>0.03833371465089466</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1523566008098562</v>
+        <v>0.1528901536407877</v>
       </c>
       <c r="L258" t="n">
-        <v>0.07855377165843305</v>
+        <v>0.03756136720405567</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1405566355120983</v>
+        <v>0.1524334241126783</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07204844868104465</v>
+        <v>0.01821774881651776</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1487177068580718</v>
+        <v>0.1570143958139024</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01779956098775683</v>
+        <v>0.01820887274931537</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1468227643732549</v>
+        <v>0.1578279419062024</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02818850526060386</v>
+        <v>0.03736442281658789</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1531460132492856</v>
+        <v>0.153682330602657</v>
       </c>
       <c r="L259" t="n">
-        <v>0.07928301667972104</v>
+        <v>0.03833308494321175</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1412849082349589</v>
+        <v>0.1532232346003088</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07071416130307573</v>
+        <v>0.01820887274931537</v>
       </c>
       <c r="O259" t="n">
-        <v>0.149488264924694</v>
+        <v>0.1578279419062024</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01779458187864622</v>
+        <v>0.01830163403126364</v>
       </c>
       <c r="G260" t="n">
-        <v>0.147579582746313</v>
+        <v>0.1586414879985024</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02812297686785911</v>
+        <v>0.03739761420594709</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1539354256887149</v>
+        <v>0.1544745075645264</v>
       </c>
       <c r="L260" t="n">
-        <v>0.07942094838572253</v>
+        <v>0.03771982871128826</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1420131809578195</v>
+        <v>0.1540130450879392</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07057893024861883</v>
+        <v>0.01830163403126364</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1502588229913161</v>
+        <v>0.1586414879985024</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01779070089011164</v>
+        <v>0.01829602217427123</v>
       </c>
       <c r="G261" t="n">
-        <v>0.148336401119371</v>
+        <v>0.1594550340908024</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0278559870753463</v>
+        <v>0.03743332201716643</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1547248381281442</v>
+        <v>0.1552666845263958</v>
       </c>
       <c r="L261" t="n">
-        <v>0.07946771208807321</v>
+        <v>0.03752189445282617</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1427414536806801</v>
+        <v>0.1548028555755697</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06874274774386069</v>
+        <v>0.01829602217427123</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1510293810579383</v>
+        <v>0.1594550340908024</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01778792281787884</v>
+        <v>0.01799202669024688</v>
       </c>
       <c r="G262" t="n">
-        <v>0.149093219492429</v>
+        <v>0.1602685801831024</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02768754263181518</v>
+        <v>0.03697157944844004</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1555142505675735</v>
+        <v>0.1560588614882652</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0798234530984088</v>
+        <v>0.03583957811236715</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1434697264035407</v>
+        <v>0.1555926660632002</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06790560601498802</v>
+        <v>0.01799202669024688</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1517999391245604</v>
+        <v>0.1602685801831024</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01778625245767359</v>
+        <v>0.01798963709109923</v>
       </c>
       <c r="G263" t="n">
-        <v>0.149850037865487</v>
+        <v>0.1610821262754024</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02751765028601562</v>
+        <v>0.03671241969796216</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1563036630070028</v>
+        <v>0.1568510384501345</v>
       </c>
       <c r="L263" t="n">
-        <v>0.08038831672836497</v>
+        <v>0.03647317563445235</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1441979991264014</v>
+        <v>0.1563824765508306</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06756749728818734</v>
+        <v>0.01798963709109923</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1525704971911825</v>
+        <v>0.1610821262754024</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01578569460522166</v>
+        <v>0.01828884288873696</v>
       </c>
       <c r="G264" t="n">
-        <v>0.150606856238545</v>
+        <v>0.1618956723677025</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02744631678669741</v>
+        <v>0.03605587596392698</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1570930754464321</v>
+        <v>0.1576432154120039</v>
       </c>
       <c r="L264" t="n">
-        <v>0.08026244828957743</v>
+        <v>0.0362229829636232</v>
       </c>
       <c r="M264" t="n">
-        <v>0.144926271849262</v>
+        <v>0.1571722870384611</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06602841378964547</v>
+        <v>0.01828884288873696</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1533410552578046</v>
+        <v>0.1618956723677025</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1303.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1303.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8091910046234552</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04045955023117276</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06473528036987641</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.06092407856241663</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01984832191679197</v>
+        <v>0.01137071406614044</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001453543287215323</v>
+        <v>0.002051723829311201</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008135460923000123</v>
+        <v>0.00163936142001704</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00456614648851969</v>
+        <v>0.002801418078406399</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007921769618693663</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.007478617294580547</v>
+        <v>0.009330406833457788</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007898104876304577</v>
+        <v>0.001650119105058661</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001453543287215323</v>
+        <v>0.01625558644741187</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008135460923000123</v>
+        <v>0.001646415634965626</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.00326762884034934</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001627092184600025</v>
+        <v>0.003790238022046812</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.01044239993970228</v>
+        <v>0.005356014961302169</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001584353923738733</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01451529545862551</v>
+        <v>0.01734704425829883</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001579620975260915</v>
+        <v>0.003300238210117322</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.00326762884034934</v>
+        <v>0.03102601386219012</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001627092184600025</v>
+        <v>0.003292831269931252</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004827657307821649</v>
+        <v>0.00507076432446469</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002440638276900037</v>
+        <v>0.004918084260051119</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01544080700608</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002376530885608099</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02180507273599686</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002369431462891373</v>
+        <v>0.00450383112980769</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.004827657307821649</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002440638276900037</v>
+        <v>0.004258167613636361</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006519029338051832</v>
+        <v>0.007278332301042981</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003254184369200049</v>
+        <v>0.006557445680068159</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01937341434018514</v>
+        <v>0.01009322248749406</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003168707847477465</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02674298737055669</v>
+        <v>0.0278370539805321</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003159241950521831</v>
+        <v>0.006600476420234644</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006519029338051832</v>
+        <v>0.04772534924903987</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003254184369200049</v>
+        <v>0.006585662539862504</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.00936796875</v>
+        <v>0.003790238022046812</v>
       </c>
       <c r="B70" t="n">
-        <v>0.015</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008027145579459466</v>
+        <v>0.009272042092840535</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.004067730461500062</v>
+        <v>0.008196807100085199</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02385226859454986</v>
+        <v>0.01232056893351108</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003960884809346831</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03299999999999997</v>
+        <v>0.03195082422219822</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003963371394230765</v>
+        <v>0.008250595525293303</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008027145579459466</v>
+        <v>0.0532469275182938</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004067730461500062</v>
+        <v>0.00823207817482813</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009537406680464142</v>
+        <v>0.01014199218304248</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004881276553800074</v>
+        <v>0.009836168520102238</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.0268894164217065</v>
+        <v>0.01433278143440493</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004753061771216198</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03563030120965066</v>
+        <v>0.03586427666536462</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004738862925782746</v>
+        <v>0.009900714630351965</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009537406680464142</v>
+        <v>0.05717999024392856</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004881276553800074</v>
+        <v>0.009878493809793755</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01073521328948546</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005694822646100086</v>
+        <v>0.01137071406614044</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0297969044741872</v>
+        <v>0.01639274283444483</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005545238733085565</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04030865228918062</v>
+        <v>0.03879519357970893</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005528673413413203</v>
+        <v>0.01155083373541063</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01073521328948546</v>
+        <v>0.06140513887466348</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005694822646100086</v>
+        <v>0.01152490944475938</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01210596605494299</v>
+        <v>0.01082680144051333</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006508368738400098</v>
+        <v>0.01311489136013632</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03299999999999997</v>
+        <v>0.01806333597789997</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006480984669811314</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04369268858363978</v>
+        <v>0.04264890762500126</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006318483901043661</v>
+        <v>0.01351149338942307</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01210596605494299</v>
+        <v>0.06622912469196368</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006508368738400098</v>
+        <v>0.01277450284090908</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01283506562525633</v>
+        <v>0.01167410305404472</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007321914830700111</v>
+        <v>0.01475425278015336</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03346556514208027</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007129592656824297</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0466157862661899</v>
+        <v>0.0448225814474944</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007108294388674119</v>
+        <v>0.01485107194552795</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01283506562525633</v>
+        <v>0.0719865161172083</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007321914830700111</v>
+        <v>0.01481774071469063</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01370791264884505</v>
+        <v>0.0135118646936289</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008135460923000123</v>
+        <v>0.0163936142001704</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03519519296054593</v>
+        <v>0.02117176774704978</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007921769618693663</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04931132150999257</v>
+        <v>0.04824098302970603</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007898104876304577</v>
+        <v>0.01650119105058661</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01370791264884505</v>
+        <v>0.07715901900856004</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008135460923000123</v>
+        <v>0.01646415634965626</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01440990777412875</v>
+        <v>0.01433185780858042</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008949007015300136</v>
+        <v>0.01803297562018744</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03673016612616131</v>
+        <v>0.02258231262586564</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008713946580563028</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05261267048820928</v>
+        <v>0.05157534222486443</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008687915363935034</v>
+        <v>0.01815131015564527</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01440990777412875</v>
+        <v>0.08094468825850282</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008949007015300136</v>
+        <v>0.01811057198462188</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.015</v>
+        <v>0.01312585384821384</v>
       </c>
       <c r="G77" t="n">
-        <v>0.00936796875</v>
+        <v>0.01967233704020448</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03691619107311769</v>
+        <v>0.02405681862460383</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009506123542432396</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05525320937400185</v>
+        <v>0.05438603511378554</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009477725851565491</v>
+        <v>0.01980142926070393</v>
       </c>
       <c r="N77" t="n">
-        <v>0.015</v>
+        <v>0.08608009789713073</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00936796875</v>
+        <v>0.01975698761958751</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01538563852805154</v>
+        <v>0.01488562426184371</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01057609919990016</v>
+        <v>0.02131169846022152</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03839897423560645</v>
+        <v>0.02558264886430167</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01029830050430176</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05746631434053184</v>
+        <v>0.05753343777728526</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01026753633919595</v>
+        <v>0.02145154836576259</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01538563852805154</v>
+        <v>0.09160182195453775</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01057609919990016</v>
+        <v>0.02140340325455314</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01607022174777915</v>
+        <v>0.0166029404987846</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01138964529220017</v>
+        <v>0.02295105988023856</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03892422204781901</v>
+        <v>0.02684716646599652</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01109047746617113</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.05888536156096091</v>
+        <v>0.06087792629617955</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01105734682682641</v>
+        <v>0.02310166747082125</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01607022174777915</v>
+        <v>0.09544643446081791</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01138964529220017</v>
+        <v>0.02304981888951876</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0164049611506623</v>
+        <v>0.01626957400835106</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01220319138450019</v>
+        <v>0.0245904213002556</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03953764094394671</v>
+        <v>0.02843773455072564</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01188265442804049</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06104372720845075</v>
+        <v>0.06317987675128436</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01184715731445686</v>
+        <v>0.02475178657587991</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0164049611506623</v>
+        <v>0.09995050944606509</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01220319138450019</v>
+        <v>0.02469623452448439</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01670038009669285</v>
+        <v>0.01587729623985766</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0130167374768002</v>
+        <v>0.02622978272027264</v>
       </c>
       <c r="J81" t="n">
-        <v>0.04098493735818093</v>
+        <v>0.02934171623952642</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01267483138990986</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06427478745616289</v>
+        <v>0.06619966522341558</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01263696780208732</v>
+        <v>0.02640190568093858</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01670038009669285</v>
+        <v>0.1050506209403733</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0130167374768002</v>
+        <v>0.02634265015945001</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0169670019458627</v>
+        <v>0.01741787864261893</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01383028356910021</v>
+        <v>0.02786914414028968</v>
       </c>
       <c r="J82" t="n">
-        <v>0.04121181772471302</v>
+        <v>0.03044647465343617</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01346700835177923</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06622912469196368</v>
+        <v>0.0689976677933892</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01325710193278139</v>
+        <v>0.02805202478599724</v>
       </c>
       <c r="N82" t="n">
-        <v>0.0169670019458627</v>
+        <v>0.1086833429738366</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01383028356910021</v>
+        <v>0.02798906579441564</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01711535005816373</v>
+        <v>0.01788309266594947</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01464382966140022</v>
+        <v>0.02950850556030672</v>
       </c>
       <c r="J83" t="n">
-        <v>0.04264890762500126</v>
+        <v>0.03143937291349221</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01395994527787031</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06778089318993341</v>
+        <v>0.07143426054202107</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01421658877734824</v>
+        <v>0.0297021438910559</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01711535005816373</v>
+        <v>0.1118852495765489</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01464382966140022</v>
+        <v>0.02963548142938127</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01745594779358783</v>
+        <v>0.01826470975916379</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01545737575370023</v>
+        <v>0.03114786698032376</v>
       </c>
       <c r="J84" t="n">
-        <v>0.04418557160814554</v>
+        <v>0.03230777414073187</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01505136227551796</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06998121361948956</v>
+        <v>0.07286981955012728</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0150063992649787</v>
+        <v>0.03135226299611456</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01745594779358783</v>
+        <v>0.1144929147786043</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01545737575370023</v>
+        <v>0.03128189706434689</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01749931851212688</v>
+        <v>0.0185570631559485</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01627092184600025</v>
+        <v>0.0327872284003408</v>
       </c>
       <c r="J85" t="n">
-        <v>0.04507638097003688</v>
+        <v>0.03323904145619246</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01584353923738733</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07350789374638728</v>
+        <v>0.07476472089852357</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01579620975260915</v>
+        <v>0.03300238210117321</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01749931851212688</v>
+        <v>0.1172429126100966</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01627092184600025</v>
+        <v>0.03292831269931252</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01765598557377278</v>
+        <v>0.01781668548105762</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01708446793830026</v>
+        <v>0.03442658982035783</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04662467509327795</v>
+        <v>0.03372053798091133</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01663571619925669</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07475588979441183</v>
+        <v>0.07598021234491353</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01658602024023961</v>
+        <v>0.03465250120623188</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01765598557377278</v>
+        <v>0.1178402581192512</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01708446793830026</v>
+        <v>0.03457472833427815</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01803647233851739</v>
+        <v>0.02006839665801331</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01789801403060027</v>
+        <v>0.03606595124037487</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04742513538200929</v>
+        <v>0.03418677103133887</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01742789316112606</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0782201579873481</v>
+        <v>0.07720493195764916</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01737583072787007</v>
+        <v>0.03630262031129054</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01803647233851739</v>
+        <v>0.1198105974067095</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01789801403060027</v>
+        <v>0.03622114396924377</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01855130216635263</v>
+        <v>0.02031048026864381</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01871156012290029</v>
+        <v>0.03770531266039192</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04857244324037166</v>
+        <v>0.03473640616279765</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01822007012299542</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.08009565454898121</v>
+        <v>0.07819945526151056</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01816564121550053</v>
+        <v>0.0379527394163492</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01855130216635263</v>
+        <v>0.1209300584936191</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01871156012290029</v>
+        <v>0.03786755960420939</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.02054121989477738</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01984832191679197</v>
+        <v>0.03934467408040895</v>
       </c>
       <c r="J89" t="n">
-        <v>0.05026128007250569</v>
+        <v>0.03497031824021685</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01901224708486479</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.08307733570309622</v>
+        <v>0.07915694836707146</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01895545170313098</v>
+        <v>0.03960285852140786</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.1227881003847186</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01984832191679197</v>
+        <v>0.03951397523917502</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01922916551943611</v>
+        <v>0.01875889911824227</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02033865230750031</v>
+        <v>0.04098403550042599</v>
       </c>
       <c r="J90" t="n">
-        <v>0.05128632728255214</v>
+        <v>0.03558543666167002</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01980442404673416</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08456015767347824</v>
+        <v>0.07977057738490559</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01974526219076144</v>
+        <v>0.04125297762646653</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01922916551943611</v>
+        <v>0.1235741820847467</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02033865230750031</v>
+        <v>0.04116039087414065</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01972158521417604</v>
+        <v>0.02096180152086675</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02115219839980032</v>
+        <v>0.04262339692044304</v>
       </c>
       <c r="J91" t="n">
-        <v>0.05344226627465162</v>
+        <v>0.03587869082523076</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02059660100860352</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08743907668391226</v>
+        <v>0.08083350842558659</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0205350726783919</v>
+        <v>0.04290309673152518</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01972158521417604</v>
+        <v>0.125577762598442</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02115219839980032</v>
+        <v>0.04280680650910627</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02008354986899011</v>
+        <v>0.02014821068447908</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02196574449210034</v>
+        <v>0.04426275834046008</v>
       </c>
       <c r="J92" t="n">
-        <v>0.05452377845294479</v>
+        <v>0.03614701012897265</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02138877797047289</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08910904895818333</v>
+        <v>0.08173890759968824</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02132488316602235</v>
+        <v>0.04455321583658384</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02008354986899011</v>
+        <v>0.1261883009305431</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02196574449210034</v>
+        <v>0.0444532221440719</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02100856539742145</v>
+        <v>0.01931641019090753</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02277929058440034</v>
+        <v>0.04590211976047711</v>
       </c>
       <c r="J93" t="n">
-        <v>0.05652554522157238</v>
+        <v>0.03648732397096922</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02218095493234226</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09216503072007659</v>
+        <v>0.08177994101778427</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02211469365365281</v>
+        <v>0.04620333494164251</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02100856539742145</v>
+        <v>0.1277952560857886</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02277929058440034</v>
+        <v>0.04609963777903753</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02149013771301322</v>
+        <v>0.01946468362198033</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02359283667670036</v>
+        <v>0.04754148118049415</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05744224798467504</v>
+        <v>0.03689656174929404</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02297313189421162</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09480197819337705</v>
+        <v>0.08314977479044836</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02290450414128327</v>
+        <v>0.04785345404670117</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02149013771301322</v>
+        <v>0.1294880870689172</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02359283667670036</v>
+        <v>0.04774605341400315</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02212177272930857</v>
+        <v>0.02159131455952577</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02440638276900037</v>
+        <v>0.0491808426005112</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05936856814639344</v>
+        <v>0.03727165286202067</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02376530885608099</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09671484760186971</v>
+        <v>0.08304157502825427</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02369431462891373</v>
+        <v>0.04950357315175983</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02212177272930857</v>
+        <v>0.1291562528846675</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02440638276900037</v>
+        <v>0.04939246904896877</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02309697635985061</v>
+        <v>0.02169458658537209</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02521992886130038</v>
+        <v>0.05082020402052823</v>
       </c>
       <c r="J96" t="n">
-        <v>0.06069918711086819</v>
+        <v>0.03760952670722272</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02455748581795035</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09939859516933974</v>
+        <v>0.08354850784177573</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02448412511654419</v>
+        <v>0.05115369225681848</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02309697635985061</v>
+        <v>0.1300892125377781</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02521992886130038</v>
+        <v>0.0510388846839344</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02400925451818249</v>
+        <v>0.01977278328134755</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02603347495360039</v>
+        <v>0.05245956544054527</v>
       </c>
       <c r="J97" t="n">
-        <v>0.06242878628224011</v>
+        <v>0.03760711268297369</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02534966277981972</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1012481771195721</v>
+        <v>0.08456373934158645</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02527393560417465</v>
+        <v>0.05280381136187715</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02400925451818249</v>
+        <v>0.1308764250329876</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02603347495360039</v>
+        <v>0.05268530031890003</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02455211311784737</v>
+        <v>0.02184815712483326</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02684702104590041</v>
+        <v>0.05409892686056231</v>
       </c>
       <c r="J98" t="n">
-        <v>0.06355204706464984</v>
+        <v>0.0377613401873472</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02614183974168909</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.103758549676352</v>
+        <v>0.08458043563826009</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0260637460918051</v>
+        <v>0.05445393046693581</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02455211311784737</v>
+        <v>0.1320073493750348</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02684702104590041</v>
+        <v>0.05433171595386566</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02541905807238835</v>
+        <v>0.02184708501099893</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02766056713820042</v>
+        <v>0.05573828828057936</v>
       </c>
       <c r="J99" t="n">
-        <v>0.06496365086223793</v>
+        <v>0.03806913861841679</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02693401670355846</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1054246690634643</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02685355657943556</v>
+        <v>0.05610404957199448</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02541905807238835</v>
+        <v>0.1324582493839274</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02766056713820042</v>
+        <v>0.05597813158883128</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02660359529534859</v>
+        <v>0.02084415558018119</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02847411323050043</v>
+        <v>0.0573776497005964</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0669582790791452</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02772619366542782</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1069414915046942</v>
+        <v>0.08519088706449127</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02764336706706602</v>
+        <v>0.05775416867705313</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02660359529534859</v>
+        <v>0.1311582103326382</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02847411323050043</v>
+        <v>0.05762454722379691</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02739923070027124</v>
+        <v>0.02182631278576769</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02928765932280044</v>
+        <v>0.05901701112061343</v>
       </c>
       <c r="J101" t="n">
-        <v>0.06833061311951225</v>
+        <v>0.03803534645699096</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02851837062729719</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1099039732238268</v>
+        <v>0.08458499429592725</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02843317755469648</v>
+        <v>0.05940428778211179</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02739923070027124</v>
+        <v>0.1315105635876173</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02928765932280044</v>
+        <v>0.05927096285876254</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02809947020069943</v>
+        <v>0.01979500244928738</v>
       </c>
       <c r="G102" t="n">
-        <v>0.03010120541510046</v>
+        <v>0.06065637254063047</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0694753343874798</v>
+        <v>0.03801225571251098</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02931054758916656</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.111007070444647</v>
+        <v>0.08501851567541757</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02922298804232693</v>
+        <v>0.06105440688717046</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02809947020069943</v>
+        <v>0.1315766835073141</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03010120541510046</v>
+        <v>0.06091737849372816</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0289978197101763</v>
+        <v>0.02175112917261555</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03091475150740047</v>
+        <v>0.06229573396064751</v>
       </c>
       <c r="J103" t="n">
-        <v>0.07098712428718845</v>
+        <v>0.03776473648473358</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03010272455103592</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.11374573939094</v>
+        <v>0.08459854018824475</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03001279852995739</v>
+        <v>0.06270452599222912</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0289978197101763</v>
+        <v>0.1312621255002167</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03091475150740047</v>
+        <v>0.06256379412869378</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02988778514224498</v>
+        <v>0.02069559755762745</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03172829759970048</v>
+        <v>0.06393509538066455</v>
       </c>
       <c r="J104" t="n">
-        <v>0.07226066422277899</v>
+        <v>0.03789440706942521</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03089490151290529</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1151149362864908</v>
+        <v>0.08462866949121489</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03080260901758785</v>
+        <v>0.06435464509728778</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02988778514224498</v>
+        <v>0.1313724449748137</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03172829759970048</v>
+        <v>0.0642102097636594</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.0307628724104486</v>
+        <v>0.02162931220619833</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03254184369200049</v>
+        <v>0.06557445680068159</v>
       </c>
       <c r="J105" t="n">
-        <v>0.07369063559839203</v>
+        <v>0.03760288576235242</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03168707847477465</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1178096173550844</v>
+        <v>0.08461250524113401</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03159241950521831</v>
+        <v>0.06600476420234642</v>
       </c>
       <c r="N105" t="n">
-        <v>0.0307628724104486</v>
+        <v>0.1308131973395929</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03254184369200049</v>
+        <v>0.06585662539862504</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03171658742833033</v>
+        <v>0.01955317772020348</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03335538978430051</v>
+        <v>0.06721381822069863</v>
       </c>
       <c r="J106" t="n">
-        <v>0.07467171981816823</v>
+        <v>0.03779179085928161</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03247925543664402</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.118924738820506</v>
+        <v>0.08445364909480824</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03238222999284877</v>
+        <v>0.0676548833074051</v>
       </c>
       <c r="N106" t="n">
-        <v>0.03171658742833033</v>
+        <v>0.1307899380030427</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03335538978430051</v>
+        <v>0.06750304103359066</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0325424361094333</v>
+        <v>0.01946809870151815</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03416893587660052</v>
+        <v>0.06885317964071566</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0762985982862483</v>
+        <v>0.03736274065597933</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03327143239851339</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1203552569065406</v>
+        <v>0.08385570270904369</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03317204048047923</v>
+        <v>0.06930500241246376</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0325424361094333</v>
+        <v>0.1301082223736511</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03416893587660052</v>
+        <v>0.06914945666855629</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03343392436730067</v>
+        <v>0.0213749797520176</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03498248196890053</v>
+        <v>0.0704925410607327</v>
       </c>
       <c r="J108" t="n">
-        <v>0.07726595240677292</v>
+        <v>0.03721735344821202</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03406360936038275</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1220961278369733</v>
+        <v>0.08332226774064644</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03396185096810968</v>
+        <v>0.07095512151752241</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03343392436730067</v>
+        <v>0.1295736058599065</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03498248196890053</v>
+        <v>0.07079587230352191</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03408455811547552</v>
+        <v>0.02127472547357709</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03579602806120055</v>
+        <v>0.07213190248074974</v>
       </c>
       <c r="J109" t="n">
-        <v>0.07846846358388271</v>
+        <v>0.03735724753174616</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03485578632225211</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1233423078355889</v>
+        <v>0.08325694584642257</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03475166145574014</v>
+        <v>0.07260524062258109</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03408455811547552</v>
+        <v>0.1292916438702971</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03579602806120055</v>
+        <v>0.07244228793848753</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03498784326750105</v>
+        <v>0.02016824046807188</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03660957415350056</v>
+        <v>0.07377126390076678</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0797008132217184</v>
+        <v>0.03698404120234826</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03564796328412148</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1249887531261729</v>
+        <v>0.08236333868317822</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0355414719433706</v>
+        <v>0.07425535972763975</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03498784326750105</v>
+        <v>0.1277678918133109</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03660957415350056</v>
+        <v>0.07408870357345317</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.03533728573692037</v>
+        <v>0.01905642933737726</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03742312024580057</v>
+        <v>0.07541062532078384</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0806576827244207</v>
+        <v>0.03699935275578478</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03644014024599085</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.12583041993251</v>
+        <v>0.08264504790771945</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03633128243100105</v>
+        <v>0.07590547883269839</v>
       </c>
       <c r="N111" t="n">
-        <v>0.03533728573692037</v>
+        <v>0.1281079050974362</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03742312024580057</v>
+        <v>0.07573511920841879</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03612639143727658</v>
+        <v>0.02094019668336847</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03823666633810058</v>
+        <v>0.07704998674080088</v>
       </c>
       <c r="J112" t="n">
-        <v>0.08183375349613015</v>
+        <v>0.03660480048782221</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03723231720786022</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1275622644783855</v>
+        <v>0.08210567517685236</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03712109291863151</v>
+        <v>0.07755559793775707</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03612639143727658</v>
+        <v>0.1264172391311612</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03823666633810058</v>
+        <v>0.07738153484338442</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03664866628211291</v>
+        <v>0.01982044710792077</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03905021243040059</v>
+        <v>0.07868934816081791</v>
       </c>
       <c r="J113" t="n">
-        <v>0.08212370694098761</v>
+        <v>0.03660200269422702</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03802449416972958</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1278792429875843</v>
+        <v>0.08094882214738305</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03791090340626196</v>
+        <v>0.07920571704281572</v>
       </c>
       <c r="N113" t="n">
-        <v>0.03664866628211291</v>
+        <v>0.125801449322974</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03905021243040059</v>
+        <v>0.07902795047835004</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03719761618497243</v>
+        <v>0.01969808521290944</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0398637585227006</v>
+        <v>0.08032870958083495</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0829222244631336</v>
+        <v>0.0363925776707657</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03881667113159894</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1289763116838915</v>
+        <v>0.08107809047611755</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03870071389389242</v>
+        <v>0.08085583614787438</v>
       </c>
       <c r="N114" t="n">
-        <v>0.03719761618497243</v>
+        <v>0.124966091081363</v>
       </c>
       <c r="O114" t="n">
-        <v>0.0398637585227006</v>
+        <v>0.08067436611331567</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.03726674705939832</v>
+        <v>0.02057401560020973</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04067730461500062</v>
+        <v>0.08196807100085199</v>
       </c>
       <c r="J115" t="n">
-        <v>0.08332398746670894</v>
+        <v>0.03617814371320474</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03960884809346831</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1299484267910922</v>
+        <v>0.08069708181986207</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03949052438152288</v>
+        <v>0.08250595525293306</v>
       </c>
       <c r="N115" t="n">
-        <v>0.03726674705939832</v>
+        <v>0.1252167198148162</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04067730461500062</v>
+        <v>0.08232078174828129</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03754956481893369</v>
+        <v>0.0184491428716969</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04149085070730063</v>
+        <v>0.08360743242086903</v>
       </c>
       <c r="J116" t="n">
-        <v>0.08392367735585413</v>
+        <v>0.0359603191173106</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04040102505533768</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1307905445329714</v>
+        <v>0.08030939783542262</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04028033486915334</v>
+        <v>0.0841560743579917</v>
       </c>
       <c r="N116" t="n">
-        <v>0.03754956481893369</v>
+        <v>0.1233588909318219</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04149085070730063</v>
+        <v>0.08396719738324693</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.0379395753771217</v>
+        <v>0.02032437162924623</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04230439679960064</v>
+        <v>0.08524679384088607</v>
       </c>
       <c r="J117" t="n">
-        <v>0.08411597553470998</v>
+        <v>0.03554072217884977</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04119320201720705</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1306976211333142</v>
+        <v>0.07961864017960527</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0410701453567838</v>
+        <v>0.08580619346305036</v>
       </c>
       <c r="N117" t="n">
-        <v>0.0379395753771217</v>
+        <v>0.1225981598408682</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04230439679960064</v>
+        <v>0.08561361301821255</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03813738111607763</v>
+        <v>0.01820060647473297</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04311794289190065</v>
+        <v>0.08688615526090311</v>
       </c>
       <c r="J118" t="n">
-        <v>0.08509556340741709</v>
+        <v>0.03522097119358873</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04198537897907641</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1317646128159057</v>
+        <v>0.07922841050921622</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04185995584441425</v>
+        <v>0.08745631256810904</v>
       </c>
       <c r="N118" t="n">
-        <v>0.03813738111607763</v>
+        <v>0.1229400819504434</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04311794289190065</v>
+        <v>0.08726002865317817</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0379338904005769</v>
+        <v>0.01907544673815863</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04393148898420067</v>
+        <v>0.08852551668092015</v>
       </c>
       <c r="J119" t="n">
-        <v>0.08529781525000252</v>
+        <v>0.03500268445729397</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04277755594094578</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1324582493839274</v>
+        <v>0.07874231048106148</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04264976633204471</v>
+        <v>0.08910643167316769</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0379338904005769</v>
+        <v>0.1212902126690355</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04393148898420067</v>
+        <v>0.0889064442881438</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03811469352265545</v>
+        <v>0.01893349721111476</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04474503507650068</v>
+        <v>0.09016487810093718</v>
       </c>
       <c r="J120" t="n">
-        <v>0.084597660878313</v>
+        <v>0.03488496228443981</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04356973290281515</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1318582393856943</v>
+        <v>0.07754828640215819</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04343957681967517</v>
+        <v>0.09075655077822635</v>
       </c>
       <c r="N120" t="n">
-        <v>0.03811469352265545</v>
+        <v>0.1213963673362456</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04474503507650068</v>
+        <v>0.09055285992310942</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03807950849013063</v>
+        <v>0.01977519241580659</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04555858116880069</v>
+        <v>0.09180423952095422</v>
       </c>
       <c r="J121" t="n">
-        <v>0.08529213633715096</v>
+        <v>0.03484085967101053</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04436190986468452</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1312483568624622</v>
+        <v>0.07738640071948832</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04422938730730563</v>
+        <v>0.09240666988328501</v>
       </c>
       <c r="N121" t="n">
-        <v>0.03807950849013063</v>
+        <v>0.1199918654287871</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04555858116880069</v>
+        <v>0.09219927555807506</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03792921185828887</v>
+        <v>0.01860347965327552</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0463721272611007</v>
+        <v>0.09344360094097126</v>
       </c>
       <c r="J122" t="n">
-        <v>0.08487876336822431</v>
+        <v>0.03446681998151443</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04515408682655388</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1323201702439648</v>
+        <v>0.07686053968352047</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04501919779493609</v>
+        <v>0.09405678898834367</v>
       </c>
       <c r="N122" t="n">
-        <v>0.03792921185828887</v>
+        <v>0.1188942843989458</v>
       </c>
       <c r="O122" t="n">
-        <v>0.0463721272611007</v>
+        <v>0.09384569119304068</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03786468018241661</v>
+        <v>0.01942130622456294</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04718567335340072</v>
+        <v>0.0950829623609883</v>
       </c>
       <c r="J123" t="n">
-        <v>0.08485764154820741</v>
+        <v>0.03406811581700209</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04594626378842324</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1317740380934059</v>
+        <v>0.07608243792265354</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04580900828256654</v>
+        <v>0.09570690809340233</v>
       </c>
       <c r="N123" t="n">
-        <v>0.03786468018241661</v>
+        <v>0.1181217244316431</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04718567335340072</v>
+        <v>0.09549210682800631</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03778679001780023</v>
+        <v>0.01923161943071025</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04799921944570073</v>
+        <v>0.09672232378100536</v>
       </c>
       <c r="J124" t="n">
-        <v>0.08522887045377459</v>
+        <v>0.03395001977852399</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04673844075029261</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.131710318973989</v>
+        <v>0.07546383006528684</v>
       </c>
       <c r="M124" t="n">
-        <v>0.046598818770197</v>
+        <v>0.097357027198461</v>
       </c>
       <c r="N124" t="n">
-        <v>0.03778679001780023</v>
+        <v>0.1164922857118008</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04799921944570073</v>
+        <v>0.09713852246297193</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03779641791972617</v>
+        <v>0.01803736657275885</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04881276553800074</v>
+        <v>0.0983616852010224</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0847925496616001</v>
+        <v>0.03361780446713075</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04753061771216198</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1309293714489179</v>
+        <v>0.07461645073981929</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04738862925782746</v>
+        <v>0.09900714630351966</v>
       </c>
       <c r="N125" t="n">
-        <v>0.03779641791972617</v>
+        <v>0.1156240684243402</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04881276553800074</v>
+        <v>0.09878493809793755</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03769444044348086</v>
+        <v>0.01884149495175012</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04962631163030076</v>
+        <v>0.1000010466210394</v>
       </c>
       <c r="J126" t="n">
-        <v>0.08454877874835839</v>
+        <v>0.03297674248387289</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04832279467403135</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1313315540813962</v>
+        <v>0.07405203457465015</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04817843974545791</v>
+        <v>0.1006572654085783</v>
       </c>
       <c r="N126" t="n">
-        <v>0.03769444044348086</v>
+        <v>0.1140351727541829</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04962631163030076</v>
+        <v>0.1004313537329032</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0375817341443507</v>
+        <v>0.01764695186872545</v>
       </c>
       <c r="G127" t="n">
-        <v>0.05043985772260077</v>
+        <v>0.1016404080410565</v>
       </c>
       <c r="J127" t="n">
-        <v>0.08489765729072371</v>
+        <v>0.03263210642980091</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04911497163590071</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1319172254346277</v>
+        <v>0.07278231619817846</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04896825023308837</v>
+        <v>0.102307384513637</v>
       </c>
       <c r="N127" t="n">
-        <v>0.0375817341443507</v>
+        <v>0.1130436988862505</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05043985772260077</v>
+        <v>0.1020777693678688</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03745917557762211</v>
+        <v>0.01645668462472626</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05125340381490078</v>
+        <v>0.1032797694610735</v>
       </c>
       <c r="J128" t="n">
-        <v>0.08463928486537045</v>
+        <v>0.03228916890596541</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04990714859777007</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1313867440718157</v>
+        <v>0.07221903023880324</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04975806072071883</v>
+        <v>0.1039575036186956</v>
       </c>
       <c r="N128" t="n">
-        <v>0.03745917557762211</v>
+        <v>0.1120677470054645</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05125340381490078</v>
+        <v>0.1037241850028344</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0371276412985815</v>
+        <v>0.01727364052079394</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05206694990720079</v>
+        <v>0.1049191308810905</v>
       </c>
       <c r="J129" t="n">
-        <v>0.08487376104897287</v>
+        <v>0.03215320251341686</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05069932555963944</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1308404685561642</v>
+        <v>0.07197391132492376</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05054787120834929</v>
+        <v>0.1056076227237543</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0371276412985815</v>
+        <v>0.1106254172967463</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05206694990720079</v>
+        <v>0.1053706006378001</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03688800786251532</v>
+        <v>0.01709687385491689</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05288049599950081</v>
+        <v>0.1065584923011076</v>
       </c>
       <c r="J130" t="n">
-        <v>0.08420118541820532</v>
+        <v>0.03192947985320588</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05149150252150881</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1308787574508768</v>
+        <v>0.07095869408493899</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05133768169597975</v>
+        <v>0.107257741828813</v>
       </c>
       <c r="N130" t="n">
-        <v>0.03688800786251532</v>
+        <v>0.1099348099450176</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05288049599950081</v>
+        <v>0.1070170162727657</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03684115182470996</v>
+        <v>0.01790560041050088</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05369404209180082</v>
+        <v>0.1081978537211246</v>
       </c>
       <c r="J131" t="n">
-        <v>0.08482165754974216</v>
+        <v>0.03161880453213625</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05228367948337818</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.131001969319157</v>
+        <v>0.06996106022053525</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05212749218361021</v>
+        <v>0.1089078609338716</v>
       </c>
       <c r="N131" t="n">
-        <v>0.03684115182470996</v>
+        <v>0.1086318871734997</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05369404209180082</v>
+        <v>0.1086634319077313</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03678794974045187</v>
+        <v>0.01669980641009218</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05450758818410083</v>
+        <v>0.1098372151411417</v>
       </c>
       <c r="J132" t="n">
-        <v>0.08463527702025772</v>
+        <v>0.03098481918816848</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05307585644524754</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1312104627242086</v>
+        <v>0.06920102619324753</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05291730267124067</v>
+        <v>0.1105579800389303</v>
       </c>
       <c r="N132" t="n">
-        <v>0.03678794974045187</v>
+        <v>0.1072261261966281</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05450758818410083</v>
+        <v>0.1103098475426969</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.03662927816502744</v>
+        <v>0.0154837109159949</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05532113427640084</v>
+        <v>0.1114765765611587</v>
       </c>
       <c r="J133" t="n">
-        <v>0.08464214340642628</v>
+        <v>0.0308244334912345</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05386803340711691</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1310045962292352</v>
+        <v>0.0684857886674464</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05370711315887113</v>
+        <v>0.112208099143989</v>
       </c>
       <c r="N133" t="n">
-        <v>0.03662927816502744</v>
+        <v>0.1058427179327502</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05532113427640084</v>
+        <v>0.1119562631776626</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03636601365372309</v>
+        <v>0.01726153299051327</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05613468036870085</v>
+        <v>0.1131159379811758</v>
       </c>
       <c r="J134" t="n">
-        <v>0.08384235628492223</v>
+        <v>0.0302451951712828</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05466021036898628</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1298847283974405</v>
+        <v>0.06763214576712287</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05449692364650158</v>
+        <v>0.1138582182490476</v>
       </c>
       <c r="N134" t="n">
-        <v>0.03636601365372309</v>
+        <v>0.1041075728018839</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05613468036870085</v>
+        <v>0.1136026788126282</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03619903276182525</v>
+        <v>0.01503749169595141</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05694822646100086</v>
+        <v>0.1147552994011928</v>
       </c>
       <c r="J135" t="n">
-        <v>0.08383601523241987</v>
+        <v>0.0300546519582618</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05545238733085565</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1299512177920282</v>
+        <v>0.06695689561626791</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05528673413413204</v>
+        <v>0.1155083373541063</v>
       </c>
       <c r="N135" t="n">
-        <v>0.03619903276182525</v>
+        <v>0.1036466012240466</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05694822646100086</v>
+        <v>0.1152490944475938</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03622921204462035</v>
+        <v>0.01581580609461353</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05776177255330087</v>
+        <v>0.1163946608212098</v>
       </c>
       <c r="J136" t="n">
-        <v>0.08432321982559354</v>
+        <v>0.02946035158212003</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05624456429272501</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1290044229762018</v>
+        <v>0.06587683633887251</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0560765446217625</v>
+        <v>0.1171584564591649</v>
       </c>
       <c r="N136" t="n">
-        <v>0.03622921204462035</v>
+        <v>0.101885713619256</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05776177255330087</v>
+        <v>0.1168955100825594</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03595742805739477</v>
+        <v>0.01560069524880379</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05857531864560089</v>
+        <v>0.1180340222412269</v>
       </c>
       <c r="J137" t="n">
-        <v>0.08350406964111753</v>
+        <v>0.02926984177280591</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05703674125459438</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1299447025131651</v>
+        <v>0.0654087660589277</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05686635510939295</v>
+        <v>0.1188085755642236</v>
       </c>
       <c r="N137" t="n">
-        <v>0.03595742805739477</v>
+        <v>0.1010508204075298</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05857531864560089</v>
+        <v>0.1185419257175251</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03558455735543499</v>
+        <v>0.01439637822082634</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05938886473790091</v>
+        <v>0.1196733836612439</v>
       </c>
       <c r="J138" t="n">
-        <v>0.08347866425566625</v>
+        <v>0.02899067026026794</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05782891821646374</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1297724149661218</v>
+        <v>0.06406948290042444</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05765616559702341</v>
+        <v>0.1204586946692822</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03558455735543499</v>
+        <v>0.09976783200888567</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05938886473790091</v>
+        <v>0.1201883413524907</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03541147649402737</v>
+        <v>0.0142070740729854</v>
       </c>
       <c r="G139" t="n">
-        <v>0.06020241083020092</v>
+        <v>0.1213127450812609</v>
       </c>
       <c r="J139" t="n">
-        <v>0.08364710324591393</v>
+        <v>0.02833038477445458</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05862109517833311</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1284879188982754</v>
+        <v>0.06317578498735371</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05844597608465386</v>
+        <v>0.1221088137743409</v>
       </c>
       <c r="N139" t="n">
-        <v>0.03541147649402737</v>
+        <v>0.09846265884334116</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06020241083020092</v>
+        <v>0.1218347569874563</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03523906202845836</v>
+        <v>0.0140370018675851</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06101595692250093</v>
+        <v>0.122952106501278</v>
       </c>
       <c r="J140" t="n">
-        <v>0.083609486188535</v>
+        <v>0.02819653304531426</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05941327214020248</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1290915728728297</v>
+        <v>0.06294447044370655</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05923578657228432</v>
+        <v>0.1237589328793996</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03523906202845836</v>
+        <v>0.09766121133091393</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06101595692250093</v>
+        <v>0.1234811726224219</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03516819051401436</v>
+        <v>0.01389038066692962</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06182950301480094</v>
+        <v>0.124591467921295</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0834659126602037</v>
+        <v>0.02789666280279547</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06020544910207184</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1283837354529883</v>
+        <v>0.06209233739347392</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06002559705991478</v>
+        <v>0.1254090519844582</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03516819051401436</v>
+        <v>0.09648939989162159</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06182950301480094</v>
+        <v>0.1251275882573876</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.0349997385059818</v>
+        <v>0.01577142953332316</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06264304910710095</v>
+        <v>0.1262308293413121</v>
       </c>
       <c r="J142" t="n">
-        <v>0.08271648223759442</v>
+        <v>0.02743832177684669</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06099762606394121</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1278647652019548</v>
+        <v>0.06153618396064686</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06081540754754524</v>
+        <v>0.1270591710895169</v>
       </c>
       <c r="N142" t="n">
-        <v>0.0349997385059818</v>
+        <v>0.09517313494548185</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06264304910710095</v>
+        <v>0.1267740038923532</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03503458255964713</v>
+        <v>0.01368436752906985</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06345659519940096</v>
+        <v>0.1278701907613291</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0833612944973815</v>
+        <v>0.02742905769741637</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06178980302581057</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1271350206829329</v>
+        <v>0.06109280826921631</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06160521803517569</v>
+        <v>0.1287092901945756</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03503458255964713</v>
+        <v>0.09433832691251237</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06345659519940096</v>
+        <v>0.1284204195273188</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03487359923029673</v>
+        <v>0.01563341371647391</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06427014129170097</v>
+        <v>0.1295095521813462</v>
       </c>
       <c r="J144" t="n">
-        <v>0.08310044901623923</v>
+        <v>0.02717641829445298</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06258197998767993</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1265948604591263</v>
+        <v>0.06037900844317332</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06239502852280615</v>
+        <v>0.1303594092996342</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03487359923029673</v>
+        <v>0.09451088621273068</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06427014129170097</v>
+        <v>0.1300668351622845</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03441766507321702</v>
+        <v>0.01562162753344865</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06508368738400098</v>
+        <v>0.1311489136013632</v>
       </c>
       <c r="J145" t="n">
-        <v>0.08293404537084192</v>
+        <v>0.02708795129790501</v>
       </c>
       <c r="K145" t="n">
-        <v>0.0633741569495493</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1275446430937386</v>
+        <v>0.06031158260650879</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06318483901043662</v>
+        <v>0.1320095284046928</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03441766507321702</v>
+        <v>0.09371672326615454</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06508368738400098</v>
+        <v>0.1317132507972501</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.03446765664369442</v>
+        <v>0.01362627589593101</v>
       </c>
       <c r="G146" t="n">
-        <v>0.065897233476301</v>
+        <v>0.1327882750213802</v>
       </c>
       <c r="J146" t="n">
-        <v>0.08286218313786395</v>
+        <v>0.02696865576197356</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06416633391141867</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1268847271499736</v>
+        <v>0.06029070126450298</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06397464949806707</v>
+        <v>0.1336596475097515</v>
       </c>
       <c r="N146" t="n">
-        <v>0.03446765664369442</v>
+        <v>0.09381807342984066</v>
       </c>
       <c r="O146" t="n">
-        <v>0.065897233476301</v>
+        <v>0.1333596664322157</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03442445049701535</v>
+        <v>0.01563687995651156</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06671077956860101</v>
+        <v>0.1344276364413973</v>
       </c>
       <c r="J147" t="n">
-        <v>0.08228496189397963</v>
+        <v>0.0271772045643674</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06495851087328804</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1261154711910348</v>
+        <v>0.06081443342549947</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06476445998569753</v>
+        <v>0.1353097666148102</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03442445049701535</v>
+        <v>0.09366453958341409</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06671077956860101</v>
+        <v>0.1350060820671813</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.03418892318846624</v>
+        <v>0.01565312970002905</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06752432566090102</v>
+        <v>0.1360669978614143</v>
       </c>
       <c r="J148" t="n">
-        <v>0.08210248121586328</v>
+        <v>0.02709629988966017</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0657506878351574</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.125237233780126</v>
+        <v>0.06036143872623498</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06555427047332799</v>
+        <v>0.1369598857198688</v>
       </c>
       <c r="N148" t="n">
-        <v>0.03418892318846624</v>
+        <v>0.09394648328543542</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06752432566090102</v>
+        <v>0.1366524977021469</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03416195127333352</v>
+        <v>0.01367471511132223</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06833787175320104</v>
+        <v>0.1377063592814313</v>
       </c>
       <c r="J149" t="n">
-        <v>0.08191484068018925</v>
+        <v>0.02712538713340465</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06654286479702677</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1249503734804506</v>
+        <v>0.06053048284667767</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06634408096095845</v>
+        <v>0.1386100048249275</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03416195127333352</v>
+        <v>0.09426200064768037</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06833787175320104</v>
+        <v>0.1382989133371126</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03384441130690358</v>
+        <v>0.01470132617522989</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06915141784550105</v>
+        <v>0.1393457207014484</v>
       </c>
       <c r="J150" t="n">
-        <v>0.08182213986363188</v>
+        <v>0.02716391169115365</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06733504175889614</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1253552488552125</v>
+        <v>0.06112033146679571</v>
       </c>
       <c r="M150" t="n">
-        <v>0.0671338914485889</v>
+        <v>0.1402601239299862</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03384441130690358</v>
+        <v>0.09440918778192425</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06915141784550105</v>
+        <v>0.1399453289720782</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0339370371470432</v>
+        <v>0.01373265287659076</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06996496393780106</v>
+        <v>0.1409850821214654</v>
       </c>
       <c r="J151" t="n">
-        <v>0.08152447834286547</v>
+        <v>0.02731131895845994</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06812721872076551</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1241522184676154</v>
+        <v>0.06062975026655729</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06792370193621937</v>
+        <v>0.1419102430350448</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0339370371470432</v>
+        <v>0.09408614079994243</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06996496393780106</v>
+        <v>0.1415917446070438</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03363640183706663</v>
+        <v>0.0147683852002436</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07077851003010108</v>
+        <v>0.1426244435414825</v>
       </c>
       <c r="J152" t="n">
-        <v>0.08132195569456438</v>
+        <v>0.0272670543308763</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06891939568263487</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1239416408808628</v>
+        <v>0.06135750492593051</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06871351242384982</v>
+        <v>0.1435603621401035</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03363640183706663</v>
+        <v>0.09519095581351045</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07077851003010108</v>
+        <v>0.1432381602420094</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03354050509633236</v>
+        <v>0.01480821313102718</v>
       </c>
       <c r="G153" t="n">
-        <v>0.07159205612240109</v>
+        <v>0.1442638049614995</v>
       </c>
       <c r="J153" t="n">
-        <v>0.08091467149540291</v>
+        <v>0.02753056320395553</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06971157264450423</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1243238746581584</v>
+        <v>0.06100236112488358</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06950332291148027</v>
+        <v>0.1452104812451622</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03354050509633236</v>
+        <v>0.09502172893440375</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07159205612240109</v>
+        <v>0.1448845758769751</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03354905657990612</v>
+        <v>0.01585182665378027</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07240560221470109</v>
+        <v>0.1459031663815165</v>
       </c>
       <c r="J154" t="n">
-        <v>0.08120272532205541</v>
+        <v>0.02750129097325039</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07050374960637359</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1227992783627059</v>
+        <v>0.06136308454338466</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07029313339911072</v>
+        <v>0.1468606003502208</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03354905657990612</v>
+        <v>0.09567655627439775</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07240560221470109</v>
+        <v>0.1465309915119407</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03326176594285377</v>
+        <v>0.01389891575334159</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07321914830700112</v>
+        <v>0.1475425278015336</v>
       </c>
       <c r="J155" t="n">
-        <v>0.08088621675119617</v>
+        <v>0.02767868303431367</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07129592656824296</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1227682105577088</v>
+        <v>0.06143844086140188</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07108294388674119</v>
+        <v>0.1485107194552795</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03326176594285377</v>
+        <v>0.09575353394526792</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07321914830700112</v>
+        <v>0.1481774071469063</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.03327834284024107</v>
+        <v>0.01594917041454994</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07403269439930113</v>
+        <v>0.1491818892215506</v>
       </c>
       <c r="J156" t="n">
-        <v>0.08076524535949958</v>
+        <v>0.02776218478269818</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07208810353011233</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1230310298063711</v>
+        <v>0.06212719575890346</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07187275437437164</v>
+        <v>0.1501608385603382</v>
       </c>
       <c r="N156" t="n">
-        <v>0.03327834284024107</v>
+        <v>0.09655075805878965</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07403269439930113</v>
+        <v>0.149823822781872</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03339849692713391</v>
+        <v>0.0150040512818635</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07484624049160114</v>
+        <v>0.1508212506415677</v>
       </c>
       <c r="J157" t="n">
-        <v>0.08063991072363991</v>
+        <v>0.02765124161395667</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0728802804919817</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1224880946718961</v>
+        <v>0.06182811491585749</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07266256486200211</v>
+        <v>0.1518109576653968</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03339849692713391</v>
+        <v>0.09626632472673841</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07484624049160114</v>
+        <v>0.1514702384168376</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03312193785859807</v>
+        <v>0.01509843947514287</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07565978658390116</v>
+        <v>0.1524606120615847</v>
       </c>
       <c r="J158" t="n">
-        <v>0.08041031242029156</v>
+        <v>0.02775225023653195</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07367245745385106</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1214397637174877</v>
+        <v>0.0618726672180345</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07345237534963256</v>
+        <v>0.1534610767704555</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03312193785859807</v>
+        <v>0.09730049627238285</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07565978658390116</v>
+        <v>0.1531166540518032</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03304837528969937</v>
+        <v>0.015238920926709</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07647333267620116</v>
+        <v>0.1540999734816018</v>
       </c>
       <c r="J159" t="n">
-        <v>0.07987655002612878</v>
+        <v>0.02783008519960584</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07446463441572043</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1209863955063494</v>
+        <v>0.06260321950269918</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07424218583726301</v>
+        <v>0.1551111958755141</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03304837528969937</v>
+        <v>0.09803548942966334</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07647333267620116</v>
+        <v>0.1547630696867688</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03317751887550363</v>
+        <v>0.0144161370270923</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07728687876850117</v>
+        <v>0.1557393349016188</v>
       </c>
       <c r="J160" t="n">
-        <v>0.07913872311782597</v>
+        <v>0.02818743149573825</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0752568113775898</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.120328348601685</v>
+        <v>0.06300458304215387</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07503199632489348</v>
+        <v>0.1567613149805728</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03317751887550363</v>
+        <v>0.09902096997558479</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07728687876850117</v>
+        <v>0.1564094853217345</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03300907827107667</v>
+        <v>0.01462072916682317</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07810042486080118</v>
+        <v>0.1573786963216358</v>
       </c>
       <c r="J161" t="n">
-        <v>0.07909693127205744</v>
+        <v>0.02840754695525334</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07604898833945917</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1204659815666981</v>
+        <v>0.06353949669377504</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07582180681252393</v>
+        <v>0.1584114340856314</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03300907827107667</v>
+        <v>0.100199464119846</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07810042486080118</v>
+        <v>0.1580559009567001</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.0329427631314843</v>
+        <v>0.01684333873643204</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0789139709531012</v>
+        <v>0.1590180577416528</v>
       </c>
       <c r="J162" t="n">
-        <v>0.07935127406549747</v>
+        <v>0.02887368940847518</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07684116530132852</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1196996529645923</v>
+        <v>0.06457069931493914</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07661161730015439</v>
+        <v>0.1600615531906901</v>
       </c>
       <c r="N162" t="n">
-        <v>0.0329427631314843</v>
+        <v>0.1009134980721455</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0789139709531012</v>
+        <v>0.1597023165916657</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03287828311179235</v>
+        <v>0.01607460712644929</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07972751704540121</v>
+        <v>0.1606574191616699</v>
       </c>
       <c r="J163" t="n">
-        <v>0.07900185107482047</v>
+        <v>0.02936911668572786</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07763334226319789</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1186297213585713</v>
+        <v>0.06556092976302252</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07740142778778485</v>
+        <v>0.1617116722957488</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03287828311179235</v>
+        <v>0.102905598042182</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07972751704540121</v>
+        <v>0.1613487322266313</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03271534786706663</v>
+        <v>0.01730517572740535</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08054106313770122</v>
+        <v>0.1622967805816869</v>
       </c>
       <c r="J164" t="n">
-        <v>0.07874876187670068</v>
+        <v>0.0297770866173355</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07842551922506726</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1182565453118389</v>
+        <v>0.06637292689540172</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07819123827541531</v>
+        <v>0.1633617914008074</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03271534786706663</v>
+        <v>0.1042182902396543</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08054106313770122</v>
+        <v>0.162995147861597</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03285366705237297</v>
+        <v>0.01652568592983061</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08135460923000123</v>
+        <v>0.163936142001704</v>
       </c>
       <c r="J165" t="n">
-        <v>0.07859210604781255</v>
+        <v>0.0302808570336222</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07921769618693662</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1176804833875985</v>
+        <v>0.06756942956945308</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07898104876304576</v>
+        <v>0.1650119105058661</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03285366705237297</v>
+        <v>0.1045941008742609</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08135460923000123</v>
+        <v>0.1646415634965626</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03249295032277716</v>
+        <v>0.01572677912425549</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08216815532230125</v>
+        <v>0.165575503421721</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0779319831648303</v>
+        <v>0.03056368576491203</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08000987314880599</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1175971047313588</v>
+        <v>0.06861317664255306</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07977085925067623</v>
+        <v>0.1666620296109247</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03249295032277716</v>
+        <v>0.1069755561557006</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08216815532230125</v>
+        <v>0.1662879791315282</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03243290733334503</v>
+        <v>0.01790023902391664</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08298170141460126</v>
+        <v>0.1672148648417381</v>
       </c>
       <c r="J167" t="n">
-        <v>0.07736849280442831</v>
+        <v>0.03080883064152914</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08080205011067536</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1170615284291213</v>
+        <v>0.06876690697207807</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08056066973830668</v>
+        <v>0.1683121487159834</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03243290733334503</v>
+        <v>0.1081051822936721</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08298170141460126</v>
+        <v>0.1679343947664939</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.0325732477391424</v>
+        <v>0.01806164572096446</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08379524750690127</v>
+        <v>0.1688542262617551</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0771017345432809</v>
+        <v>0.03100608392390777</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08159422707254473</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1165649050632343</v>
+        <v>0.06941973346036601</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08135048022593715</v>
+        <v>0.1699622678210421</v>
       </c>
       <c r="N168" t="n">
-        <v>0.0325732477391424</v>
+        <v>0.1082006594095189</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08379524750690127</v>
+        <v>0.1695808104014595</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03241368119523509</v>
+        <v>0.01721907532249195</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08460879359920129</v>
+        <v>0.1704935876817721</v>
       </c>
       <c r="J169" t="n">
-        <v>0.07683162556722747</v>
+        <v>0.03138859608912656</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08238640403441409</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1156100646986019</v>
+        <v>0.07034804921884225</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0821402907135676</v>
+        <v>0.1716123869261007</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03241368119523509</v>
+        <v>0.1091689437168936</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08460879359920129</v>
+        <v>0.1712272260364251</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03245391735668891</v>
+        <v>0.01637282471175888</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0854223396915013</v>
+        <v>0.1721329491017892</v>
       </c>
       <c r="J170" t="n">
-        <v>0.07661648812826855</v>
+        <v>0.03156416687065723</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08317858099628346</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1154998374001279</v>
+        <v>0.07106107572286488</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08293010120119805</v>
+        <v>0.1732625060311594</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03245391735668891</v>
+        <v>0.1101139815421964</v>
       </c>
       <c r="O170" t="n">
-        <v>0.0854223396915013</v>
+        <v>0.1728736416713907</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03249366587856969</v>
+        <v>0.01752319077202499</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0862358857838013</v>
+        <v>0.1737723105218062</v>
       </c>
       <c r="J171" t="n">
-        <v>0.07652811582092603</v>
+        <v>0.03213332738051219</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08397075795815283</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1146370532327162</v>
+        <v>0.07135999500802584</v>
       </c>
       <c r="M171" t="n">
-        <v>0.0837199116888285</v>
+        <v>0.1749126251362181</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03249366587856969</v>
+        <v>0.1118375961270395</v>
       </c>
       <c r="O171" t="n">
-        <v>0.0862358857838013</v>
+        <v>0.1745200573063563</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03233263641594324</v>
+        <v>0.01767047038655007</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08704943187610133</v>
+        <v>0.1754116719418233</v>
       </c>
       <c r="J172" t="n">
-        <v>0.07617187594967162</v>
+        <v>0.0320966087307039</v>
       </c>
       <c r="K172" t="n">
-        <v>0.0847629349200222</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1133245422612708</v>
+        <v>0.07184598910991719</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08450972217645897</v>
+        <v>0.1765627442412767</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03233263641594324</v>
+        <v>0.112241610713035</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08704943187610133</v>
+        <v>0.176166472941322</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03237053862387536</v>
+        <v>0.01781496043859387</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08786297796840134</v>
+        <v>0.1770510333618403</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0759531358189772</v>
+        <v>0.03245454203324474</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08555511188189156</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1126651345506954</v>
+        <v>0.07282024006413088</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08529953266408942</v>
+        <v>0.1782128633463354</v>
       </c>
       <c r="N173" t="n">
-        <v>0.03237053862387536</v>
+        <v>0.1124278485417948</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08786297796840134</v>
+        <v>0.1778128885762876</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.0323070821574319</v>
+        <v>0.01895695781141617</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08867652406070135</v>
+        <v>0.1786903947818573</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0747772627333145</v>
+        <v>0.03280765840014718</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08634728884376093</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.111761660165894</v>
+        <v>0.0729839299062589</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08608934315171989</v>
+        <v>0.1798629824513941</v>
       </c>
       <c r="N174" t="n">
-        <v>0.0323070821574319</v>
+        <v>0.113798132854931</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08867652406070135</v>
+        <v>0.1794593042112532</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03224197667167866</v>
+        <v>0.01909675938827672</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08949007015300137</v>
+        <v>0.1803297562018744</v>
       </c>
       <c r="J175" t="n">
-        <v>0.07394962399715535</v>
+        <v>0.03285648894342365</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0871394658056303</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1107169491717706</v>
+        <v>0.07373824067189327</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08687915363935034</v>
+        <v>0.1815131015564527</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03224197667167866</v>
+        <v>0.1149542868940556</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08949007015300137</v>
+        <v>0.1811057198462188</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03187493182168147</v>
+        <v>0.0172346620524353</v>
       </c>
       <c r="G176" t="n">
-        <v>0.09030361624530137</v>
+        <v>0.1819691176218914</v>
       </c>
       <c r="J176" t="n">
-        <v>0.07407558691497154</v>
+        <v>0.03320156477508653</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08793164276749967</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1098338316332289</v>
+        <v>0.07458435439662603</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0876689641269808</v>
+        <v>0.1831632206615114</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03187493182168147</v>
+        <v>0.1151981339007805</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09030361624530137</v>
+        <v>0.1827521354811845</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03210565726250611</v>
+        <v>0.01837096268715166</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09111716233760138</v>
+        <v>0.1836084790419084</v>
       </c>
       <c r="J177" t="n">
-        <v>0.07286051879123484</v>
+        <v>0.03334341700714827</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08872381972936903</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.109615137615173</v>
+        <v>0.07492345311604906</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08845877461461125</v>
+        <v>0.18481333976657</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03210565726250611</v>
+        <v>0.116231497116718</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09111716233760138</v>
+        <v>0.1843985511161501</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03183386264921843</v>
+        <v>0.01750595980025438</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09193070842990139</v>
+        <v>0.1852478404619255</v>
       </c>
       <c r="J178" t="n">
-        <v>0.07240978693041711</v>
+        <v>0.03358257675162131</v>
       </c>
       <c r="K178" t="n">
-        <v>0.0895159966912384</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1073636971825066</v>
+        <v>0.07585671886575451</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08924858510224172</v>
+        <v>0.1864634588716287</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03183386264921843</v>
+        <v>0.1167561997834801</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09193070842990139</v>
+        <v>0.1860449667511157</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03195925763688427</v>
+        <v>0.01764583310029651</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09274425452220141</v>
+        <v>0.1868872018819425</v>
       </c>
       <c r="J179" t="n">
-        <v>0.07132875863699009</v>
+        <v>0.03412068705051476</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09030817365310777</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1074823404001338</v>
+        <v>0.07569041630968212</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09003839558987217</v>
+        <v>0.1881135779766873</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03195925763688427</v>
+        <v>0.1185895233525968</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09274425452220141</v>
+        <v>0.1876913823860814</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03188155188056938</v>
+        <v>0.01979275533208288</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09355780061450142</v>
+        <v>0.1885265633019596</v>
       </c>
       <c r="J180" t="n">
-        <v>0.07082280121542558</v>
+        <v>0.03427158772727623</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09110035061497712</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1064738973329584</v>
+        <v>0.07655488683378386</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09082820607750264</v>
+        <v>0.189763697081746</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03188155188056938</v>
+        <v>0.1183720736449147</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09355780061450142</v>
+        <v>0.189337798021047</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03150045503533964</v>
+        <v>0.01894162656483213</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09437134670680143</v>
+        <v>0.1901659247219766</v>
       </c>
       <c r="J181" t="n">
-        <v>0.06949728197019542</v>
+        <v>0.03433219403031648</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09189252757684649</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1042411980458842</v>
+        <v>0.07683818635334647</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09161801656513309</v>
+        <v>0.1914138161868047</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03150045503533964</v>
+        <v>0.1194778142710999</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09437134670680143</v>
+        <v>0.1909842136560126</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03151567675626082</v>
+        <v>0.02008734686776291</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09518489279910144</v>
+        <v>0.1918052861419937</v>
       </c>
       <c r="J182" t="n">
-        <v>0.06895756820577134</v>
+        <v>0.03469338239199929</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09268470453871586</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1041870726038152</v>
+        <v>0.07802000958168898</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09240782705276356</v>
+        <v>0.1930639352918633</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03151567675626082</v>
+        <v>0.1203754251559603</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09518489279910144</v>
+        <v>0.1926306292909782</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.0313269266983988</v>
+        <v>0.01822481631009385</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09599843889140146</v>
+        <v>0.1934446475620107</v>
       </c>
       <c r="J183" t="n">
-        <v>0.0684090272266252</v>
+        <v>0.03484602924468844</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09347688150058522</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1021143510716553</v>
+        <v>0.07798005123213042</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09319763754039401</v>
+        <v>0.194714054396922</v>
       </c>
       <c r="N183" t="n">
-        <v>0.0313269266983988</v>
+        <v>0.1217335862243042</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09599843889140146</v>
+        <v>0.1942770449259439</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03133391451681933</v>
+        <v>0.01834893496104358</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09681198498370147</v>
+        <v>0.1950840089820277</v>
       </c>
       <c r="J184" t="n">
-        <v>0.06765702633722875</v>
+        <v>0.03508101102074763</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09426905846245459</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1011258635143085</v>
+        <v>0.07839800601799002</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09398744802802446</v>
+        <v>0.1963641735019807</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03133391451681933</v>
+        <v>0.1225209774009394</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09681198498370147</v>
+        <v>0.1959234605609095</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03133634986658826</v>
+        <v>0.01945460288983077</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09762553107600148</v>
+        <v>0.1967233704020448</v>
       </c>
       <c r="J185" t="n">
-        <v>0.06610693284205377</v>
+        <v>0.03558920415254072</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09506123542432396</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1005244399966785</v>
+        <v>0.07905356865258684</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09477725851565491</v>
+        <v>0.1980142926070393</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03133634986658826</v>
+        <v>0.1237062786106743</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09762553107600148</v>
+        <v>0.1975698761958751</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03123394240277141</v>
+        <v>0.01853672016567401</v>
       </c>
       <c r="G186" t="n">
-        <v>0.0984390771683015</v>
+        <v>0.1983627318220618</v>
       </c>
       <c r="J186" t="n">
-        <v>0.06576411404557211</v>
+        <v>0.03576148507243143</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09585341238619333</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09881291058366926</v>
+        <v>0.0798264338492399</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09556706900328538</v>
+        <v>0.199664411712098</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03123394240277141</v>
+        <v>0.1239581697783169</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0984390771683015</v>
+        <v>0.1992162918308407</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03102640178043456</v>
+        <v>0.01959452835770897</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09925262326060151</v>
+        <v>0.2000020932420788</v>
       </c>
       <c r="J187" t="n">
-        <v>0.06483393725225556</v>
+        <v>0.03578873021278355</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09664558934806269</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09759410534018476</v>
+        <v>0.07999633519575466</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09635687949091583</v>
+        <v>0.2013145308171566</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03102640178043456</v>
+        <v>0.1242489863498605</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09925262326060151</v>
+        <v>0.2008627074658063</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03111343765464358</v>
+        <v>0.01864797251354656</v>
       </c>
       <c r="G188" t="n">
-        <v>0.1000661693529015</v>
+        <v>0.2016414546620959</v>
       </c>
       <c r="J188" t="n">
-        <v>0.0637217697665759</v>
+        <v>0.03588434929573356</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09743776630993206</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09697085433112879</v>
+        <v>0.08040866520004422</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09714668997854629</v>
+        <v>0.2029646499222153</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03111343765464358</v>
+        <v>0.1248767437025008</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1000661693529015</v>
+        <v>0.202509123100772</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03069475968046428</v>
+        <v>0.0187002323856617</v>
       </c>
       <c r="G189" t="n">
-        <v>0.1008797154452015</v>
+        <v>0.2032808160821129</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0628329788930049</v>
+        <v>0.03607761922074075</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09822994327180141</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09544598762140527</v>
+        <v>0.07991634776365455</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09793650046617675</v>
+        <v>0.2046147690272739</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03069475968046428</v>
+        <v>0.1247972967381695</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1008797154452015</v>
+        <v>0.2041555387357376</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03067007751296244</v>
+        <v>0.02075128920561903</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1016932615375016</v>
+        <v>0.20492017750213</v>
       </c>
       <c r="J190" t="n">
-        <v>0.06257293193601438</v>
+        <v>0.03586877500681604</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09902212023367078</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09332233527591821</v>
+        <v>0.08011930816038312</v>
       </c>
       <c r="M190" t="n">
-        <v>0.0987263109538072</v>
+        <v>0.2062648881323326</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03067007751296244</v>
+        <v>0.1245105301947522</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1016932615375016</v>
+        <v>0.2058019543707033</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03073910080720391</v>
+        <v>0.02080112420498317</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1025068076298016</v>
+        <v>0.206559538922147</v>
       </c>
       <c r="J191" t="n">
-        <v>0.06184699620007611</v>
+        <v>0.03625778307799592</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09981429719554015</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09220272735957136</v>
+        <v>0.08101747166402726</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09951612144143766</v>
+        <v>0.2079150072373913</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03073910080720391</v>
+        <v>0.1256163288101337</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1025068076298016</v>
+        <v>0.2074483700056688</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03030153921825451</v>
+        <v>0.02084971861531871</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1033203537221016</v>
+        <v>0.208198900342164</v>
       </c>
       <c r="J192" t="n">
-        <v>0.06086053898966198</v>
+        <v>0.03634460985831692</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1006064741574095</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09168999393726873</v>
+        <v>0.08121076354838433</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1003059319290681</v>
+        <v>0.2095651263424499</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03030153921825451</v>
+        <v>0.1252145773221993</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1033203537221016</v>
+        <v>0.2090947856406345</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03035710240118002</v>
+        <v>0.01889705366819028</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1041338998144016</v>
+        <v>0.2098382617621811</v>
       </c>
       <c r="J193" t="n">
-        <v>0.06071892760924369</v>
+        <v>0.03612922177181559</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1013986511192789</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.09088696507391408</v>
+        <v>0.0811991090872517</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1010957424166986</v>
+        <v>0.2112152454475086</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03035710240118002</v>
+        <v>0.1255051604688341</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1041338998144016</v>
+        <v>0.2107412012756001</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03020550001104629</v>
+        <v>0.0189431105951625</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1049474459067016</v>
+        <v>0.2114776231821981</v>
       </c>
       <c r="J194" t="n">
-        <v>0.05972752936329304</v>
+        <v>0.03631158524252844</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1021908280811483</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08869647083441146</v>
+        <v>0.0811824335544267</v>
       </c>
       <c r="M194" t="n">
-        <v>0.101885552904329</v>
+        <v>0.2128653645525673</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03020550001104629</v>
+        <v>0.1268879629879233</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1049474459067016</v>
+        <v>0.2123876169105658</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02994535930386481</v>
+        <v>0.0209878706278</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1057609919990016</v>
+        <v>0.2131169846022152</v>
       </c>
       <c r="J195" t="n">
-        <v>0.05949171155628186</v>
+        <v>0.03659166669449199</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1029830050430176</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08812134128366472</v>
+        <v>0.08116066222370674</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1026753633919595</v>
+        <v>0.2145154836576259</v>
       </c>
       <c r="N195" t="n">
-        <v>0.02994535930386481</v>
+        <v>0.1264628696173521</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1057609919990016</v>
+        <v>0.2140340325455314</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02971374308072285</v>
+        <v>0.02103131499766737</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1065745380913016</v>
+        <v>0.2147563460222322</v>
       </c>
       <c r="J196" t="n">
-        <v>0.05870483128729528</v>
+        <v>0.03636943255174278</v>
       </c>
       <c r="K196" t="n">
-        <v>0.103775182004887</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08616440648657769</v>
+        <v>0.0813337203688892</v>
       </c>
       <c r="M196" t="n">
-        <v>0.10346517387959</v>
+        <v>0.2161656027626846</v>
       </c>
       <c r="N196" t="n">
-        <v>0.02971374308072285</v>
+        <v>0.1273297650950056</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1065745380913016</v>
+        <v>0.215680448180497</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02938278478716502</v>
+        <v>0.02007342493632924</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1073880841836016</v>
+        <v>0.2163957074422493</v>
       </c>
       <c r="J197" t="n">
-        <v>0.05783360082869066</v>
+        <v>0.03644484923831733</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1045673589667564</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08602849650805433</v>
+        <v>0.08150153326377138</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1042549843672204</v>
+        <v>0.2178157218677432</v>
       </c>
       <c r="N197" t="n">
-        <v>0.02938278478716502</v>
+        <v>0.1264885341587689</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1073880841836016</v>
+        <v>0.2173268638154626</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02886459241908819</v>
+        <v>0.02011418167535023</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1082016302759016</v>
+        <v>0.2180350688622663</v>
       </c>
       <c r="J198" t="n">
-        <v>0.05767511713948612</v>
+        <v>0.03671788317825213</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1053595359286257</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08501644141299852</v>
+        <v>0.08166402618215071</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1050447948548509</v>
+        <v>0.2194658409728019</v>
       </c>
       <c r="N198" t="n">
-        <v>0.02886459241908819</v>
+        <v>0.1269390615465272</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1082016302759016</v>
+        <v>0.2189732794504283</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02857127397238933</v>
+        <v>0.02015356644629496</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1090151763682017</v>
+        <v>0.2196744302822833</v>
       </c>
       <c r="J199" t="n">
-        <v>0.05712876730667185</v>
+        <v>0.03658850079558378</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1061517128904951</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08333107126631423</v>
+        <v>0.08182112439782449</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1058346053424813</v>
+        <v>0.2211159600778606</v>
       </c>
       <c r="N199" t="n">
-        <v>0.02857127397238933</v>
+        <v>0.1272812319961658</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1090151763682017</v>
+        <v>0.2206196950853939</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02801493744296532</v>
+        <v>0.02119156048072804</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1098287224605017</v>
+        <v>0.2213137917023004</v>
       </c>
       <c r="J200" t="n">
-        <v>0.05719393841723813</v>
+        <v>0.03665666851434872</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1069438898523644</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08297521613290515</v>
+        <v>0.08267275318459014</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1066244158301118</v>
+        <v>0.2227660791829192</v>
       </c>
       <c r="N200" t="n">
-        <v>0.02801493744296532</v>
+        <v>0.1275149302455695</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1098287224605017</v>
+        <v>0.2222661107203595</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02750769082671309</v>
+        <v>0.02122814501021408</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1106422685528017</v>
+        <v>0.2229531531223174</v>
       </c>
       <c r="J201" t="n">
-        <v>0.05647001755817505</v>
+        <v>0.03702235275858352</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1077360668142338</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08135051698998669</v>
+        <v>0.08231883781624494</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1074142263177423</v>
+        <v>0.2244161982879779</v>
       </c>
       <c r="N201" t="n">
-        <v>0.02750769082671309</v>
+        <v>0.1286400410326238</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1106422685528017</v>
+        <v>0.2239125263553251</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02656164211952958</v>
+        <v>0.02126330126631772</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1114558146451017</v>
+        <v>0.2245925145423345</v>
       </c>
       <c r="J202" t="n">
-        <v>0.05585639181647289</v>
+        <v>0.03688551995232471</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1085282437761032</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08042439445870658</v>
+        <v>0.08285930356658636</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1082040368053727</v>
+        <v>0.2260663173930365</v>
       </c>
       <c r="N202" t="n">
-        <v>0.02656164211952958</v>
+        <v>0.1280564490952136</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1114558146451017</v>
+        <v>0.2255589419902907</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02598889931731167</v>
+        <v>0.01929701048060355</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1122693607374017</v>
+        <v>0.2262318759623515</v>
       </c>
       <c r="J203" t="n">
-        <v>0.05575244827912185</v>
+        <v>0.03694613651960879</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1093204207379726</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07918361339652613</v>
+        <v>0.08229407570941172</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1089938472930032</v>
+        <v>0.2277164364980952</v>
       </c>
       <c r="N203" t="n">
-        <v>0.02598889931731167</v>
+        <v>0.1282640391712243</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1122693607374017</v>
+        <v>0.2272053576252564</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02530157041595631</v>
+        <v>0.02132925388463621</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1130829068297017</v>
+        <v>0.2278712373823686</v>
       </c>
       <c r="J204" t="n">
-        <v>0.05565757403311214</v>
+        <v>0.03700416888447232</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1101125976998419</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.07783159600162431</v>
+        <v>0.08262307951851833</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1097836577806336</v>
+        <v>0.2293665556031539</v>
       </c>
       <c r="N204" t="n">
-        <v>0.02530157041595631</v>
+        <v>0.128062695998541</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1130829068297017</v>
+        <v>0.228851773260222</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0247117634113604</v>
+        <v>0.0193600127099803</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1138964529220017</v>
+        <v>0.2295105988023856</v>
       </c>
       <c r="J205" t="n">
-        <v>0.05457115616543387</v>
+        <v>0.0369595834709518</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1109047746617113</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07697176447218029</v>
+        <v>0.08264624026770359</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1105734682682641</v>
+        <v>0.2310166747082125</v>
       </c>
       <c r="N205" t="n">
-        <v>0.0247117634113604</v>
+        <v>0.1287523043150486</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1138964529220017</v>
+        <v>0.2304981888951876</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02403158629942088</v>
+        <v>0.02038926818820045</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1147099990143017</v>
+        <v>0.2311499602224026</v>
       </c>
       <c r="J206" t="n">
-        <v>0.05489258176307735</v>
+        <v>0.03721234670308374</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1116969516235806</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07540754100637342</v>
+        <v>0.08326348323076493</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1113632787558945</v>
+        <v>0.2326667938132712</v>
       </c>
       <c r="N206" t="n">
-        <v>0.02403158629942088</v>
+        <v>0.1283327488586325</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1147099990143017</v>
+        <v>0.2321446045301532</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02337314707603466</v>
+        <v>0.02141700155086127</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1155235451066017</v>
+        <v>0.2327893216424196</v>
       </c>
       <c r="J207" t="n">
-        <v>0.05452123791303273</v>
+        <v>0.03726242500490469</v>
       </c>
       <c r="K207" t="n">
-        <v>0.11248912858545</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07474234780238259</v>
+        <v>0.08357473368149965</v>
       </c>
       <c r="M207" t="n">
-        <v>0.112153089243525</v>
+        <v>0.2343169129183299</v>
       </c>
       <c r="N207" t="n">
-        <v>0.02337314707603466</v>
+        <v>0.1297039143671779</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1155235451066017</v>
+        <v>0.2337910201651189</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02254855373709866</v>
+        <v>0.02144319402952738</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1163370911989018</v>
+        <v>0.2344286830624367</v>
       </c>
       <c r="J208" t="n">
-        <v>0.05365651170229022</v>
+        <v>0.03730978480045115</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1132813055473194</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07327960705838721</v>
+        <v>0.08307991689370506</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1129428997311554</v>
+        <v>0.2359670320233885</v>
       </c>
       <c r="N208" t="n">
-        <v>0.02254855373709866</v>
+        <v>0.1286656855785697</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1163370911989018</v>
+        <v>0.2354374358000845</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02216991427850977</v>
+        <v>0.02146782685576339</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1171506372912018</v>
+        <v>0.2360680444824537</v>
       </c>
       <c r="J209" t="n">
-        <v>0.05339779021784002</v>
+        <v>0.03745439251375969</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1140734825091888</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07282274097256636</v>
+        <v>0.08297895814117864</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1137327102187859</v>
+        <v>0.2376171511284472</v>
       </c>
       <c r="N209" t="n">
-        <v>0.02216991427850977</v>
+        <v>0.1298179472306933</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1171506372912018</v>
+        <v>0.2370838514350501</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02164933669616496</v>
+        <v>0.02149088126113393</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1179641833835018</v>
+        <v>0.2377074059024707</v>
       </c>
       <c r="J210" t="n">
-        <v>0.05334446054667238</v>
+        <v>0.03749621456886679</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1148656594710581</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07147517174309909</v>
+        <v>0.08307178269771767</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1145225207064164</v>
+        <v>0.2392672702335058</v>
       </c>
       <c r="N210" t="n">
-        <v>0.02164933669616496</v>
+        <v>0.1292605840614338</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1179641833835018</v>
+        <v>0.2387302670700157</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02119892898596111</v>
+        <v>0.01951233847720361</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1187777294758018</v>
+        <v>0.2393467673224878</v>
       </c>
       <c r="J211" t="n">
-        <v>0.05309590977577738</v>
+        <v>0.03743521738980897</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1156578364329275</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07104032156816464</v>
+        <v>0.08315831583711952</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1153123311940468</v>
+        <v>0.2409173893385645</v>
       </c>
       <c r="N211" t="n">
-        <v>0.02119892898596111</v>
+        <v>0.1301934808086763</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1187777294758018</v>
+        <v>0.2403766827049814</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02063079914379519</v>
+        <v>0.02153217973553705</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1195912755681018</v>
+        <v>0.2409861287425048</v>
       </c>
       <c r="J212" t="n">
-        <v>0.05235152499214529</v>
+        <v>0.0373713674006228</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1164500133947968</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06972161264594218</v>
+        <v>0.08353848283318158</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1161021416816773</v>
+        <v>0.2425675084436232</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02063079914379519</v>
+        <v>0.1300165222103059</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1195912755681018</v>
+        <v>0.242023098339947</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02035705516556406</v>
+        <v>0.02055038626769886</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1204048216604018</v>
+        <v>0.2426254901625219</v>
       </c>
       <c r="J213" t="n">
-        <v>0.05181069328276638</v>
+        <v>0.03740463102534478</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1172421903566662</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06872246717461084</v>
+        <v>0.08381220895970123</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1168919521693077</v>
+        <v>0.2442176275486818</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02035705516556406</v>
+        <v>0.1294295930042079</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1204048216604018</v>
+        <v>0.2436695139749126</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02048980504716465</v>
+        <v>0.02056693930525367</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1212183677527019</v>
+        <v>0.2442648515825389</v>
       </c>
       <c r="J214" t="n">
-        <v>0.05147280173463079</v>
+        <v>0.03733497468801145</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1180343673185356</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06764630735234967</v>
+        <v>0.08357941949047579</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1176817626569382</v>
+        <v>0.2458677466537404</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02048980504716465</v>
+        <v>0.1296325779282672</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1212183677527019</v>
+        <v>0.2453159296098782</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02009717801852134</v>
+        <v>0.01958182007976608</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1220319138450019</v>
+        <v>0.245904213002556</v>
       </c>
       <c r="J215" t="n">
-        <v>0.05153723743472866</v>
+        <v>0.03766236481265928</v>
       </c>
       <c r="K215" t="n">
-        <v>0.118826544280405</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06619655537733804</v>
+        <v>0.08404003969930263</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1184715731445686</v>
+        <v>0.2475178657587991</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02009717801852134</v>
+        <v>0.1300253617203693</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1220319138450019</v>
+        <v>0.2469623452448439</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02030797420345548</v>
+        <v>0.01959500982280071</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1228454599373019</v>
+        <v>0.247543574422573</v>
       </c>
       <c r="J216" t="n">
-        <v>0.05120338747005027</v>
+        <v>0.03738676782332485</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1196187212422743</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06637663344775496</v>
+        <v>0.08379399485997915</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1192613836321991</v>
+        <v>0.2491679848638578</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02030797420345548</v>
+        <v>0.1306078291183991</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1228454599373019</v>
+        <v>0.2486087608798095</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02002085872546688</v>
+        <v>0.0206064897659222</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1236590060296019</v>
+        <v>0.24918293584259</v>
       </c>
       <c r="J217" t="n">
-        <v>0.05057063892758581</v>
+        <v>0.03760815014404469</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1204108982041437</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06498996376177962</v>
+        <v>0.08424121024630268</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1200511941198296</v>
+        <v>0.2508181039689165</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02002085872546688</v>
+        <v>0.1305798648602418</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1236590060296019</v>
+        <v>0.2502551765147751</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01983582109646422</v>
+        <v>0.02161624114069514</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1244725521219019</v>
+        <v>0.2508222972626071</v>
       </c>
       <c r="J218" t="n">
-        <v>0.05023837889432547</v>
+        <v>0.03742647819885526</v>
       </c>
       <c r="K218" t="n">
-        <v>0.121203075166013</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06413996851759124</v>
+        <v>0.08428161113207058</v>
       </c>
       <c r="M218" t="n">
-        <v>0.12084100460746</v>
+        <v>0.2524682230739752</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01983582109646422</v>
+        <v>0.1307413536837827</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1244725521219019</v>
+        <v>0.2519015921497408</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02005285082835617</v>
+        <v>0.02062424517868416</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1252860982142019</v>
+        <v>0.2524616586826241</v>
       </c>
       <c r="J219" t="n">
-        <v>0.05010599445725947</v>
+        <v>0.03744171841179317</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1219952521278824</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06293006991336886</v>
+        <v>0.08371512279108023</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1216308150950905</v>
+        <v>0.2541183421790338</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02005285082835617</v>
+        <v>0.1302921803269069</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1252860982142019</v>
+        <v>0.2535480077847064</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01997193743305145</v>
+        <v>0.02063048311145388</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1260996443065019</v>
+        <v>0.2541010201026412</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04947287270337797</v>
+        <v>0.03755383720689487</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1227874290897518</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06264644847763717</v>
+        <v>0.08374167049712899</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1224206255827209</v>
+        <v>0.2557684612840924</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01997193743305145</v>
+        <v>0.1306322295274994</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1260996443065019</v>
+        <v>0.255194423419672</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0196930704224587</v>
+        <v>0.02063493617056891</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1269131903988019</v>
+        <v>0.2557403815226582</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04953840071967119</v>
+        <v>0.03746280100819693</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1235796060516211</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06166647202295361</v>
+        <v>0.08396117952401422</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1232104360703514</v>
+        <v>0.2574185803891511</v>
       </c>
       <c r="N221" t="n">
-        <v>0.0196930704224587</v>
+        <v>0.1301613860234455</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1269131903988019</v>
+        <v>0.2568408390546376</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01961623930848662</v>
+        <v>0.02063758558759386</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1277267364911019</v>
+        <v>0.2573797429426752</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04880198768129385</v>
+        <v>0.03766857623973587</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1243717830134905</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06149027570461951</v>
+        <v>0.08437357514553329</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1240002465579819</v>
+        <v>0.2590686994942097</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01961623930848662</v>
+        <v>0.1302795345526303</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1277267364911019</v>
+        <v>0.2584872546896033</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01974143360304392</v>
+        <v>0.02163834461852074</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1285402825834019</v>
+        <v>0.2590191043626923</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04846540979234162</v>
+        <v>0.03767112932554818</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1251639599753599</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05961815546717619</v>
+        <v>0.08397878263548356</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1247900570456123</v>
+        <v>0.2607188185992684</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01974143360304392</v>
+        <v>0.130686559852939</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1285402825834019</v>
+        <v>0.2601336703245689</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01946864281803926</v>
+        <v>0.02160749169038489</v>
       </c>
       <c r="G224" t="n">
-        <v>0.129353828675702</v>
+        <v>0.2606584657827093</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04833011999206463</v>
+        <v>0.03754552192094768</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1259561369372292</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05995040725516509</v>
+        <v>0.08391046298799854</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1255798675332428</v>
+        <v>0.2623689377043271</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01946864281803926</v>
+        <v>0.1297548591880058</v>
       </c>
       <c r="O224" t="n">
-        <v>0.129353828675702</v>
+        <v>0.2617800859595345</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01939785646538131</v>
+        <v>0.01952454280731732</v>
       </c>
       <c r="G225" t="n">
-        <v>0.130167374768002</v>
+        <v>0.2622978272027264</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04829615147865707</v>
+        <v>0.03742818205941253</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1267483138990986</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05828732701312739</v>
+        <v>0.08373536575969412</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1263696780208732</v>
+        <v>0.2640190568093857</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01939785646538131</v>
+        <v>0.1297012173415852</v>
       </c>
       <c r="O225" t="n">
-        <v>0.130167374768002</v>
+        <v>0.2634265015945002</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01942906405697878</v>
+        <v>0.02039534890484865</v>
       </c>
       <c r="G226" t="n">
-        <v>0.130980920860302</v>
+        <v>0.2639371886227434</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04746353745031306</v>
+        <v>0.03732545845695372</v>
       </c>
       <c r="K226" t="n">
-        <v>0.127540490860968</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05792921068560453</v>
+        <v>0.08327142219403455</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1271594885085037</v>
+        <v>0.2656691759144444</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01942906405697878</v>
+        <v>0.1286587847370942</v>
       </c>
       <c r="O226" t="n">
-        <v>0.130980920860302</v>
+        <v>0.2650729172294658</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01926225510474032</v>
+        <v>0.02022576091850952</v>
       </c>
       <c r="G227" t="n">
-        <v>0.131794466952602</v>
+        <v>0.2655765500427605</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04693231110522686</v>
+        <v>0.03704781819799596</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1283326678228373</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05717635421713779</v>
+        <v>0.08304192769019164</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1279492989961341</v>
+        <v>0.2673192950195031</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01926225510474032</v>
+        <v>0.1283634935760896</v>
       </c>
       <c r="O227" t="n">
-        <v>0.131794466952602</v>
+        <v>0.2667193328644314</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01909741912057467</v>
+        <v>0.01902162978383053</v>
       </c>
       <c r="G228" t="n">
-        <v>0.132608013044902</v>
+        <v>0.2672159114627775</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04720250564159259</v>
+        <v>0.03680572836696404</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1291248447847067</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05692905355226857</v>
+        <v>0.08167017764733733</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1287391094837646</v>
+        <v>0.2689694141245617</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01909741912057467</v>
+        <v>0.1268512760601284</v>
       </c>
       <c r="O228" t="n">
-        <v>0.132608013044902</v>
+        <v>0.268365748499397</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01913454561639044</v>
+        <v>0.0197888064363423</v>
       </c>
       <c r="G229" t="n">
-        <v>0.133421559137202</v>
+        <v>0.2688552728827945</v>
       </c>
       <c r="J229" t="n">
-        <v>0.0465741542576045</v>
+        <v>0.03620965604828266</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1299170217465761</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05528760463553817</v>
+        <v>0.0807794674646434</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1295289199713951</v>
+        <v>0.2706195332296204</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01913454561639044</v>
+        <v>0.1257580643907675</v>
       </c>
       <c r="O229" t="n">
-        <v>0.133421559137202</v>
+        <v>0.2700121641343626</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01927362410409639</v>
+        <v>0.01953314181157546</v>
       </c>
       <c r="G230" t="n">
-        <v>0.134235105229502</v>
+        <v>0.2704946343028116</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04594729015145674</v>
+        <v>0.03567006832637661</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1307091987084454</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05435230341148789</v>
+        <v>0.0798930925412818</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1303187304590255</v>
+        <v>0.2722696523346791</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01927362410409639</v>
+        <v>0.1243197907695636</v>
       </c>
       <c r="O230" t="n">
-        <v>0.134235105229502</v>
+        <v>0.2716585797693283</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01921464409560115</v>
+        <v>0.01926048684506065</v>
       </c>
       <c r="G231" t="n">
-        <v>0.135048651321802</v>
+        <v>0.2721339957228286</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04642194652134349</v>
+        <v>0.03519743228567057</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1315013756703148</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0548234458246592</v>
+        <v>0.07923434827642439</v>
       </c>
       <c r="M231" t="n">
-        <v>0.131108540946656</v>
+        <v>0.2739197714397377</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01921464409560115</v>
+        <v>0.1220723873980738</v>
       </c>
       <c r="O231" t="n">
-        <v>0.135048651321802</v>
+        <v>0.2733049954042939</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01895759510281343</v>
+        <v>0.01897669247232848</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1358621974141021</v>
+        <v>0.2737733571428456</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04529815656545899</v>
+        <v>0.03470221501058934</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1322935526321841</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05390132781959323</v>
+        <v>0.07772653006924304</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1318983514342864</v>
+        <v>0.2755698905447964</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01895759510281343</v>
+        <v>0.1212517864778548</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1358621974141021</v>
+        <v>0.2749514110392595</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01900246663764191</v>
+        <v>0.01968760962890955</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1366757435064021</v>
+        <v>0.2754127185628626</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04547595348199737</v>
+        <v>0.03439488358555762</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1330857295940535</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05278624534083154</v>
+        <v>0.0762929333189096</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1326881619219169</v>
+        <v>0.277220009649855</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01900246663764191</v>
+        <v>0.1186939202104635</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1366757435064021</v>
+        <v>0.2765978266742252</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01894924821199527</v>
+        <v>0.0183990892503345</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1374892895987021</v>
+        <v>0.2770520799828797</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04525537046915282</v>
+        <v>0.0336859050950002</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1338779065559229</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05227849433291532</v>
+        <v>0.07535685342459594</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1334779724095473</v>
+        <v>0.2788701287549137</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01894924821199527</v>
+        <v>0.117334720797457</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1374892895987021</v>
+        <v>0.2782442423091908</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01889792933778218</v>
+        <v>0.01911698227213397</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1383028356910021</v>
+        <v>0.2786914414028968</v>
       </c>
       <c r="J235" t="n">
-        <v>0.04483644072511955</v>
+        <v>0.03318574662334178</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1346700835177923</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05127837074038588</v>
+        <v>0.074641585785474</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1342677828971778</v>
+        <v>0.2805202478599724</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01889792933778218</v>
+        <v>0.115610120440392</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1383028356910021</v>
+        <v>0.2798906579441564</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01884849952691135</v>
+        <v>0.01684713962983855</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1391163817833021</v>
+        <v>0.2803308028229138</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04471919744809175</v>
+        <v>0.03280487525500712</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1354622604796616</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05128617050778478</v>
+        <v>0.07367042580071559</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1350575933848082</v>
+        <v>0.2821703669650311</v>
       </c>
       <c r="N236" t="n">
-        <v>0.01884849952691135</v>
+        <v>0.1135560513408254</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1391163817833021</v>
+        <v>0.2815370735791221</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01880094829129146</v>
+        <v>0.01759541225897889</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1399299278756021</v>
+        <v>0.2819701642429308</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04430367383626357</v>
+        <v>0.03245375807442098</v>
       </c>
       <c r="K237" t="n">
-        <v>0.136254437441531</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05010218957965307</v>
+        <v>0.07276666886949265</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1358474038724387</v>
+        <v>0.2838204860700896</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01880094829129146</v>
+        <v>0.111708445700314</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1399299278756021</v>
+        <v>0.2831834892140876</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01875526514283117</v>
+        <v>0.01736464299164805</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1407434739679021</v>
+        <v>0.2836095256629479</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04368990308782925</v>
+        <v>0.03194139885865155</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1370466144034004</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05002672390053226</v>
+        <v>0.07104905924088398</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1366372143600692</v>
+        <v>0.2854706051751483</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01875526514283117</v>
+        <v>0.1113929229264096</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1407434739679021</v>
+        <v>0.2848299048490532</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01881143959343917</v>
+        <v>0.01613699964954397</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1415570200602022</v>
+        <v>0.2852488870829649</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04347791840098292</v>
+        <v>0.03164108360279162</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1378387913652697</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04816006941496365</v>
+        <v>0.07075504553425546</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1374270248476996</v>
+        <v>0.287120724280207</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01881143959343917</v>
+        <v>0.1098074313480636</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1415570200602022</v>
+        <v>0.2864763204840189</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01856946115502417</v>
+        <v>0.01790848872202293</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1423705661525022</v>
+        <v>0.2868882485029819</v>
       </c>
       <c r="J240" t="n">
-        <v>0.04306775297391882</v>
+        <v>0.03103923397776324</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1386309683271391</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04860252206748855</v>
+        <v>0.06935760906548685</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1382168353353301</v>
+        <v>0.2887708433852657</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01856946115502417</v>
+        <v>0.108116643636211</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1423705661525022</v>
+        <v>0.2881227361189845</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01842931933949483</v>
+        <v>0.01667909634800169</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1431841122448022</v>
+        <v>0.288527609922999</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04255944000483108</v>
+        <v>0.03063582518665524</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1394231452890085</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0473543778026484</v>
+        <v>0.06845669464691365</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1390066458229605</v>
+        <v>0.2904209624903243</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01842931933949483</v>
+        <v>0.1062204746661339</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1431841122448022</v>
+        <v>0.2897691517539501</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01849100365875984</v>
+        <v>0.01544880866639702</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1439976583371022</v>
+        <v>0.2901669713430161</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04225301269191395</v>
+        <v>0.03053083243255646</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1402153222508778</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04651593256498432</v>
+        <v>0.0679522470908713</v>
       </c>
       <c r="M242" t="n">
-        <v>0.139796456310591</v>
+        <v>0.292071081595383</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01849100365875984</v>
+        <v>0.1059188393131142</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1439976583371022</v>
+        <v>0.2914155673889158</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.0183545036247279</v>
+        <v>0.01721761181612564</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1448112044294022</v>
+        <v>0.2918063327630331</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04234850423336159</v>
+        <v>0.02982423091855577</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1410074992127472</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04598748229903782</v>
+        <v>0.06694421120969535</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1405862667982214</v>
+        <v>0.2937212007004416</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0183545036247279</v>
+        <v>0.1039116524524339</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1448112044294022</v>
+        <v>0.2930619830238814</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01861980874930766</v>
+        <v>0.01598549193610434</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1456247505217022</v>
+        <v>0.2934456941830501</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04174594782736815</v>
+        <v>0.02951599584774198</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1417996761746166</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04536932294935025</v>
+        <v>0.06563253181572121</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1413760772858519</v>
+        <v>0.2953713198055003</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01861980874930766</v>
+        <v>0.1029988289593751</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1456247505217022</v>
+        <v>0.2947083986588471</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01848690854440782</v>
+        <v>0.01675243516524987</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1464382966140022</v>
+        <v>0.2950850556030671</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04144537667212786</v>
+        <v>0.02900610242320395</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1425918531364859</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04456175046046296</v>
+        <v>0.06471715372128439</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1421658877734824</v>
+        <v>0.297021438910559</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01848690854440782</v>
+        <v>0.1004802837092198</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1464382966140022</v>
+        <v>0.2963548142938127</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01835579252193707</v>
+        <v>0.01551842764247896</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1472518427063022</v>
+        <v>0.2967244170230842</v>
       </c>
       <c r="J246" t="n">
-        <v>0.04164682396583491</v>
+        <v>0.02879452584803051</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1433840300983553</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04436506077691715</v>
+        <v>0.06399802173872041</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1429556982611128</v>
+        <v>0.2986715580156176</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01835579252193707</v>
+        <v>0.10015593157725</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1472518427063022</v>
+        <v>0.2980012299287783</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.0185264501938041</v>
+        <v>0.01528345550670839</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1480653887986023</v>
+        <v>0.2983637784431012</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04115032290668344</v>
+        <v>0.02848124132531052</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1441762070602247</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04337954984325426</v>
+        <v>0.06287508068036471</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1437455087487433</v>
+        <v>0.3003216771206763</v>
       </c>
       <c r="N247" t="n">
-        <v>0.0185264501938041</v>
+        <v>0.09762568743874772</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1480653887986023</v>
+        <v>0.2996476455637439</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01819887107191757</v>
+        <v>0.01404750489685491</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1488789348909023</v>
+        <v>0.3000031398631183</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0406559066928677</v>
+        <v>0.0280662240581328</v>
       </c>
       <c r="K248" t="n">
-        <v>0.144968384022094</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04300551360401556</v>
+        <v>0.06254827535855284</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1445353192363737</v>
+        <v>0.3019717962257349</v>
       </c>
       <c r="N248" t="n">
-        <v>0.01819887107191757</v>
+        <v>0.09628946616899492</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1488789348909023</v>
+        <v>0.3012940611987096</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01847304466818619</v>
+        <v>0.01381056195183526</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1496924809832023</v>
+        <v>0.3016425012831354</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0401636085225818</v>
+        <v>0.0274494492495862</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1457605609839634</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04204324800374248</v>
+        <v>0.06171755058562026</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1453251297240042</v>
+        <v>0.3036219153307936</v>
       </c>
       <c r="N249" t="n">
-        <v>0.01847304466818619</v>
+        <v>0.09464718264327376</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1496924809832023</v>
+        <v>0.3029404768336751</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01814896049451865</v>
+        <v>0.01557261281056621</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1505060270755023</v>
+        <v>0.3032818627031524</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04017346159402002</v>
+        <v>0.0272308921027596</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1465527379458328</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04189304898697627</v>
+        <v>0.06028285117390245</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1461149402116347</v>
+        <v>0.3052720344358523</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01814896049451865</v>
+        <v>0.09449875173686617</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1505060270755023</v>
+        <v>0.3045868924686408</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0181266080628236</v>
+        <v>0.01333364361196452</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1513195731678023</v>
+        <v>0.3049212241231694</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04028549910537652</v>
+        <v>0.02671052782074178</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1473449149077021</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04115521249825832</v>
+        <v>0.05954412193573483</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1469047506992651</v>
+        <v>0.306922153540911</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0181266080628236</v>
+        <v>0.09294408832505413</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1513195731678023</v>
+        <v>0.3062333081036064</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01810597688500971</v>
+        <v>0.01509364049494693</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1521331192601023</v>
+        <v>0.3065605855431864</v>
       </c>
       <c r="J252" t="n">
-        <v>0.03949975425484539</v>
+        <v>0.02618833160662162</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1481370918695715</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04043003448212995</v>
+        <v>0.058701307683453</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1476945611868956</v>
+        <v>0.3085722726459696</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01810597688500971</v>
+        <v>0.09128310728311984</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1521331192601023</v>
+        <v>0.307879723738572</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01808705647298571</v>
+        <v>0.0148525895984302</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1529466653524023</v>
+        <v>0.3081999469632035</v>
       </c>
       <c r="J253" t="n">
-        <v>0.03891626024062095</v>
+        <v>0.02596427866348795</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1489292688314409</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04021781088313242</v>
+        <v>0.05735435322939236</v>
       </c>
       <c r="M253" t="n">
-        <v>0.148484371674526</v>
+        <v>0.3102223917510283</v>
       </c>
       <c r="N253" t="n">
-        <v>0.01808705647298571</v>
+        <v>0.08891572348634513</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1529466653524023</v>
+        <v>0.3095261393735377</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01806983633866027</v>
+        <v>0.01261047706133109</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1537602114447023</v>
+        <v>0.3098393083832205</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0394350502608973</v>
+        <v>0.0255383441944296</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1497214457933102</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03931883764580724</v>
+        <v>0.05660320338588851</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1492741821621565</v>
+        <v>0.3118725108560869</v>
       </c>
       <c r="N254" t="n">
-        <v>0.01806983633866027</v>
+        <v>0.0882418518100121</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1537602114447023</v>
+        <v>0.3111725550085033</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01835430599394208</v>
+        <v>0.01336728902256636</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1545737575370023</v>
+        <v>0.3114786698032376</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03915615751386867</v>
+        <v>0.02491050340253544</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1505136227551796</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04013341071469562</v>
+        <v>0.05594780296527685</v>
       </c>
       <c r="M255" t="n">
-        <v>0.150063992649787</v>
+        <v>0.3135226299611455</v>
       </c>
       <c r="N255" t="n">
-        <v>0.01835430599394208</v>
+        <v>0.08706140712940269</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1545737575370023</v>
+        <v>0.3128189706434689</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.0180404549507398</v>
+        <v>0.01412301162105273</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1553873036293024</v>
+        <v>0.3131180312232546</v>
       </c>
       <c r="J256" t="n">
-        <v>0.03857961519772923</v>
+        <v>0.02468073149089429</v>
       </c>
       <c r="K256" t="n">
-        <v>0.151305799717049</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03886182603433885</v>
+        <v>0.05508809677989288</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1508538031374174</v>
+        <v>0.3151727490662042</v>
       </c>
       <c r="N256" t="n">
-        <v>0.0180404549507398</v>
+        <v>0.08467430431979911</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1553873036293024</v>
+        <v>0.3144653862784345</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01822827272096213</v>
+        <v>0.01287763099570701</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1562008497216024</v>
+        <v>0.3147573926432716</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03810545651067318</v>
+        <v>0.02424900366259501</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1520979766789183</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03870437954927852</v>
+        <v>0.05362402964207208</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1516436136250479</v>
+        <v>0.3168228681712629</v>
       </c>
       <c r="N257" t="n">
-        <v>0.01822827272096213</v>
+        <v>0.08408045825648319</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1562008497216024</v>
+        <v>0.3161118019134002</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01821774881651776</v>
+        <v>0.0116311332854459</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1570143958139024</v>
+        <v>0.3163967540632887</v>
       </c>
       <c r="J258" t="n">
-        <v>0.03833371465089466</v>
+        <v>0.0238152951207264</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1528901536407877</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03756136720405567</v>
+        <v>0.0526555463641499</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1524334241126783</v>
+        <v>0.3184729872763216</v>
       </c>
       <c r="N258" t="n">
-        <v>0.01821774881651776</v>
+        <v>0.08197978381473708</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1570143958139024</v>
+        <v>0.3177582175483658</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01820887274931537</v>
+        <v>0.01338350462918621</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1578279419062024</v>
+        <v>0.3180361154833057</v>
       </c>
       <c r="J259" t="n">
-        <v>0.03736442281658789</v>
+        <v>0.02307958106837736</v>
       </c>
       <c r="K259" t="n">
-        <v>0.153682330602657</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03833308494321175</v>
+        <v>0.05158259175846192</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1532232346003088</v>
+        <v>0.3201231063813803</v>
       </c>
       <c r="N259" t="n">
-        <v>0.01820887274931537</v>
+        <v>0.08057219586984271</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1578279419062024</v>
+        <v>0.3194046331833314</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01830163403126364</v>
+        <v>0.01313473116584464</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1586414879985024</v>
+        <v>0.3196754769033228</v>
       </c>
       <c r="J260" t="n">
-        <v>0.03739761420594709</v>
+        <v>0.0229418367086367</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1544745075645264</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03771982871128826</v>
+        <v>0.05120511063734359</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1540130450879392</v>
+        <v>0.3217732254864389</v>
       </c>
       <c r="N260" t="n">
-        <v>0.01830163403126364</v>
+        <v>0.07885760929708208</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1586414879985024</v>
+        <v>0.321051048818297</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01829602217427123</v>
+        <v>0.01288479903433798</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1594550340908024</v>
+        <v>0.3213148383233398</v>
       </c>
       <c r="J261" t="n">
-        <v>0.03743332201716643</v>
+        <v>0.02230203724459325</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1552666845263958</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03752189445282617</v>
+        <v>0.05002304781313041</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1548028555755697</v>
+        <v>0.3234233445914975</v>
       </c>
       <c r="N261" t="n">
-        <v>0.01829602217427123</v>
+        <v>0.07713593897173726</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1594550340908024</v>
+        <v>0.3226974644532627</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01799202669024688</v>
+        <v>0.01263369437358298</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1602685801831024</v>
+        <v>0.3229541997433568</v>
       </c>
       <c r="J262" t="n">
-        <v>0.03697157944844004</v>
+        <v>0.02206015787933586</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1560588614882652</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03583957811236715</v>
+        <v>0.04933634809815779</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1555926660632002</v>
+        <v>0.3250734636965562</v>
       </c>
       <c r="N262" t="n">
-        <v>0.01799202669024688</v>
+        <v>0.0766070997690903</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1602685801831024</v>
+        <v>0.3243438800882283</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01798963709109923</v>
+        <v>0.01138140332249638</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1610821262754024</v>
+        <v>0.3245935611633738</v>
       </c>
       <c r="J263" t="n">
-        <v>0.03671241969796216</v>
+        <v>0.02131617381595341</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1568510384501345</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03647317563445235</v>
+        <v>0.0475449563047613</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1563824765508306</v>
+        <v>0.3267235828016148</v>
       </c>
       <c r="N263" t="n">
-        <v>0.01798963709109923</v>
+        <v>0.07497100656442329</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1610821262754024</v>
+        <v>0.3259902957231939</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01828884288873696</v>
+        <v>0.01012791201999494</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1618956723677025</v>
+        <v>0.3262329225833909</v>
       </c>
       <c r="J264" t="n">
-        <v>0.03605587596392698</v>
+        <v>0.02097006025753469</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1576432154120039</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.0362229829636232</v>
+        <v>0.04664881724527639</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1571722870384611</v>
+        <v>0.3283737019066735</v>
       </c>
       <c r="N264" t="n">
-        <v>0.01828884288873696</v>
+        <v>0.0724275742330181</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1618956723677025</v>
+        <v>0.3276367113581595</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1303.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1303.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.002051723829311201</v>
+        <v>0.0009933370153725196</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.00163936142001704</v>
+        <v>0.0005185930713751559</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002801418078406399</v>
+        <v>0.00150340604147408</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0008869368218056001</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.009330406833457788</v>
+        <v>0.005007719521043424</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001650119105058661</v>
+        <v>0.0008580150892471456</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01625558644741187</v>
+        <v>0.007468968971866163</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001646415634965626</v>
+        <v>0.0008641780070930365</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006068932534675907</v>
+        <v>0.001968019933596327</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003790238022046812</v>
+        <v>0.001037186142750312</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005356014961302169</v>
+        <v>0.003084055932767685</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.0017738736436112</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01734704425829883</v>
+        <v>0.009445880536835066</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003300238210117322</v>
+        <v>0.001716030178494291</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03102601386219012</v>
+        <v>0.01462112888127914</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003292831269931252</v>
+        <v>0.001728356014186073</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00507076432446469</v>
+        <v>0.002905394657522715</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004918084260051119</v>
+        <v>0.001555779214125468</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004584484433715508</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004683984374999996</v>
+        <v>0.002660810465416801</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01422507241941479</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.00450383112980769</v>
+        <v>0.002574045267741437</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.02024924417227431</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004258167613636361</v>
+        <v>0.00259253402127911</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007278332301042981</v>
+        <v>0.003786807090002967</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006557445680068159</v>
+        <v>0.002074372285500624</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01009322248749406</v>
+        <v>0.005947226304152287</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.0035477472872224</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.0278370539805321</v>
+        <v>0.01795588454082267</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006600476420234644</v>
+        <v>0.003432060356988583</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04772534924903987</v>
+        <v>0.02724607928888767</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006585662539862504</v>
+        <v>0.003456712028372146</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006068932534675907</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.009272042092840535</v>
+        <v>0.004593603133888367</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008196807100085199</v>
+        <v>0.002592965356875779</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01232056893351108</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03195082422219822</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008250595525293303</v>
+        <v>0.004460937499999998</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0532469275182938</v>
+        <v>0.0331043986751548</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00823207817482813</v>
+        <v>0.004320890035465183</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01014199218304248</v>
+        <v>0.005307128692030219</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009836168520102238</v>
+        <v>0.003111558428250936</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01433278143440493</v>
+        <v>0.008183407706722788</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.005321620930833601</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03586427666536462</v>
+        <v>0.02414498573842613</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009900714630351965</v>
+        <v>0.005148090535482874</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.05717999024392856</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009878493809793755</v>
+        <v>0.005204427083333331</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01092407856241663</v>
+        <v>0.006068932534675907</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01137071406614044</v>
+        <v>0.003790238022046812</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01639274283444483</v>
+        <v>0.008973097450275982</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.006208557752639201</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03879519357970893</v>
+        <v>0.02635255199265382</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01155083373541063</v>
+        <v>0.00600610562473002</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.06140513887466348</v>
+        <v>0.03970778269755226</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01152490944475938</v>
+        <v>0.006049246049651256</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01082680144051333</v>
+        <v>0.006408833855755976</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01311489136013632</v>
+        <v>0.004148744571001247</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01806333597789997</v>
+        <v>0.009798528654929937</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.007095494574444801</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04264890762500126</v>
+        <v>0.02852492544302454</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01351149338942307</v>
+        <v>0.006864120713977165</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.06622912469196368</v>
+        <v>0.04341417354388244</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01277450284090908</v>
+        <v>0.006913424056744292</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01167410305404472</v>
+        <v>0.006884116263828073</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01475425278015336</v>
+        <v>0.004667337642376403</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01906869055803882</v>
+        <v>0.0106670010198193</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.0079824313962504</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0448225814474944</v>
+        <v>0.03030271030651358</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01485107194552795</v>
+        <v>0.007722135803224311</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0719865161172083</v>
+        <v>0.04549540177801753</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01481774071469063</v>
+        <v>0.007777602063837328</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0135118646936289</v>
+        <v>0.007339275266325516</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.0163936142001704</v>
+        <v>0.005185930713751559</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02117176774704978</v>
+        <v>0.01108581424407871</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.008869368218056001</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04824098302970603</v>
+        <v>0.03192651080009604</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01650119105058661</v>
+        <v>0.008580150892471456</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.07715901900856004</v>
+        <v>0.04861052569602686</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01646415634965626</v>
+        <v>0.008641780070930366</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01433185780858042</v>
+        <v>0.007773493725796964</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01803297562018744</v>
+        <v>0.005704523785126715</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02258231262586564</v>
+        <v>0.01206226802684283</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.009756305039861602</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05157534222486443</v>
+        <v>0.03413693114074723</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01815131015564527</v>
+        <v>0.009438165981718602</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.08094468825850282</v>
+        <v>0.05131860359398011</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01811057198462188</v>
+        <v>0.009505958078023402</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01312585384821384</v>
+        <v>0.008185954504791121</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01967233704020448</v>
+        <v>0.006223116856501871</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02405681862460383</v>
+        <v>0.01240366206724628</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.0106432418616672</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05438603511378554</v>
+        <v>0.0355745755454423</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01980142926070393</v>
+        <v>0.01029618107096575</v>
       </c>
       <c r="N77" t="n">
-        <v>0.08608009789713073</v>
+        <v>0.05337869376794679</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01975698761958751</v>
+        <v>0.01037013608511644</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01488562426184371</v>
+        <v>0.008575840465856653</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02131169846022152</v>
+        <v>0.006741709927877027</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02558264886430167</v>
+        <v>0.01301729606442371</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.0115301786834728</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05753343777728526</v>
+        <v>0.03658004823115643</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02145154836576259</v>
+        <v>0.01115419616021289</v>
       </c>
       <c r="N78" t="n">
-        <v>0.09160182195453775</v>
+        <v>0.05504985451399647</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02140340325455314</v>
+        <v>0.01123431409220947</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.0166029404987846</v>
+        <v>0.008942334471542253</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02295105988023856</v>
+        <v>0.007260302999252183</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02684716646599652</v>
+        <v>0.01381046971750982</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.0124171155052784</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06087792629617955</v>
+        <v>0.03859395341486493</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02310166747082125</v>
+        <v>0.01201221124946004</v>
       </c>
       <c r="N79" t="n">
-        <v>0.09544643446081791</v>
+        <v>0.05759114412819877</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02304981888951876</v>
+        <v>0.01209849209930251</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01626957400835106</v>
+        <v>0.009284619384396599</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0245904213002556</v>
+        <v>0.007778896070627339</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02843773455072564</v>
+        <v>0.01429048272563917</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.013304052327084</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06317987675128436</v>
+        <v>0.04015689531354294</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02475178657587991</v>
+        <v>0.01287022633870718</v>
       </c>
       <c r="N80" t="n">
-        <v>0.09995050944606509</v>
+        <v>0.05946162090662316</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02469623452448439</v>
+        <v>0.01296267010639555</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01587729623985766</v>
+        <v>0.009601878066968383</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02622978272027264</v>
+        <v>0.008297489142002495</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02934171623952642</v>
+        <v>0.01506463478794648</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.0141909891488896</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06619966522341558</v>
+        <v>0.04264890762500126</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02640190568093858</v>
+        <v>0.01409289713765956</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1050506209403733</v>
+        <v>0.06102034314533922</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02634265015945001</v>
+        <v>0.01382684811348858</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01741787864261893</v>
+        <v>0.009893293381806285</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02786914414028968</v>
+        <v>0.00881608221337765</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03044647465343617</v>
+        <v>0.01544022560356635</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.0150779259706952</v>
       </c>
       <c r="L82" t="n">
-        <v>0.0689976677933892</v>
+        <v>0.04338870466375433</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02805202478599724</v>
+        <v>0.01458625651720148</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1086833429738366</v>
+        <v>0.06312636914041642</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02798906579441564</v>
+        <v>0.01469102612058162</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01788309266594947</v>
+        <v>0.01015804819145898</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02950850556030672</v>
+        <v>0.009334675284752805</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03143937291349221</v>
+        <v>0.01612455487163347</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.0159648627925008</v>
       </c>
       <c r="L83" t="n">
-        <v>0.07143426054202107</v>
+        <v>0.04499513069176286</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0297021438910559</v>
+        <v>0.01544427160644862</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1118852495765489</v>
+        <v>0.06622912469196368</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02963548142938127</v>
+        <v>0.01531931778899183</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01826470975916379</v>
+        <v>0.01039532535847516</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03114786698032376</v>
+        <v>0.009853268356127962</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03230777414073187</v>
+        <v>0.01652492229128245</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.0168517996143064</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07286981955012728</v>
+        <v>0.04761148554275327</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03135226299611456</v>
+        <v>0.01630228669569577</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1144929147786043</v>
+        <v>0.0694858858704604</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03128189706434689</v>
+        <v>0.01641938213476769</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.0185570631559485</v>
+        <v>0.01060430774540352</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0327872284003408</v>
+        <v>0.01037186142750312</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03323904145619246</v>
+        <v>0.01734862756164794</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.017738736436112</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07476472089852357</v>
+        <v>0.0489207307676281</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03300238210117321</v>
+        <v>0.01716030178494291</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1172429126100966</v>
+        <v>0.07154513663253653</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03292831269931252</v>
+        <v>0.01728356014186073</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01781668548105762</v>
+        <v>0.01078417821479272</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03442658982035783</v>
+        <v>0.01089045449887827</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03372053798091133</v>
+        <v>0.0180029703818646</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.0186256732579176</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07598021234491353</v>
+        <v>0.05130582791728977</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03465250120623188</v>
+        <v>0.01801831687419006</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1178402581192512</v>
+        <v>0.07448710317303725</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03457472833427815</v>
+        <v>0.01814773814895377</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02006839665801331</v>
+        <v>0.01092407856241663</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03606595124037487</v>
+        <v>0.01137071406614044</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03418677103133887</v>
+        <v>0.01906869055803882</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.01984832191679197</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07720493195764916</v>
+        <v>0.05404973854264083</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03630262031129054</v>
+        <v>0.0188763319634372</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1198105974067095</v>
+        <v>0.07898269522608192</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03622114396924377</v>
+        <v>0.0190119161560468</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02031048026864381</v>
+        <v>0.01107025953009742</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03770531266039192</v>
+        <v>0.01192764064162859</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03473640616279765</v>
+        <v>0.01953827404653323</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.0203995469015288</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07819945526151056</v>
+        <v>0.05573542419458366</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0379527394163492</v>
+        <v>0.01973434705268435</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1209300584936191</v>
+        <v>0.08130282252578935</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03786755960420939</v>
+        <v>0.01987609416313984</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02054121989477738</v>
+        <v>0.01120472282091723</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03934467408040895</v>
+        <v>0.01244623371300374</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03497031824021685</v>
+        <v>0.02035301341906386</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.0212864837233344</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07915694836707146</v>
+        <v>0.05844584642402081</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03960285852140786</v>
+        <v>0.0205923621419315</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1227881003847186</v>
+        <v>0.0852183948062788</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03951397523917502</v>
+        <v>0.02074027217023288</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01875889911824227</v>
+        <v>0.01133758423164987</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04098403550042599</v>
+        <v>0.0129648267843789</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03558543666167002</v>
+        <v>0.02093256940302066</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.02217342054514</v>
       </c>
       <c r="L90" t="n">
-        <v>0.07977057738490559</v>
+        <v>0.06066396678185471</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04125297762646653</v>
+        <v>0.02145037723117864</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1235741820847467</v>
+        <v>0.08930032180166941</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04116039087414065</v>
+        <v>0.02160445017732591</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02096180152086675</v>
+        <v>0.01146883895442138</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04262339692044304</v>
+        <v>0.01348341985575405</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03587869082523076</v>
+        <v>0.02206760305878273</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.0230603573669456</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08083350842558659</v>
+        <v>0.06257274681898792</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04290309673152518</v>
+        <v>0.02230839232042579</v>
       </c>
       <c r="N91" t="n">
-        <v>0.125577762598442</v>
+        <v>0.09281951324608034</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04280680650910627</v>
+        <v>0.02246862818441895</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02014821068447908</v>
+        <v>0.01159848218135776</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04426275834046008</v>
+        <v>0.01400201292712921</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03614701012897265</v>
+        <v>0.02284877544672922</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.0239472941887512</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08173890759968824</v>
+        <v>0.06535514808632287</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04455321583658384</v>
+        <v>0.02316640740967293</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1261883009305431</v>
+        <v>0.0967468788736307</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0444532221440719</v>
+        <v>0.02333280619151198</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01931641019090753</v>
+        <v>0.01172650910458505</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04590211976047711</v>
+        <v>0.01452060599850437</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03648732397096922</v>
+        <v>0.02406674762723918</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.0248342310105568</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08177994101778427</v>
+        <v>0.06789413213476203</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04620333494164251</v>
+        <v>0.02402442249892008</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1277952560857886</v>
+        <v>0.1001533284184395</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04609963777903753</v>
+        <v>0.02419698419860502</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01946468362198033</v>
+        <v>0.01185291491622929</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04754148118049415</v>
+        <v>0.01503919906987952</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03689656174929404</v>
+        <v>0.02521218066069174</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.0257211678323624</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08314977479044836</v>
+        <v>0.06937266051520788</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04785345404670117</v>
+        <v>0.02488243758816723</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1294880870689172</v>
+        <v>0.103909771614626</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04774605341400315</v>
+        <v>0.02506116220569806</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02159131455952577</v>
+        <v>0.01197769480841649</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0491808426005112</v>
+        <v>0.01555779214125468</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03727165286202067</v>
+        <v>0.02607573560746596</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.026608104654168</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08304157502825427</v>
+        <v>0.07197369477856289</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04950357315175983</v>
+        <v>0.02574045267741437</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1291562528846675</v>
+        <v>0.1063871181963092</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04939246904896877</v>
+        <v>0.0259253402127911</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02169458658537209</v>
+        <v>0.01210084397327268</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05082020402052823</v>
+        <v>0.01607638521262983</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03760952670722272</v>
+        <v>0.02704807352794099</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.0274950414759736</v>
       </c>
       <c r="L96" t="n">
-        <v>0.08354850784177573</v>
+        <v>0.07358019647572958</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05115369225681848</v>
+        <v>0.02659846776666152</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1300892125377781</v>
+        <v>0.1102562778976083</v>
       </c>
       <c r="O96" t="n">
-        <v>0.0510388846839344</v>
+        <v>0.02678951821988413</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01977278328134755</v>
+        <v>0.01222235760292387</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05245956544054527</v>
+        <v>0.01659497828400499</v>
       </c>
       <c r="J97" t="n">
-        <v>0.03760711268297369</v>
+        <v>0.0284198554824959</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.0283819782977792</v>
       </c>
       <c r="L97" t="n">
-        <v>0.08456373934158645</v>
+        <v>0.07567512715761038</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05280381136187715</v>
+        <v>0.02745648285590866</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1308764250329876</v>
+        <v>0.1135881604526424</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05268530031890003</v>
+        <v>0.02765369622697717</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02184815712483326</v>
+        <v>0.01234223088949612</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05409892686056231</v>
+        <v>0.01711357135538015</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0377613401873472</v>
+        <v>0.02928174253150979</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.0292689151195848</v>
       </c>
       <c r="L98" t="n">
-        <v>0.08458043563826009</v>
+        <v>0.0774414483751078</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05445393046693581</v>
+        <v>0.02831449794515581</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1320073493750348</v>
+        <v>0.1164536755955307</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05433171595386566</v>
+        <v>0.0285178742340702</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02184708501099893</v>
+        <v>0.01246045902511543</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05573828828057936</v>
+        <v>0.0176321644267553</v>
       </c>
       <c r="J99" t="n">
-        <v>0.03806913861841679</v>
+        <v>0.0303243957353618</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.0301558519413904</v>
       </c>
       <c r="L99" t="n">
-        <v>0.08529781525000252</v>
+        <v>0.07866212167912434</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05610404957199448</v>
+        <v>0.02917251303440295</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1324582493839274</v>
+        <v>0.1197237330603922</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05597813158883128</v>
+        <v>0.02938205224116324</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02084415558018119</v>
+        <v>0.01257703720190784</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0573776497005964</v>
+        <v>0.01815075749813046</v>
       </c>
       <c r="J100" t="n">
-        <v>0.03813738111607763</v>
+        <v>0.03123847615443098</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.031042788763196</v>
       </c>
       <c r="L100" t="n">
-        <v>0.08519088706449127</v>
+        <v>0.08072010862056242</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05775416867705313</v>
+        <v>0.0300305281236501</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1311582103326382</v>
+        <v>0.121569242581346</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05762454722379691</v>
+        <v>0.03024623024825628</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02182631278576769</v>
+        <v>0.01269196061199938</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05901701112061343</v>
+        <v>0.01866935056950561</v>
       </c>
       <c r="J101" t="n">
-        <v>0.03803534645699096</v>
+        <v>0.03221464484909647</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.0319297255850016</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08458499429592725</v>
+        <v>0.08149837075032457</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05940428778211179</v>
+        <v>0.03088854321289725</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1315105635876173</v>
+        <v>0.1241611138925114</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05927096285876254</v>
+        <v>0.03111040825534931</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01979500244928738</v>
+        <v>0.01280522444751606</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06065637254063047</v>
+        <v>0.01918794364088077</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03801225571251098</v>
+        <v>0.03314356287973735</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.0328166624068072</v>
       </c>
       <c r="L102" t="n">
-        <v>0.08501851567541757</v>
+        <v>0.08287986961931326</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06105440688717046</v>
+        <v>0.03174655830214439</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1315766835073141</v>
+        <v>0.1269702567280075</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06091737849372816</v>
+        <v>0.03197458626244235</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02175112917261555</v>
+        <v>0.01291682390058391</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06229573396064751</v>
+        <v>0.01970653671225592</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03776473648473358</v>
+        <v>0.03401589130673273</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.0337035992286128</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08459854018824475</v>
+        <v>0.08374756677843093</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06270452599222912</v>
+        <v>0.03260457339139154</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1312621255002167</v>
+        <v>0.1279675808219532</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06256379412869378</v>
+        <v>0.03283876426953539</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02069559755762745</v>
+        <v>0.01302675416332896</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06393509538066455</v>
+        <v>0.02022512978363108</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03789440706942521</v>
+        <v>0.03512229119046169</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.0345905360504184</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08462866949121489</v>
+        <v>0.08478442377858014</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06435464509728778</v>
+        <v>0.03346258848063868</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1313724449748137</v>
+        <v>0.1295239959084677</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0642102097636594</v>
+        <v>0.03370294227662842</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02162931220619833</v>
+        <v>0.01313501042787725</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06557445680068159</v>
+        <v>0.02074372285500624</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03760288576235242</v>
+        <v>0.03585342359130335</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.035477472872224</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08461250524113401</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06600476420234642</v>
+        <v>0.03432060356988582</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1308131973395929</v>
+        <v>0.1303104117216703</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06585662539862504</v>
+        <v>0.03456712028372146</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01955317772020348</v>
+        <v>0.01324158788635478</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06721381822069863</v>
+        <v>0.02126231592638139</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03779179085928161</v>
+        <v>0.03639994956963681</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.0363644096940296</v>
       </c>
       <c r="L106" t="n">
-        <v>0.08445364909480824</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M106" t="n">
-        <v>0.0676548833074051</v>
+        <v>0.03517861865913297</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1307899380030427</v>
+        <v>0.1317977379956801</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06750304103359066</v>
+        <v>0.0354312982908145</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01946809870151815</v>
+        <v>0.01334648173088759</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06885317964071566</v>
+        <v>0.02178090899775655</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03736274065597933</v>
+        <v>0.03695253018584117</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.03725134651583521</v>
       </c>
       <c r="L107" t="n">
-        <v>0.08385570270904369</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06930500241246376</v>
+        <v>0.03603663374838012</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1301082223736511</v>
+        <v>0.1324582493839274</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06914945666855629</v>
+        <v>0.03629547629790753</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.0213749797520176</v>
+        <v>0.01344968715360171</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0704925410607327</v>
+        <v>0.0222995020691317</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03721735344821202</v>
+        <v>0.03750182650029553</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.03813828333764081</v>
       </c>
       <c r="L108" t="n">
-        <v>0.08332226774064644</v>
+        <v>0.08459781525000251</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07095512151752241</v>
+        <v>0.03689464883762726</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1295736058599065</v>
+        <v>0.1313582493839274</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07079587230352191</v>
+        <v>0.03715965430500057</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02127472547357709</v>
+        <v>0.01355119934662316</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07213190248074974</v>
+        <v>0.02281809514050686</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03735724753174616</v>
+        <v>0.03773849957337899</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.03902522015944641</v>
       </c>
       <c r="L109" t="n">
-        <v>0.08325694584642257</v>
+        <v>0.08519781525000253</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07260524062258109</v>
+        <v>0.03775266392687441</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1292916438702971</v>
+        <v>0.1316582493839273</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07244228793848753</v>
+        <v>0.03802383231209361</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02016824046807188</v>
+        <v>0.01365101350207798</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07377126390076678</v>
+        <v>0.02333668821188202</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03698404120234826</v>
+        <v>0.03775321046547067</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.039912156981252</v>
       </c>
       <c r="L110" t="n">
-        <v>0.08236333868317822</v>
+        <v>0.08519781525000253</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07425535972763975</v>
+        <v>0.03861067901612156</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1277678918133109</v>
+        <v>0.1322582493839274</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07408870357345317</v>
+        <v>0.03888801031918664</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01905642933737726</v>
+        <v>0.01374912481209217</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07541062532078384</v>
+        <v>0.02385528128325717</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03699935275578478</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.0407990938030576</v>
       </c>
       <c r="L111" t="n">
-        <v>0.08264504790771945</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07590547883269839</v>
+        <v>0.03946869410536871</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1281079050974362</v>
+        <v>0.1312582493839274</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07573511920841879</v>
+        <v>0.03975218832627968</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02094019668336847</v>
+        <v>0.01384552846879177</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07704998674080088</v>
+        <v>0.02437387435463233</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03660480048782221</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.0416860306248632</v>
       </c>
       <c r="L112" t="n">
-        <v>0.08210567517685236</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07755559793775707</v>
+        <v>0.04032670919461585</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1264172391311612</v>
+        <v>0.1320582493839274</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07738153484338442</v>
+        <v>0.04061636633337271</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01982044710792077</v>
+        <v>0.01394021966430282</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07868934816081791</v>
+        <v>0.02489246742600748</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03660200269422702</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.04257296744666881</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08094882214738305</v>
+        <v>0.08459781525000251</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07920571704281572</v>
+        <v>0.04118472428386299</v>
       </c>
       <c r="N113" t="n">
-        <v>0.125801449322974</v>
+        <v>0.1321582493839273</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07902795047835004</v>
+        <v>0.04148054434046575</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01969808521290944</v>
+        <v>0.01403319359075133</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08032870958083495</v>
+        <v>0.02541106049738264</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0363925776707657</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.0434599042684744</v>
       </c>
       <c r="L114" t="n">
-        <v>0.08107809047611755</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08085583614787438</v>
+        <v>0.04204273937311014</v>
       </c>
       <c r="N114" t="n">
-        <v>0.124966091081363</v>
+        <v>0.1316582493839273</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08067436611331567</v>
+        <v>0.04234472234755879</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02057401560020973</v>
+        <v>0.01412444544026333</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08196807100085199</v>
+        <v>0.02592965356875779</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03617814371320474</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.04434684109028</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08069708181986207</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08250595525293306</v>
+        <v>0.04290075446235728</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1252167198148162</v>
+        <v>0.1322582493839274</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08232078174828129</v>
+        <v>0.04320890035465182</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0184491428716969</v>
+        <v>0.01421397040496484</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08360743242086903</v>
+        <v>0.02644824664013295</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0359603191173106</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.0452337779120856</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08030939783542262</v>
+        <v>0.08519781525000253</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0841560743579917</v>
+        <v>0.04375876955160442</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1233588909318219</v>
+        <v>0.1311582493839273</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08396719738324693</v>
+        <v>0.04407307836174486</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02032437162924623</v>
+        <v>0.0143017636769819</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08524679384088607</v>
+        <v>0.02696683971150811</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03554072217884977</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.0461207147338912</v>
       </c>
       <c r="L117" t="n">
-        <v>0.07961864017960527</v>
+        <v>0.08449781525000252</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08580619346305036</v>
+        <v>0.04461678464085157</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1225981598408682</v>
+        <v>0.1315582493839274</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08561361301821255</v>
+        <v>0.04493725636883789</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01820060647473297</v>
+        <v>0.01438782044844052</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08688615526090311</v>
+        <v>0.02748543278288326</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03522097119358873</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04700765155569681</v>
       </c>
       <c r="L118" t="n">
-        <v>0.07922841050921622</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08745631256810904</v>
+        <v>0.04547479973009872</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1229400819504434</v>
+        <v>0.1311582493839273</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08726002865317817</v>
+        <v>0.04580143437593093</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01907544673815863</v>
+        <v>0.01447213591146674</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08852551668092015</v>
+        <v>0.02800402585425842</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03500268445729397</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.0478945883775024</v>
       </c>
       <c r="L119" t="n">
-        <v>0.07874231048106148</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08910643167316769</v>
+        <v>0.04633281481934587</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1212902126690355</v>
+        <v>0.1315582493839274</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0889064442881438</v>
+        <v>0.04666561238302397</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01893349721111476</v>
+        <v>0.01455470525818659</v>
       </c>
       <c r="G120" t="n">
-        <v>0.09016487810093718</v>
+        <v>0.02852261892563358</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03488496228443981</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.04878152519930801</v>
       </c>
       <c r="L120" t="n">
-        <v>0.07754828640215819</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09075655077822635</v>
+        <v>0.04719082990859301</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1213963673362456</v>
+        <v>0.1311582493839273</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09055285992310942</v>
+        <v>0.04752979039011701</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01977519241580659</v>
+        <v>0.01463552368072608</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09180423952095422</v>
+        <v>0.02904121199700873</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03484085967101053</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.04966846202111361</v>
       </c>
       <c r="L121" t="n">
-        <v>0.07738640071948832</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09240666988328501</v>
+        <v>0.04804884499784016</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1199918654287871</v>
+        <v>0.1313582493839274</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09219927555807506</v>
+        <v>0.04839396839721005</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01860347965327552</v>
+        <v>0.01471458637121125</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09344360094097126</v>
+        <v>0.02955980506838389</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03446681998151443</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.05055539884291921</v>
       </c>
       <c r="L122" t="n">
-        <v>0.07686053968352047</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09405678898834367</v>
+        <v>0.04890686008708731</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1188942843989458</v>
+        <v>0.1321582493839273</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09384569119304068</v>
+        <v>0.04925814640430308</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01942130622456294</v>
+        <v>0.01479188852176812</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0950829623609883</v>
+        <v>0.03007839813975904</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03406811581700209</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.0514423356647248</v>
       </c>
       <c r="L123" t="n">
-        <v>0.07608243792265354</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09570690809340233</v>
+        <v>0.04976487517633445</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1181217244316431</v>
+        <v>0.1313582493839274</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09549210682800631</v>
+        <v>0.05012232441139611</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01923161943071025</v>
+        <v>0.0148674253245227</v>
       </c>
       <c r="G124" t="n">
-        <v>0.09672232378100536</v>
+        <v>0.0305969912111342</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03395001977852399</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.0523292724865304</v>
       </c>
       <c r="L124" t="n">
-        <v>0.07546383006528684</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M124" t="n">
-        <v>0.097357027198461</v>
+        <v>0.05062289026558159</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1164922857118008</v>
+        <v>0.1316582493839273</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09713852246297193</v>
+        <v>0.05098650241848915</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01803736657275885</v>
+        <v>0.01494119197160106</v>
       </c>
       <c r="G125" t="n">
-        <v>0.0983616852010224</v>
+        <v>0.03111558428250935</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03361780446713075</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.05321620930833601</v>
       </c>
       <c r="L125" t="n">
-        <v>0.07461645073981929</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09900714630351966</v>
+        <v>0.05148090535482874</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1156240684243402</v>
+        <v>0.1322582493839274</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09878493809793755</v>
+        <v>0.05185068042558219</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01884149495175012</v>
+        <v>0.01501318365512918</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1000010466210394</v>
+        <v>0.03163417735388451</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03297674248387289</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.0541031461301416</v>
       </c>
       <c r="L126" t="n">
-        <v>0.07405203457465015</v>
+        <v>0.08519781525000253</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1006572654085783</v>
+        <v>0.05233892044407588</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1140351727541829</v>
+        <v>0.1314582493839274</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1004313537329032</v>
+        <v>0.05271485843267523</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01764695186872545</v>
+        <v>0.01508339556723311</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1016404080410565</v>
+        <v>0.03215277042525966</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03263210642980091</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.0549900829519472</v>
       </c>
       <c r="L127" t="n">
-        <v>0.07278231619817846</v>
+        <v>0.08499781525000252</v>
       </c>
       <c r="M127" t="n">
-        <v>0.102307384513637</v>
+        <v>0.05319693553332303</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1130436988862505</v>
+        <v>0.1322582493839274</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1020777693678688</v>
+        <v>0.05357903643976827</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01645668462472626</v>
+        <v>0.01515182290003888</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1032797694610735</v>
+        <v>0.03267136349663482</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03228916890596541</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.0558770197737528</v>
       </c>
       <c r="L128" t="n">
-        <v>0.07221903023880324</v>
+        <v>0.08499781525000252</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1039575036186956</v>
+        <v>0.05405495062257018</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1120677470054645</v>
+        <v>0.1319582493839274</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1037241850028344</v>
+        <v>0.05444321444686129</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01727364052079394</v>
+        <v>0.0152184608456725</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1049191308810905</v>
+        <v>0.03318995656800998</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03215320251341686</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.05676395659555841</v>
       </c>
       <c r="L129" t="n">
-        <v>0.07197391132492376</v>
+        <v>0.08509781525000251</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1056076227237543</v>
+        <v>0.05491296571181732</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1106254172967463</v>
+        <v>0.1316582493839273</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1053706006378001</v>
+        <v>0.05530739245395434</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01709687385491689</v>
+        <v>0.01528330459626002</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1065584923011076</v>
+        <v>0.03370854963938513</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03192947985320588</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.05765089341736401</v>
       </c>
       <c r="L130" t="n">
-        <v>0.07095869408493899</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M130" t="n">
-        <v>0.107257741828813</v>
+        <v>0.05577098080106446</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1099348099450176</v>
+        <v>0.1315582493839274</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1070170162727657</v>
+        <v>0.05617157046104738</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01790560041050088</v>
+        <v>0.01534634934392744</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1081978537211246</v>
+        <v>0.03422714271076029</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03161880453213625</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.05853783023916961</v>
       </c>
       <c r="L131" t="n">
-        <v>0.06996106022053525</v>
+        <v>0.08489781525000251</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1089078609338716</v>
+        <v>0.05662899589031162</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1086318871734997</v>
+        <v>0.1321582493839273</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1086634319077313</v>
+        <v>0.05703574846814041</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01669980641009218</v>
+        <v>0.0154075902808008</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1098372151411417</v>
+        <v>0.03474573578213545</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03098481918816848</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.05942476706097521</v>
       </c>
       <c r="L132" t="n">
-        <v>0.06920102619324753</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1105579800389303</v>
+        <v>0.05748701097955875</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1072261261966281</v>
+        <v>0.1319582493839274</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1103098475426969</v>
+        <v>0.05789992647523345</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0154837109159949</v>
+        <v>0.01546702259900611</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1114765765611587</v>
+        <v>0.0352643288535106</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0308244334912345</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.0603117038827808</v>
       </c>
       <c r="L133" t="n">
-        <v>0.0684857886674464</v>
+        <v>0.08499781525000252</v>
       </c>
       <c r="M133" t="n">
-        <v>0.112208099143989</v>
+        <v>0.05834502606880591</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1058427179327502</v>
+        <v>0.1320582493839274</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1119562631776626</v>
+        <v>0.05876410448232647</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01726153299051327</v>
+        <v>0.01552464149066943</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1131159379811758</v>
+        <v>0.03578292192488576</v>
       </c>
       <c r="J134" t="n">
-        <v>0.0302451951712828</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.06119864070458641</v>
       </c>
       <c r="L134" t="n">
-        <v>0.06763214576712287</v>
+        <v>0.08469781525000253</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1138582182490476</v>
+        <v>0.05920304115805305</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1041075728018839</v>
+        <v>0.1316582493839273</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1136026788126282</v>
+        <v>0.05962828248941952</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01503749169595141</v>
+        <v>0.01558044214791676</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1147552994011928</v>
+        <v>0.03630151499626091</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0300546519582618</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.062085577526392</v>
       </c>
       <c r="L135" t="n">
-        <v>0.06695689561626791</v>
+        <v>0.08459781525000251</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1155083373541063</v>
+        <v>0.0600610562473002</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1036466012240466</v>
+        <v>0.1313582493839274</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1152490944475938</v>
+        <v>0.06049246049651255</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01581580609461353</v>
+        <v>0.01563441976287413</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1163946608212098</v>
+        <v>0.03682010806763607</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02946035158212003</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.0629725143481976</v>
       </c>
       <c r="L136" t="n">
-        <v>0.06587683633887251</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1171584564591649</v>
+        <v>0.06091907133654734</v>
       </c>
       <c r="N136" t="n">
-        <v>0.101885713619256</v>
+        <v>0.1315582493839274</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1168955100825594</v>
+        <v>0.06135663850360559</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01560069524880379</v>
+        <v>0.01568656952766757</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1180340222412269</v>
+        <v>0.03733870113901122</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02926984177280591</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.0638594511700032</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0654087660589277</v>
+        <v>0.08469781525000253</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1188085755642236</v>
+        <v>0.06177708642579449</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1010508204075298</v>
+        <v>0.1319582493839274</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1185419257175251</v>
+        <v>0.06222081651069862</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01439637822082634</v>
+        <v>0.01573688663442311</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1196733836612439</v>
+        <v>0.03785729421038638</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02899067026026794</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.0647463879918088</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06406948290042444</v>
+        <v>0.08519781525000253</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1204586946692822</v>
+        <v>0.06263510151504163</v>
       </c>
       <c r="N138" t="n">
-        <v>0.09976783200888567</v>
+        <v>0.1323582493839274</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1201883413524907</v>
+        <v>0.06308499451779166</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0142070740729854</v>
+        <v>0.01578536627526677</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1213127450812609</v>
+        <v>0.03837588728176154</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02833038477445458</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.0656333248136144</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06317578498735371</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1221088137743409</v>
+        <v>0.06349311660428879</v>
       </c>
       <c r="N139" t="n">
-        <v>0.09846265884334116</v>
+        <v>0.1313582493839274</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1218347569874563</v>
+        <v>0.0639491725248847</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.0140370018675851</v>
+        <v>0.01583200364232459</v>
       </c>
       <c r="G140" t="n">
-        <v>0.122952106501278</v>
+        <v>0.0388944803531367</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02819653304531426</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06652026163542001</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06294447044370655</v>
+        <v>0.08449781525000252</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1237589328793996</v>
+        <v>0.06435113169353593</v>
       </c>
       <c r="N140" t="n">
-        <v>0.09766121133091393</v>
+        <v>0.1323582493839274</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1234811726224219</v>
+        <v>0.06481335053197773</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01389038066692962</v>
+        <v>0.01587679392772256</v>
       </c>
       <c r="G141" t="n">
-        <v>0.124591467921295</v>
+        <v>0.03941307342451185</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02789666280279547</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06740719845722561</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06209233739347392</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1254090519844582</v>
+        <v>0.06520914678278307</v>
       </c>
       <c r="N141" t="n">
-        <v>0.09648939989162159</v>
+        <v>0.1319582493839274</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1251275882573876</v>
+        <v>0.06567752853907077</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01577142953332316</v>
+        <v>0.01591973232358675</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1262308293413121</v>
+        <v>0.039931666495887</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02743832177684669</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.06829413527903121</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06153618396064686</v>
+        <v>0.08499781525000252</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1270591710895169</v>
+        <v>0.06606716187203021</v>
       </c>
       <c r="N142" t="n">
-        <v>0.09517313494548185</v>
+        <v>0.1315582493839274</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1267740038923532</v>
+        <v>0.0665417065461638</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01368436752906985</v>
+        <v>0.01596081402204316</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1278701907613291</v>
+        <v>0.04045025956726216</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02742905769741637</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.06918107210083681</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06109280826921631</v>
+        <v>0.08479781525000252</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1287092901945756</v>
+        <v>0.06692517696127735</v>
       </c>
       <c r="N143" t="n">
-        <v>0.09433832691251237</v>
+        <v>0.1315582493839274</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1284204195273188</v>
+        <v>0.06740588455325684</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01563341371647391</v>
+        <v>0.01600003421521783</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1295095521813462</v>
+        <v>0.04096885263863732</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02717641829445298</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.07006800892264241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06037900844317332</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1303594092996342</v>
+        <v>0.06778319205052451</v>
       </c>
       <c r="N144" t="n">
-        <v>0.09451088621273068</v>
+        <v>0.1320582493839274</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1300668351622845</v>
+        <v>0.06827006256034988</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01562162753344865</v>
+        <v>0.01603738809523676</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1311489136013632</v>
+        <v>0.04148744571001247</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02708795129790501</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.07095494574444801</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06031158260650879</v>
+        <v>0.08499781525000252</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1320095284046928</v>
+        <v>0.06864120713977165</v>
       </c>
       <c r="N145" t="n">
-        <v>0.09371672326615454</v>
+        <v>0.1312582493839274</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1317132507972501</v>
+        <v>0.06913424056744293</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01362627589593101</v>
+        <v>0.01607287085422602</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1327882750213802</v>
+        <v>0.04200603878138762</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02696865576197356</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.07184188256625361</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06029070126450298</v>
+        <v>0.08519781525000253</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1336596475097515</v>
+        <v>0.0694992222290188</v>
       </c>
       <c r="N146" t="n">
-        <v>0.09381807342984066</v>
+        <v>0.1321582493839273</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1333596664322157</v>
+        <v>0.06999841857453597</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01563687995651156</v>
+        <v>0.01610647768431161</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1344276364413973</v>
+        <v>0.04252463185276278</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0271772045643674</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.0727288193880592</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06081443342549947</v>
+        <v>0.08529781525000252</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1353097666148102</v>
+        <v>0.07035723731826594</v>
       </c>
       <c r="N147" t="n">
-        <v>0.09366453958341409</v>
+        <v>0.1317582493839274</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1350060820671813</v>
+        <v>0.07086259658162899</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01565312970002905</v>
+        <v>0.01613820377761955</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1360669978614143</v>
+        <v>0.04304322492413794</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02709629988966017</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.07361575620986481</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06036143872623498</v>
+        <v>0.08469781525000253</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1369598857198688</v>
+        <v>0.0712152524075131</v>
       </c>
       <c r="N148" t="n">
-        <v>0.09394648328543542</v>
+        <v>0.1320582493839274</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1366524977021469</v>
+        <v>0.07172677458872204</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01367471511132223</v>
+        <v>0.01616804432627587</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1377063592814313</v>
+        <v>0.0435618179955131</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02712538713340465</v>
+        <v>0.03783738111607764</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.07450269303167041</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06053048284667767</v>
+        <v>0.08499781525000252</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1386100048249275</v>
+        <v>0.07207326749676024</v>
       </c>
       <c r="N149" t="n">
-        <v>0.09426200064768037</v>
+        <v>0.1317582493839274</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1382989133371126</v>
+        <v>0.07259095259581506</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01470132617522989</v>
+        <v>0.01619599452240662</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1393457207014484</v>
+        <v>0.04408041106688825</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02716391169115365</v>
+        <v>0.03813738111607763</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.07538962985347601</v>
       </c>
       <c r="L150" t="n">
-        <v>0.06112033146679571</v>
+        <v>0.0850971444984783</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1402601239299862</v>
+        <v>0.07293128258600738</v>
       </c>
       <c r="N150" t="n">
-        <v>0.09440918778192425</v>
+        <v>0.1313582493839274</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1399453289720782</v>
+        <v>0.07345513060290811</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01373265287659076</v>
+        <v>0.01622204955813779</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1409850821214654</v>
+        <v>0.04459900413826341</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02731131895845994</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.07627656667528161</v>
       </c>
       <c r="L151" t="n">
-        <v>0.06062975026655729</v>
+        <v>0.08459159106850231</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1419102430350448</v>
+        <v>0.07378929767525452</v>
       </c>
       <c r="N151" t="n">
-        <v>0.09408614079994243</v>
+        <v>0.1324562443443262</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1415917446070438</v>
+        <v>0.07431930861000113</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.0147683852002436</v>
+        <v>0.01624620462559544</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1426244435414825</v>
+        <v>0.04511759720963857</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0272670543308763</v>
+        <v>0.03793738111607763</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.0771635034970872</v>
       </c>
       <c r="L152" t="n">
-        <v>0.06135750492593051</v>
+        <v>0.0847806025165421</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1435603621401035</v>
+        <v>0.07464731276450166</v>
       </c>
       <c r="N152" t="n">
-        <v>0.09519095581351045</v>
+        <v>0.1318459005031414</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1432381602420094</v>
+        <v>0.07518348661709418</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01480821313102718</v>
+        <v>0.01626845491690557</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1442638049614995</v>
+        <v>0.04563619028101372</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02753056320395553</v>
+        <v>0.03803738111607763</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07805044031889281</v>
       </c>
       <c r="L153" t="n">
-        <v>0.06100236112488358</v>
+        <v>0.08476439812074446</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1452104812451622</v>
+        <v>0.07550532785374882</v>
       </c>
       <c r="N153" t="n">
-        <v>0.09502172893440375</v>
+        <v>0.1319270623658049</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1448845758769751</v>
+        <v>0.07604766462418722</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01585182665378027</v>
+        <v>0.01628879562419422</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1459031663815165</v>
+        <v>0.04615478335238888</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02750129097325039</v>
+        <v>0.03793661285178712</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.0789373771406984</v>
       </c>
       <c r="L154" t="n">
-        <v>0.06136308454338466</v>
+        <v>0.08504319715925618</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1468606003502208</v>
+        <v>0.07636334294299596</v>
       </c>
       <c r="N154" t="n">
-        <v>0.09567655627439775</v>
+        <v>0.1321000778378272</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1465309915119407</v>
+        <v>0.07691184263128024</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01389891575334159</v>
+        <v>0.01630722193958741</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1475425278015336</v>
+        <v>0.04667337642376403</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02767868303431367</v>
+        <v>0.03783325941948062</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.079824313962504</v>
       </c>
       <c r="L155" t="n">
-        <v>0.06143844086140188</v>
+        <v>0.08511721891022411</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1485107194552795</v>
+        <v>0.07722135803224311</v>
       </c>
       <c r="N155" t="n">
-        <v>0.09575353394526792</v>
+        <v>0.1322652948247187</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1481774071469063</v>
+        <v>0.07777602063837329</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01594917041454994</v>
+        <v>0.01632372905521117</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1491818892215506</v>
+        <v>0.04719196949513919</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02776218478269818</v>
+        <v>0.03812734344870294</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.08071125078430962</v>
       </c>
       <c r="L156" t="n">
-        <v>0.06212719575890346</v>
+        <v>0.0847866826517949</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1501608385603382</v>
+        <v>0.07807937312149026</v>
       </c>
       <c r="N156" t="n">
-        <v>0.09655075805878965</v>
+        <v>0.1311230612319897</v>
       </c>
       <c r="O156" t="n">
-        <v>0.149823822781872</v>
+        <v>0.07864019864546631</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0150040512818635</v>
+        <v>0.01633831216319154</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1508212506415677</v>
+        <v>0.04771056256651435</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02765124161395667</v>
+        <v>0.03791897323275474</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.0815981876061152</v>
       </c>
       <c r="L157" t="n">
-        <v>0.06182811491585749</v>
+        <v>0.08435180766211547</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1518109576653968</v>
+        <v>0.07893738821073741</v>
       </c>
       <c r="N157" t="n">
-        <v>0.09626632472673841</v>
+        <v>0.1313737249651508</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1514702384168376</v>
+        <v>0.07950437665255936</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01509843947514287</v>
+        <v>0.01635096645565452</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1524606120615847</v>
+        <v>0.0482291556378895</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02775225023653195</v>
+        <v>0.0379082570649367</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.08248512442792082</v>
       </c>
       <c r="L158" t="n">
-        <v>0.0618726672180345</v>
+        <v>0.08451281321933257</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1534610767704555</v>
+        <v>0.07979540329998454</v>
       </c>
       <c r="N158" t="n">
-        <v>0.09730049627238285</v>
+        <v>0.1310176339297122</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1531166540518032</v>
+        <v>0.08036855465965238</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.015238920926709</v>
+        <v>0.01636168712472615</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1540999734816018</v>
+        <v>0.04874774870926465</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02783008519960584</v>
+        <v>0.03779530323854947</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.0833720612497264</v>
       </c>
       <c r="L159" t="n">
-        <v>0.06260321950269918</v>
+        <v>0.08486991860159296</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1551111958755141</v>
+        <v>0.08065341838923169</v>
       </c>
       <c r="N159" t="n">
-        <v>0.09803548942966334</v>
+        <v>0.1315551360311845</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1547630696867688</v>
+        <v>0.08123273266674542</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.0144161370270923</v>
+        <v>0.01637046936253245</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1557393349016188</v>
+        <v>0.04926634178063981</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02818743149573825</v>
+        <v>0.03808022004689374</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.084258998071532</v>
       </c>
       <c r="L160" t="n">
-        <v>0.06300458304215387</v>
+        <v>0.08432334308704342</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1567613149805728</v>
+        <v>0.08151143347847883</v>
       </c>
       <c r="N160" t="n">
-        <v>0.09902096997558479</v>
+        <v>0.1319865791750779</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1564094853217345</v>
+        <v>0.08209691067383847</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01462072916682317</v>
+        <v>0.01637730836119945</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1573786963216358</v>
+        <v>0.04978493485201497</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02840754695525334</v>
+        <v>0.03806311578327011</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.08514593489333762</v>
       </c>
       <c r="L161" t="n">
-        <v>0.06353949669377504</v>
+        <v>0.08437330595383083</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1584114340856314</v>
+        <v>0.08236944856772599</v>
       </c>
       <c r="N161" t="n">
-        <v>0.100199464119846</v>
+        <v>0.131912311266903</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1580559009567001</v>
+        <v>0.08296108868093151</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01684333873643204</v>
+        <v>0.01638219931285319</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1590180577416528</v>
+        <v>0.05030352792339012</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02887368940847518</v>
+        <v>0.0380440987409793</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.08603287171514321</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06457069931493914</v>
+        <v>0.08432002648010192</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1600615531906901</v>
+        <v>0.08322746365697313</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1009134980721455</v>
+        <v>0.1316326802121701</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1597023165916657</v>
+        <v>0.08382526668802455</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01607460712644929</v>
+        <v>0.01638513740961967</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1606574191616699</v>
+        <v>0.05082212099476528</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02936911668572786</v>
+        <v>0.03802327721332197</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.08691980853694881</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06556092976302252</v>
+        <v>0.08476372394400344</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1617116722957488</v>
+        <v>0.08408547874622027</v>
       </c>
       <c r="N163" t="n">
-        <v>0.102905598042182</v>
+        <v>0.1314480339163897</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1613487322266313</v>
+        <v>0.08468944469511758</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01730517572740535</v>
+        <v>0.01638611784362495</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1622967805816869</v>
+        <v>0.05134071406614044</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0297770866173355</v>
+        <v>0.03800075949359875</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08780674535875441</v>
       </c>
       <c r="L164" t="n">
-        <v>0.06637292689540172</v>
+        <v>0.08450461762368222</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1633617914008074</v>
+        <v>0.08494349383546743</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1042182902396543</v>
+        <v>0.1309587202850722</v>
       </c>
       <c r="O164" t="n">
-        <v>0.162995147861597</v>
+        <v>0.08555362270221062</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01652568592983061</v>
+        <v>0.01638611784362495</v>
       </c>
       <c r="G165" t="n">
-        <v>0.163936142001704</v>
+        <v>0.05134071406614044</v>
       </c>
       <c r="J165" t="n">
-        <v>0.0302808570336222</v>
+        <v>0.03787665387511031</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08869368218056001</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06756942956945308</v>
+        <v>0.08444292679728507</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1650119105058661</v>
+        <v>0.08580150892471457</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1045941008742609</v>
+        <v>0.131065087223728</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1646415634965626</v>
+        <v>0.08641780070930365</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.01572677912425549</v>
+        <v>0.01597816158949494</v>
       </c>
       <c r="G166" t="n">
-        <v>0.165575503421721</v>
+        <v>0.05134044553767642</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03056368576491203</v>
+        <v>0.03765106865115733</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.08958061900236561</v>
       </c>
       <c r="L166" t="n">
-        <v>0.06861317664255306</v>
+        <v>0.08387887074295874</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1666620296109247</v>
+        <v>0.08665952401396171</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1069755561557006</v>
+        <v>0.1309674826378674</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1662879791315282</v>
+        <v>0.08728197871639669</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01790023902391664</v>
+        <v>0.01557479001949397</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1672148648417381</v>
+        <v>0.0513401770092124</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03080883064152914</v>
+        <v>0.03792411211504046</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.09046755582417121</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06876690697207807</v>
+        <v>0.08381266873885007</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1683121487159834</v>
+        <v>0.08751753910320885</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1081051822936721</v>
+        <v>0.130266254433001</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1679343947664939</v>
+        <v>0.08814615672348972</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01806164572096446</v>
+        <v>0.0151765721889071</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1688542262617551</v>
+        <v>0.05133990848074838</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03100608392390777</v>
+        <v>0.03769589256006037</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.09135449264597681</v>
       </c>
       <c r="L168" t="n">
-        <v>0.06941973346036601</v>
+        <v>0.08434454006310579</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1699622678210421</v>
+        <v>0.088375554192456</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1082006594095189</v>
+        <v>0.1308617505146391</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1695808104014595</v>
+        <v>0.08901033473058276</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01721907532249195</v>
+        <v>0.01478407715298453</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1704935876817721</v>
+        <v>0.05133963995228436</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03138859608912656</v>
+        <v>0.03756651827951772</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.09224142946778241</v>
       </c>
       <c r="L169" t="n">
-        <v>0.07034804921884225</v>
+        <v>0.08447470399387272</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1716123869261007</v>
+        <v>0.08923356928170315</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1091689437168936</v>
+        <v>0.1310543187882922</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1712272260364251</v>
+        <v>0.08987451273767579</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01637282471175888</v>
+        <v>0.0143978739670108</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1721329491017892</v>
+        <v>0.05133937142382035</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03156416687065723</v>
+        <v>0.03773609756671314</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.09312836628958801</v>
       </c>
       <c r="L170" t="n">
-        <v>0.07106107572286488</v>
+        <v>0.08360337980929766</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1732625060311594</v>
+        <v>0.0900915843709503</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1101139815421964</v>
+        <v>0.1301443071594705</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1728736416713907</v>
+        <v>0.09073869074476883</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01752319077202499</v>
+        <v>0.01401853168623666</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1737723105218062</v>
+        <v>0.05133910289535633</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03213332738051219</v>
+        <v>0.03770473871494737</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.09401530311139361</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07135999500802584</v>
+        <v>0.08403078678752737</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1749126251362181</v>
+        <v>0.09094959946019744</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1118375961270395</v>
+        <v>0.1297320635336847</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1745200573063563</v>
+        <v>0.09160286875186187</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01767047038655007</v>
+        <v>0.01364661936594608</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1754116719418233</v>
+        <v>0.05133883436689231</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0320966087307039</v>
+        <v>0.03757255001752098</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.09490223993319921</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07184598910991719</v>
+        <v>0.08415714420670867</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1765627442412767</v>
+        <v>0.09180761454944458</v>
       </c>
       <c r="N172" t="n">
-        <v>0.112241610713035</v>
+        <v>0.1306179358164449</v>
       </c>
       <c r="O172" t="n">
-        <v>0.176166472941322</v>
+        <v>0.0924670467589549</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01781496043859387</v>
+        <v>0.01328270606139043</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1770510333618403</v>
+        <v>0.05133856583842829</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03245454203324474</v>
+        <v>0.03753963976773469</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.0957891767550048</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07282024006413088</v>
+        <v>0.08378267134498829</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1782128633463354</v>
+        <v>0.09266562963869174</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1124278485417948</v>
+        <v>0.1304022719132619</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1778128885762876</v>
+        <v>0.09333122476604794</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01895695781141617</v>
+        <v>0.01292736082785301</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1786903947818573</v>
+        <v>0.05133829730996428</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03280765840014718</v>
+        <v>0.03750611625888917</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.09667611357681041</v>
       </c>
       <c r="L174" t="n">
-        <v>0.0729839299062589</v>
+        <v>0.08350758748051312</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1798629824513941</v>
+        <v>0.09352364472793888</v>
       </c>
       <c r="N174" t="n">
-        <v>0.113798132854931</v>
+        <v>0.1296854197296458</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1794593042112532</v>
+        <v>0.09419540277314098</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01909675938827672</v>
+        <v>0.01258115272058588</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1803297562018744</v>
+        <v>0.05133802878150026</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03285648894342365</v>
+        <v>0.03747208778428504</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09756305039861601</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07373824067189327</v>
+        <v>0.08393211189142988</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1815131015564527</v>
+        <v>0.09438165981718602</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1149542868940556</v>
+        <v>0.129767727171107</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1811057198462188</v>
+        <v>0.09505958078023402</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.0172346620524353</v>
+        <v>0.01224465079487161</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1819691176218914</v>
+        <v>0.05133776025303625</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03320156477508653</v>
+        <v>0.03753766263722298</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.0984499872204216</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07458435439662603</v>
+        <v>0.08314953658351287</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1831632206615114</v>
+        <v>0.09523967490643316</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1151981339007805</v>
+        <v>0.1297489749390436</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1827521354811845</v>
+        <v>0.09592375878732705</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01837096268715166</v>
+        <v>0.01191842410596308</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1836084790419084</v>
+        <v>0.05133749172457223</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03334341700714827</v>
+        <v>0.03760294911100366</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.09933692404222721</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07492345311604906</v>
+        <v>0.08354777972097902</v>
       </c>
       <c r="M177" t="n">
-        <v>0.18481333976657</v>
+        <v>0.09609768999568032</v>
       </c>
       <c r="N177" t="n">
-        <v>0.116231497116718</v>
+        <v>0.1295086119306159</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1843985511161501</v>
+        <v>0.09678793679442009</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01750595980025438</v>
+        <v>0.01160304170914195</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1852478404619255</v>
+        <v>0.05133722319610821</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03358257675162131</v>
+        <v>0.03726805549892774</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.1002238608640328</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07585671886575451</v>
+        <v>0.08322876773668661</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1864634588716287</v>
+        <v>0.09695570508492746</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1167561997834801</v>
+        <v>0.1300388219932294</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1860449667511157</v>
+        <v>0.09765211480151313</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01764583310029651</v>
+        <v>0.01129907265966205</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1868872018819425</v>
+        <v>0.05133695466764419</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03412068705051476</v>
+        <v>0.0372289063145444</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.1011107976858384</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07569041630968212</v>
+        <v>0.08279478151537856</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1881135779766873</v>
+        <v>0.09781372017417461</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1185895233525968</v>
+        <v>0.128943223966163</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1876913823860814</v>
+        <v>0.09851629280860616</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.01979275533208288</v>
+        <v>0.0110070860128041</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1885265633019596</v>
+        <v>0.05133668613918017</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03427158772727623</v>
+        <v>0.03728060177337374</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.101997734507644</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07655488683378386</v>
+        <v>0.08284810194179779</v>
       </c>
       <c r="M180" t="n">
-        <v>0.189763697081746</v>
+        <v>0.09867173526342175</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1183720736449147</v>
+        <v>0.1291254366886961</v>
       </c>
       <c r="O180" t="n">
-        <v>0.189337798021047</v>
+        <v>0.0993804708156992</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01894162656483213</v>
+        <v>0.01072765082382289</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1901659247219766</v>
+        <v>0.05133641761071615</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03433219403031648</v>
+        <v>0.03742423712267745</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.1028846713294496</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07683818635334647</v>
+        <v>0.08329100990068716</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1914138161868047</v>
+        <v>0.09952975035266891</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1194778142710999</v>
+        <v>0.128389079000108</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1909842136560126</v>
+        <v>0.1002446488227922</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02008734686776291</v>
+        <v>0.01046133614799809</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1918052861419937</v>
+        <v>0.05133614908225214</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03469338239199929</v>
+        <v>0.03726093880638465</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.1037716081512552</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07802000958168898</v>
+        <v>0.08282578627678971</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1930639352918633</v>
+        <v>0.100387765441916</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1203754251559603</v>
+        <v>0.1291377697396777</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1926306292909782</v>
+        <v>0.1011088268298853</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01822481631009385</v>
+        <v>0.01020871104059096</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1934446475620107</v>
+        <v>0.05133588055378813</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03484602924468844</v>
+        <v>0.03709183326842445</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.1046585449730608</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07798005123213042</v>
+        <v>0.08215471195484822</v>
       </c>
       <c r="M183" t="n">
-        <v>0.194714054396922</v>
+        <v>0.1012457805311632</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1217335862243042</v>
+        <v>0.1287751277466845</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1942770449259439</v>
+        <v>0.1019730048369783</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01834893496104358</v>
+        <v>0.009970344556863971</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1950840089820277</v>
+        <v>0.05133561202532411</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03508101102074763</v>
+        <v>0.037218046952726</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.1055454817948664</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07839800601799002</v>
+        <v>0.08238006781960566</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1963641735019807</v>
+        <v>0.1021037956204103</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1225209774009394</v>
+        <v>0.1275047718604077</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1959234605609095</v>
+        <v>0.1028371828440713</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01945460288983077</v>
+        <v>0.009746805752094988</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1967233704020448</v>
+        <v>0.05133534349686009</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03558920415254072</v>
+        <v>0.0370407063032184</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.106432418616672</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07905356865258684</v>
+        <v>0.08250413475580495</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1980142926070393</v>
+        <v>0.1029618107096575</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1237062786106743</v>
+        <v>0.1278303209201264</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1975698761958751</v>
+        <v>0.1037013608511644</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01853672016567401</v>
+        <v>0.009538663681541805</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1983627318220618</v>
+        <v>0.05133507496839607</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03576148507243143</v>
+        <v>0.03696093776383078</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.1073193554384776</v>
       </c>
       <c r="L186" t="n">
-        <v>0.0798264338492399</v>
+        <v>0.08232919364818903</v>
       </c>
       <c r="M186" t="n">
-        <v>0.199664411712098</v>
+        <v>0.1038198257989046</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1239581697783169</v>
+        <v>0.1271553937651198</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1992162918308407</v>
+        <v>0.1045655388582574</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01959452835770897</v>
+        <v>0.009346487400480968</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2000020932420788</v>
+        <v>0.05133480643993206</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03578873021278355</v>
+        <v>0.03667986777849226</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.1082062922602832</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07999633519575466</v>
+        <v>0.08205752538150074</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2013145308171566</v>
+        <v>0.1046778408881518</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1242489863498605</v>
+        <v>0.1267836092346672</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2008627074658063</v>
+        <v>0.1054297168653505</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01864797251354656</v>
+        <v>0.009170845964171642</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2016414546620959</v>
+        <v>0.05133453791146804</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03588434929573356</v>
+        <v>0.03689862279113197</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.1090932290820888</v>
       </c>
       <c r="L188" t="n">
-        <v>0.08040866520004422</v>
+        <v>0.08199141084048306</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2029646499222153</v>
+        <v>0.1055358559773989</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1248767437025008</v>
+        <v>0.1264185861680477</v>
       </c>
       <c r="O188" t="n">
-        <v>0.202509123100772</v>
+        <v>0.1062938948724435</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.0187002323856617</v>
+        <v>0.009012308427888957</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2032808160821129</v>
+        <v>0.05133426938300403</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03607761922074075</v>
+        <v>0.03651832924567902</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.1099801659038944</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07991634776365455</v>
+        <v>0.08183313090987884</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2046147690272739</v>
+        <v>0.1063938710666461</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1247972967381695</v>
+        <v>0.1264639434045407</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2041555387357376</v>
+        <v>0.1071580728795365</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02075128920561903</v>
+        <v>0.008869264383007718</v>
       </c>
       <c r="G190" t="n">
-        <v>0.20492017750213</v>
+        <v>0.05133400085454001</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03586877500681604</v>
+        <v>0.03654011358606253</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.1108671027257</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08011930816038312</v>
+        <v>0.08138496647443103</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2062648881323326</v>
+        <v>0.1072518861558932</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1245105301947522</v>
+        <v>0.1261232997834253</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2058019543707033</v>
+        <v>0.1080222508866296</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02080112420498317</v>
+        <v>0.008729152034565452</v>
       </c>
       <c r="G191" t="n">
-        <v>0.206559538922147</v>
+        <v>0.05133373232607599</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03625778307799592</v>
+        <v>0.03646510225621165</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.1117540395475056</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08101747166402726</v>
+        <v>0.08164919841888255</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2079150072373913</v>
+        <v>0.1081099012451404</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1256163288101337</v>
+        <v>0.1268002741439807</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2074483700056688</v>
+        <v>0.1088864288937226</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02084971861531871</v>
+        <v>0.008590222802916804</v>
       </c>
       <c r="G192" t="n">
-        <v>0.208198900342164</v>
+        <v>0.05133346379761197</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03634460985831692</v>
+        <v>0.03649442170005546</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.1126409763693112</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08121076354838433</v>
+        <v>0.0812281076279763</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2095651263424499</v>
+        <v>0.1089679163343875</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1252145773221993</v>
+        <v>0.1260984853254861</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2090947856406345</v>
+        <v>0.1097506069008156</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01889705366819028</v>
+        <v>0.008452901564878872</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2098382617621811</v>
+        <v>0.05133319526914795</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03612922177181559</v>
+        <v>0.03642919836152311</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.1135279131911168</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0811991090872517</v>
+        <v>0.0812239749864552</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2112152454475086</v>
+        <v>0.1098259314236346</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1255051604688341</v>
+        <v>0.1260215521672207</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2107412012756001</v>
+        <v>0.1106147849079087</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0189431105951625</v>
+        <v>0.008317613197256747</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2114776231821981</v>
+        <v>0.05133292674068393</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03631158524252844</v>
+        <v>0.03637055868454374</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.1144148500129224</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0811824335544267</v>
+        <v>0.08063908137906214</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2128653645525673</v>
+        <v>0.1106839465128818</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1268879629879233</v>
+        <v>0.1262730935084639</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2123876169105658</v>
+        <v>0.1114789629150017</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.0209878706278</v>
+        <v>0.008184782576867368</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2131169846022152</v>
+        <v>0.05133265821221992</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03659166669449199</v>
+        <v>0.03641962911304643</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.115301786834728</v>
       </c>
       <c r="L195" t="n">
-        <v>0.08116066222370674</v>
+        <v>0.08096763902132711</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2145154836576259</v>
+        <v>0.1115419616021289</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1264628696173521</v>
+        <v>0.1262542728961025</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2140340325455314</v>
+        <v>0.1123431409220948</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02103131499766737</v>
+        <v>0.008054834580516</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2147563460222322</v>
+        <v>0.0513323896837559</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03636943255174278</v>
+        <v>0.03637753609096034</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.1161887236565336</v>
       </c>
       <c r="L196" t="n">
-        <v>0.0813337203688892</v>
+        <v>0.08059860517601339</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2161656027626846</v>
+        <v>0.1123999766913761</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1273297650950056</v>
+        <v>0.1260445415442549</v>
       </c>
       <c r="O196" t="n">
-        <v>0.215680448180497</v>
+        <v>0.1132073189291878</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02007342493632924</v>
+        <v>0.007928194085019359</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2163957074422493</v>
+        <v>0.05133212115529188</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03644484923831733</v>
+        <v>0.03634359737032052</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.1170756604783392</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08150153326377138</v>
+        <v>0.08083180285502933</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2178157218677432</v>
+        <v>0.1132579917806232</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1264885341587689</v>
+        <v>0.1255383817023353</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2173268638154626</v>
+        <v>0.1140714969362808</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02011418167535023</v>
+        <v>0.007805285967185639</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2180350688622663</v>
+        <v>0.05133185262682787</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03671788317825213</v>
+        <v>0.03601143703715576</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.1179625973001448</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08166402618215071</v>
+        <v>0.08046715896994946</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2194658409728019</v>
+        <v>0.1141160068698704</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1269390615465272</v>
+        <v>0.1259356774086468</v>
       </c>
       <c r="O198" t="n">
-        <v>0.2189732794504283</v>
+        <v>0.1149356749433739</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02015356644629496</v>
+        <v>0.007686535103823326</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2196744302822833</v>
+        <v>0.05133158409836385</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03658850079558378</v>
+        <v>0.03608035068039271</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1188495341219504</v>
       </c>
       <c r="L199" t="n">
-        <v>0.08182112439782449</v>
+        <v>0.08090460043234832</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2211159600778606</v>
+        <v>0.1149740219591175</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1272812319961658</v>
+        <v>0.1246363127014926</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2206196950853939</v>
+        <v>0.1157998529504669</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02119156048072804</v>
+        <v>0.007572366371748657</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2213137917023004</v>
+        <v>0.05133131556989984</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03665666851434872</v>
+        <v>0.03605030220438318</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.119736470943756</v>
       </c>
       <c r="L200" t="n">
-        <v>0.08267275318459014</v>
+        <v>0.08044405415380029</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2227660791829192</v>
+        <v>0.1158320370483647</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1275149302455695</v>
+        <v>0.1254401716191758</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2222661107203595</v>
+        <v>0.1166640309575599</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02122814501021408</v>
+        <v>0.007463204647767709</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2229531531223174</v>
+        <v>0.05133104704143582</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03702235275858352</v>
+        <v>0.03592125551347904</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1206234077655616</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08231883781624494</v>
+        <v>0.08038544704587997</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2244161982879779</v>
+        <v>0.1166900521376118</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1286400410326238</v>
+        <v>0.1243471381999998</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2239125263553251</v>
+        <v>0.1175282089646529</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02126330126631772</v>
+        <v>0.007359474808696295</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2245925145423345</v>
+        <v>0.0513307785129718</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03688551995232471</v>
+        <v>0.03609317451203203</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.1215103445873672</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08285930356658636</v>
+        <v>0.08002870602016174</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2260663173930365</v>
+        <v>0.117548067226859</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1280564490952136</v>
+        <v>0.1254570964822674</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2255589419902907</v>
+        <v>0.118392386971746</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01929701048060355</v>
+        <v>0.007261601731340953</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2262318759623515</v>
+        <v>0.05133050998450778</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03694613651960879</v>
+        <v>0.03586602310439407</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.1223972814091728</v>
       </c>
       <c r="L203" t="n">
-        <v>0.08229407570941172</v>
+        <v>0.08017375798822016</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2277164364980952</v>
+        <v>0.1184060823161061</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1282640391712243</v>
+        <v>0.1249699305042819</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2272053576252564</v>
+        <v>0.119256564978839</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02132925388463621</v>
+        <v>0.007170010292517008</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2278712373823686</v>
+        <v>0.05133024145604376</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03700416888447232</v>
+        <v>0.0360397651949169</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.1232842182309784</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08262307951851833</v>
+        <v>0.08062052986162963</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2293665556031539</v>
+        <v>0.1192640974053532</v>
       </c>
       <c r="N204" t="n">
-        <v>0.128062695998541</v>
+        <v>0.1247855243043465</v>
       </c>
       <c r="O204" t="n">
-        <v>0.228851773260222</v>
+        <v>0.1201207429859321</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0193600127099803</v>
+        <v>0.007085125369031525</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2295105988023856</v>
+        <v>0.05132997292757974</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0369595834709518</v>
+        <v>0.03581436468795239</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.124171155052784</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08264624026770359</v>
+        <v>0.08056894855196475</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2310166747082125</v>
+        <v>0.1201221124946004</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1287523043150486</v>
+        <v>0.1248037619207643</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2304981888951876</v>
+        <v>0.1209849209930251</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02038926818820045</v>
+        <v>0.007007371837699242</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2311499602224026</v>
+        <v>0.05132970439911573</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03721234670308374</v>
+        <v>0.03608978548785235</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1250580918745896</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08326348323076493</v>
+        <v>0.0802189409707999</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2326667938132712</v>
+        <v>0.1209801275838475</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1283327488586325</v>
+        <v>0.1241245273918384</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2321446045301532</v>
+        <v>0.1218490990001181</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02141700155086127</v>
+        <v>0.006937174575327859</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2327893216424196</v>
+        <v>0.05132943587065171</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03726242500490469</v>
+        <v>0.03606599149896864</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.1259450286963952</v>
       </c>
       <c r="L207" t="n">
-        <v>0.08357473368149965</v>
+        <v>0.07977043402970965</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2343169129183299</v>
+        <v>0.1218381426730947</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1297039143671779</v>
+        <v>0.124247704755872</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2337910201651189</v>
+        <v>0.1227132770072112</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02144319402952738</v>
+        <v>0.006874958458731456</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2344286830624367</v>
+        <v>0.0513291673421877</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03730978480045115</v>
+        <v>0.03604294662565302</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1268319655182008</v>
       </c>
       <c r="L208" t="n">
-        <v>0.08307991689370506</v>
+        <v>0.08002335464026844</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2359670320233885</v>
+        <v>0.1226961577623418</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1286656855785697</v>
+        <v>0.1247731780511683</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2354374358000845</v>
+        <v>0.1235774550143042</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02146782685576339</v>
+        <v>0.006821148364718407</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2360680444824537</v>
+        <v>0.05132889881372368</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03745439251375969</v>
+        <v>0.03592061477225736</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1277189023400064</v>
       </c>
       <c r="L209" t="n">
-        <v>0.08297895814117864</v>
+        <v>0.07987762971405077</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2376171511284472</v>
+        <v>0.123554172851589</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1298179472306933</v>
+        <v>0.1243008313160305</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2370838514350501</v>
+        <v>0.1244416330213972</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02149088126113393</v>
+        <v>0.006776169170102098</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2377074059024707</v>
+        <v>0.05132863028525966</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03749621456886679</v>
+        <v>0.03579895984313347</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.128605839161812</v>
       </c>
       <c r="L210" t="n">
-        <v>0.08307178269771767</v>
+        <v>0.07993318616263109</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2392672702335058</v>
+        <v>0.1244121879408361</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1292605840614338</v>
+        <v>0.1246305485887614</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2387302670700157</v>
+        <v>0.1253058110284903</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01951233847720361</v>
+        <v>0.006740445751691637</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2393467673224878</v>
+        <v>0.05132836175679564</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03743521738980897</v>
+        <v>0.03597794574263316</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.1294927759836176</v>
       </c>
       <c r="L211" t="n">
-        <v>0.08315831583711952</v>
+        <v>0.08008995089758394</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2409173893385645</v>
+        <v>0.1252702030300833</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1301934808086763</v>
+        <v>0.1248622139076646</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2403766827049814</v>
+        <v>0.1261699890355833</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02153217973553705</v>
+        <v>0.006714402986299627</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2409861287425048</v>
+        <v>0.05132809322833163</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0373713674006228</v>
+        <v>0.03595753637510829</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1303797128054232</v>
       </c>
       <c r="L212" t="n">
-        <v>0.08353848283318158</v>
+        <v>0.08034785083048376</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2425675084436232</v>
+        <v>0.1261282181193304</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1300165222103059</v>
+        <v>0.123895711311043</v>
       </c>
       <c r="O212" t="n">
-        <v>0.242023098339947</v>
+        <v>0.1270341670426764</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02055038626769886</v>
+        <v>0.006698465750735988</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2426254901625219</v>
+        <v>0.05132782469986761</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03740463102534478</v>
+        <v>0.03593769564491067</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1312666496272288</v>
       </c>
       <c r="L213" t="n">
-        <v>0.08381220895970123</v>
+        <v>0.0802068128729051</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2442176275486818</v>
+        <v>0.1269862332085776</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1294295930042079</v>
+        <v>0.1245309248371999</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2436695139749126</v>
+        <v>0.1278983450497694</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02056693930525367</v>
+        <v>0.006693058921812475</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2442648515825389</v>
+        <v>0.05132755617140359</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03733497468801145</v>
+        <v>0.0357183874563921</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.1321535864490344</v>
       </c>
       <c r="L214" t="n">
-        <v>0.08357941949047579</v>
+        <v>0.08006676393642234</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2458677466537404</v>
+        <v>0.1278442482978247</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1296325779282672</v>
+        <v>0.1233677385244381</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2453159296098782</v>
+        <v>0.1287625230568624</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01958182007976608</v>
+        <v>0.006693058921812482</v>
       </c>
       <c r="G215" t="n">
-        <v>0.245904213002556</v>
+        <v>0.05132755617140359</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03766236481265928</v>
+        <v>0.03569957571390442</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.13304052327084</v>
       </c>
       <c r="L215" t="n">
-        <v>0.08404003969930263</v>
+        <v>0.07962763093261008</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2475178657587991</v>
+        <v>0.1287022633870719</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1300253617203693</v>
+        <v>0.1238060364110611</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2469623452448439</v>
+        <v>0.1296267010639555</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01959500982280071</v>
+        <v>0.006472006793047463</v>
       </c>
       <c r="G216" t="n">
-        <v>0.247543574422573</v>
+        <v>0.05130331050803266</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03738676782332485</v>
+        <v>0.03578122432179945</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.1339274600926456</v>
       </c>
       <c r="L216" t="n">
-        <v>0.08379399485997915</v>
+        <v>0.07938934077304272</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2491679848638578</v>
+        <v>0.129560278476319</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1306078291183991</v>
+        <v>0.123845702535372</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2486087608798095</v>
+        <v>0.1304908790710485</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.0206064897659222</v>
+        <v>0.006256193918567757</v>
       </c>
       <c r="G217" t="n">
-        <v>0.24918293584259</v>
+        <v>0.05127906484466174</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03760815014404469</v>
+        <v>0.03566329718442904</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.1348143969144512</v>
       </c>
       <c r="L217" t="n">
-        <v>0.08424121024630268</v>
+        <v>0.07935182036929478</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2508181039689165</v>
+        <v>0.1304182935655661</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1305798648602418</v>
+        <v>0.1232866209356739</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2502551765147751</v>
+        <v>0.1313550570781415</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02161624114069514</v>
+        <v>0.006045965676694673</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2508222972626071</v>
+        <v>0.05125481918129081</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03742647819885526</v>
+        <v>0.03564575820614498</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1357013337362568</v>
       </c>
       <c r="L218" t="n">
-        <v>0.08428161113207058</v>
+        <v>0.08001499663294076</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2524682230739752</v>
+        <v>0.1312763086548133</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1307413536837827</v>
+        <v>0.1237286756502699</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2519015921497408</v>
+        <v>0.1322192350852346</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02062424517868416</v>
+        <v>0.005841667445749522</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2524616586826241</v>
+        <v>0.05123057351791988</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03744171841179317</v>
+        <v>0.03552857129129912</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1365882705580624</v>
       </c>
       <c r="L219" t="n">
-        <v>0.08371512279108023</v>
+        <v>0.07997879647555511</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2541183421790338</v>
+        <v>0.1321343237440604</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1302921803269069</v>
+        <v>0.1240717507174632</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2535480077847064</v>
+        <v>0.1330834130923276</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02063048311145388</v>
+        <v>0.005643644604053567</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2541010201026412</v>
+        <v>0.05120632785454895</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03755383720689487</v>
+        <v>0.03581170034424327</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.137475207379868</v>
       </c>
       <c r="L220" t="n">
-        <v>0.08374167049712899</v>
+        <v>0.07964314680871235</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2557684612840924</v>
+        <v>0.1329923388333076</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1306322295274994</v>
+        <v>0.123215730175557</v>
       </c>
       <c r="O220" t="n">
-        <v>0.255194423419672</v>
+        <v>0.1339475910994206</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02063493617056891</v>
+        <v>0.005452242529928195</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2557403815226582</v>
+        <v>0.05118208219117802</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03746280100819693</v>
+        <v>0.03579510926932926</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.1383621442016736</v>
       </c>
       <c r="L221" t="n">
-        <v>0.08396117952401422</v>
+        <v>0.07980797454398694</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2574185803891511</v>
+        <v>0.1338503539225547</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1301613860234455</v>
+        <v>0.1236604980628545</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2568408390546376</v>
+        <v>0.1348117691065137</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02063758558759386</v>
+        <v>0.005267806601694673</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2573797429426752</v>
+        <v>0.05115783652780709</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03766857623973587</v>
+        <v>0.0355787619709089</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.1392490810234792</v>
       </c>
       <c r="L222" t="n">
-        <v>0.08437357514553329</v>
+        <v>0.07947320659295334</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2590686994942097</v>
+        <v>0.1347083690118019</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1302795345526303</v>
+        <v>0.1236059384176585</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2584872546896033</v>
+        <v>0.1356759471136067</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02163834461852074</v>
+        <v>0.005090682197674321</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2590191043626923</v>
+        <v>0.05113359086443617</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03767112932554818</v>
+        <v>0.03556262235333402</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.1401360178452848</v>
       </c>
       <c r="L223" t="n">
-        <v>0.08397878263548356</v>
+        <v>0.07963876986718613</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2607188185992684</v>
+        <v>0.135566384101049</v>
       </c>
       <c r="N223" t="n">
-        <v>0.130686559852939</v>
+        <v>0.1239519352782726</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2601336703245689</v>
+        <v>0.1365401251206998</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02160749169038489</v>
+        <v>0.004921214696188426</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2606584657827093</v>
+        <v>0.05110934520106524</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03754552192094768</v>
+        <v>0.03574665432095646</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1410229546670904</v>
       </c>
       <c r="L224" t="n">
-        <v>0.08391046298799854</v>
+        <v>0.07910459127825972</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2623689377043271</v>
+        <v>0.1364243991902962</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1297548591880058</v>
+        <v>0.1233983726829996</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2617800859595345</v>
+        <v>0.1374043031277928</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01952454280731732</v>
+        <v>0.004759749475558309</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2622978272027264</v>
+        <v>0.05108509953769431</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03742818205941253</v>
+        <v>0.03543082177812804</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.141909891488896</v>
       </c>
       <c r="L225" t="n">
-        <v>0.08373536575969412</v>
+        <v>0.0793705977377486</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2640190568093857</v>
+        <v>0.1372824142795433</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1297012173415852</v>
+        <v>0.1240451346701429</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2634265015945002</v>
+        <v>0.1382684811348859</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02039534890484865</v>
+        <v>0.004606631914105278</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2639371886227434</v>
+        <v>0.05106085387432339</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03732545845695372</v>
+        <v>0.03551508862920055</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1427968283107016</v>
       </c>
       <c r="L226" t="n">
-        <v>0.08327142219403455</v>
+        <v>0.07943671615722728</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2656691759144444</v>
+        <v>0.1381404293687905</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1286587847370942</v>
+        <v>0.1237921052780055</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2650729172294658</v>
+        <v>0.1391326591419789</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02022576091850952</v>
+        <v>0.00446220739015063</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2655765500427605</v>
+        <v>0.05103660821095246</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03704781819799596</v>
+        <v>0.03559941877852586</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.1436837651325072</v>
       </c>
       <c r="L227" t="n">
-        <v>0.08304192769019164</v>
+        <v>0.07960287344827019</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2673192950195031</v>
+        <v>0.1389984444580376</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1283634935760896</v>
+        <v>0.1237391685448906</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2667193328644314</v>
+        <v>0.1399968371490719</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01902162978383053</v>
+        <v>0.004326821282015683</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2672159114627775</v>
+        <v>0.05101236254758153</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03680572836696404</v>
+        <v>0.03538377613045579</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.1445707019543128</v>
       </c>
       <c r="L228" t="n">
-        <v>0.08167017764733733</v>
+        <v>0.07906899652245189</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2689694141245617</v>
+        <v>0.1398564595472847</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1268512760601284</v>
+        <v>0.1228862085091014</v>
       </c>
       <c r="O228" t="n">
-        <v>0.268365748499397</v>
+        <v>0.1408610151561649</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0197888064363423</v>
+        <v>0.004200818968021734</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2688552728827945</v>
+        <v>0.05098811688421061</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03620965604828266</v>
+        <v>0.03556812458934212</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.1454576387761184</v>
       </c>
       <c r="L229" t="n">
-        <v>0.0807794674646434</v>
+        <v>0.07893501229134683</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2706195332296204</v>
+        <v>0.1407144746365319</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1257580643907675</v>
+        <v>0.1235331092089409</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2700121641343626</v>
+        <v>0.141725193163258</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01953314181157546</v>
+        <v>0.004084545826490073</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2704946343028116</v>
+        <v>0.05096387122083967</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03567006832637661</v>
+        <v>0.03545242805953673</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.146344575597924</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0798930925412818</v>
+        <v>0.07960084766652953</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2722696523346791</v>
+        <v>0.141572489725779</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1243197907695636</v>
+        <v>0.1236797546827125</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2716585797693283</v>
+        <v>0.142589371170351</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01926048684506065</v>
+        <v>0.003978347235742051</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2721339957228286</v>
+        <v>0.05093962555746875</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03519743228567057</v>
+        <v>0.03543665044539139</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1472315124197296</v>
       </c>
       <c r="L231" t="n">
-        <v>0.07923434827642439</v>
+        <v>0.07896642955957442</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2739197714397377</v>
+        <v>0.1424305048150262</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1220723873980738</v>
+        <v>0.1231260289687191</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2733049954042939</v>
+        <v>0.1434535491774441</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01897669247232848</v>
+        <v>0.003882568574098959</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2737733571428456</v>
+        <v>0.05091537989409782</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03470221501058934</v>
+        <v>0.03532075565125797</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1481184492415352</v>
       </c>
       <c r="L232" t="n">
-        <v>0.07772653006924304</v>
+        <v>0.079031684882056</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2755698905447964</v>
+        <v>0.1432885199042733</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1212517864778548</v>
+        <v>0.122571816105264</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2749514110392595</v>
+        <v>0.1443177271845371</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01968760962890955</v>
+        <v>0.003797555219882107</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2754127185628626</v>
+        <v>0.05089113423072689</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03439488358555762</v>
+        <v>0.0354047075814883</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.1490053860633408</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0762929333189096</v>
+        <v>0.07879658394270297</v>
       </c>
       <c r="M233" t="n">
-        <v>0.277220009649855</v>
+        <v>0.1441465349935205</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1186939202104635</v>
+        <v>0.1231170078721692</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2765978266742252</v>
+        <v>0.1451819051916301</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0183990892503345</v>
+        <v>0.003723652551412791</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2770520799828797</v>
+        <v>0.05086688856735597</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0336859050950002</v>
+        <v>0.0355884882666502</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1498923228851464</v>
       </c>
       <c r="L234" t="n">
-        <v>0.07535685342459594</v>
+        <v>0.07926162869925754</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2788701287549137</v>
+        <v>0.1450045500827676</v>
       </c>
       <c r="N234" t="n">
-        <v>0.117334720797457</v>
+        <v>0.1231622302109898</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2782442423091908</v>
+        <v>0.1460460831987232</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01911698227213397</v>
+        <v>0.00366120594701233</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2786914414028968</v>
+        <v>0.05084264290398504</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03318574662334178</v>
+        <v>0.03547233348286979</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.150779259706952</v>
       </c>
       <c r="L235" t="n">
-        <v>0.074641585785474</v>
+        <v>0.07932698690266968</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2805202478599724</v>
+        <v>0.1458625651720148</v>
       </c>
       <c r="N235" t="n">
-        <v>0.115610120440392</v>
+        <v>0.1223079441632779</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2798906579441564</v>
+        <v>0.1469102612058162</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01684713962983855</v>
+        <v>0.00361056078500202</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2803308028229138</v>
+        <v>0.05081839724061411</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03280487525500712</v>
+        <v>0.03545632851911812</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1516661965287576</v>
       </c>
       <c r="L236" t="n">
-        <v>0.07367042580071559</v>
+        <v>0.07899266489562767</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2821703669650311</v>
+        <v>0.1467205802612619</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1135560513408254</v>
+        <v>0.1229541597923079</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2815370735791221</v>
+        <v>0.1477744392129093</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01759541225897889</v>
+        <v>0.003572062443703165</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2819701642429308</v>
+        <v>0.05079415157724319</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03245375807442098</v>
+        <v>0.03534047650781232</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1525531333505632</v>
       </c>
       <c r="L237" t="n">
-        <v>0.07276666886949265</v>
+        <v>0.07865866902081964</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2838204860700896</v>
+        <v>0.147578595350509</v>
       </c>
       <c r="N237" t="n">
-        <v>0.111708445700314</v>
+        <v>0.1229008871613543</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2831834892140876</v>
+        <v>0.1486386172200023</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01736464299164805</v>
+        <v>0.003546056301437089</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2836095256629479</v>
+        <v>0.05076990591387226</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03194139885865155</v>
+        <v>0.03542478058136965</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.1534400701723688</v>
       </c>
       <c r="L238" t="n">
-        <v>0.07104905924088398</v>
+        <v>0.07882500562093381</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2854706051751483</v>
+        <v>0.1484366104397562</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1113929229264096</v>
+        <v>0.1227481363336915</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2848299048490532</v>
+        <v>0.1495027952270953</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01613699964954397</v>
+        <v>0.003532887736525096</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2852488870829649</v>
+        <v>0.05074566025050133</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03164108360279162</v>
+        <v>0.03540924387220731</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.1543270069941744</v>
       </c>
       <c r="L239" t="n">
-        <v>0.07075504553425546</v>
+        <v>0.07879168103865836</v>
       </c>
       <c r="M239" t="n">
-        <v>0.287120724280207</v>
+        <v>0.1492946255290033</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1098074313480636</v>
+        <v>0.123295917372594</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2864763204840189</v>
+        <v>0.1503669732341884</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01790848872202293</v>
+        <v>0.003531491832476467</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2868882485029819</v>
+        <v>0.0507214145871304</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03103923397776324</v>
+        <v>0.03539386951274248</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.15521394381598</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06935760906548685</v>
+        <v>0.07935870161668152</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2887708433852657</v>
+        <v>0.1501526406182505</v>
       </c>
       <c r="N240" t="n">
-        <v>0.108116643636211</v>
+        <v>0.1226442403413362</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2881227361189845</v>
+        <v>0.1512311512412814</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01667909634800169</v>
+        <v>0.003533752198740511</v>
       </c>
       <c r="G241" t="n">
-        <v>0.288527609922999</v>
+        <v>0.05069716892375947</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03063582518665524</v>
+        <v>0.03537866063539241</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.1561008806377856</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06845669464691365</v>
+        <v>0.07932607369769148</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2904209624903243</v>
+        <v>0.1510106557074976</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1062204746661339</v>
+        <v>0.1225931153031926</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2897691517539501</v>
+        <v>0.1520953292483744</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01544880866639702</v>
+        <v>0.003538603918826509</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2901669713430161</v>
+        <v>0.05067292326038855</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03053083243255646</v>
+        <v>0.03516362037257427</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.1569878174595912</v>
       </c>
       <c r="L242" t="n">
-        <v>0.0679522470908713</v>
+        <v>0.07869380362437642</v>
       </c>
       <c r="M242" t="n">
-        <v>0.292071081595383</v>
+        <v>0.1518686707967448</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1059188393131142</v>
+        <v>0.1227425523214377</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2914155673889158</v>
+        <v>0.1529595072554674</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01721761181612564</v>
+        <v>0.003546392371055765</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2918063327630331</v>
+        <v>0.05064867759701761</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02982423091855577</v>
+        <v>0.03524875185670528</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.1578747542813968</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06694421120969535</v>
+        <v>0.07846189773942452</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2937212007004416</v>
+        <v>0.1527266858859919</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1039116524524339</v>
+        <v>0.1220925614593459</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2930619830238814</v>
+        <v>0.1538236852625605</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01598549193610434</v>
+        <v>0.003557462933749603</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2934456941830501</v>
+        <v>0.05062443193364669</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02951599584774198</v>
+        <v>0.03513405822020264</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1587616911032024</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06563253181572121</v>
+        <v>0.07893036238552401</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2953713198055003</v>
+        <v>0.1535847009752391</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1029988289593751</v>
+        <v>0.1228431527801918</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2947083986588471</v>
+        <v>0.1546878632696535</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01675243516524987</v>
+        <v>0.003572160985229313</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2950850556030671</v>
+        <v>0.05060018627027576</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02900610242320395</v>
+        <v>0.03521954259548356</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.159648627925008</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06471715372128439</v>
+        <v>0.0785992039053631</v>
       </c>
       <c r="M245" t="n">
-        <v>0.297021438910559</v>
+        <v>0.1544427160644862</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1004802837092198</v>
+        <v>0.1224943363472495</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2963548142938127</v>
+        <v>0.1555520412767466</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01551842764247896</v>
+        <v>0.003590831903816212</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2967244170230842</v>
+        <v>0.05057594060690483</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02879452584803051</v>
+        <v>0.03530520811496525</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1605355647468136</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06399802173872041</v>
+        <v>0.07916842864162993</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2986715580156176</v>
+        <v>0.1553007311537334</v>
       </c>
       <c r="N246" t="n">
-        <v>0.10015593157725</v>
+        <v>0.1216461222237939</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2980012299287783</v>
+        <v>0.1564162192838396</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01528345550670839</v>
+        <v>0.003613821067831612</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2983637784431012</v>
+        <v>0.0505516949435339</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02848124132531052</v>
+        <v>0.03529105791106489</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1614225015686192</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06287508068036471</v>
+        <v>0.07853804293701278</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3003216771206763</v>
+        <v>0.1561587462429805</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09762568743874772</v>
+        <v>0.1222985204730993</v>
       </c>
       <c r="O247" t="n">
-        <v>0.2996476455637439</v>
+        <v>0.1572803972909326</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01404750489685491</v>
+        <v>0.003641473855596808</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3000031398631183</v>
+        <v>0.05052744928016298</v>
       </c>
       <c r="J248" t="n">
-        <v>0.0280662240581328</v>
+        <v>0.03527709511619974</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1623094383904248</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06254827535855284</v>
+        <v>0.07830805313419972</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3019717962257349</v>
+        <v>0.1570167613322276</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09628946616899492</v>
+        <v>0.1221515411584401</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3012940611987096</v>
+        <v>0.1581445752980257</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01381056195183526</v>
+        <v>0.003674135645433112</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3016425012831354</v>
+        <v>0.05050320361679205</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0274494492495862</v>
+        <v>0.03536332286278696</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.1631963752122304</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06171755058562026</v>
+        <v>0.07847846557587909</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3036219153307936</v>
+        <v>0.1578747764214748</v>
       </c>
       <c r="N249" t="n">
-        <v>0.09464718264327376</v>
+        <v>0.1222051943430908</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3029404768336751</v>
+        <v>0.1590087533051187</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01557261281056621</v>
+        <v>0.003712151815661854</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3032818627031524</v>
+        <v>0.05047895795342112</v>
       </c>
       <c r="J250" t="n">
-        <v>0.0272308921027596</v>
+        <v>0.03534974428324378</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.164083312034036</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06028285117390245</v>
+        <v>0.07874928660473901</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3052720344358523</v>
+        <v>0.1587327915107219</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09449875173686617</v>
+        <v>0.1223594900903258</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3045868924686408</v>
+        <v>0.1598729313122118</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01333364361196452</v>
+        <v>0.003755867744604305</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3049212241231694</v>
+        <v>0.05045471229005019</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02671052782074178</v>
+        <v>0.03513636250998738</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1649702488558416</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05954412193573483</v>
+        <v>0.07832052256346769</v>
       </c>
       <c r="M251" t="n">
-        <v>0.306922153540911</v>
+        <v>0.1595908065999691</v>
       </c>
       <c r="N251" t="n">
-        <v>0.09294408832505413</v>
+        <v>0.1214144384634196</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3062333081036064</v>
+        <v>0.1607371093193048</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01509364049494693</v>
+        <v>0.003805628810581788</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3065605855431864</v>
+        <v>0.05043046662667926</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02618833160662162</v>
+        <v>0.03512318067543499</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1658571856776472</v>
       </c>
       <c r="L252" t="n">
-        <v>0.058701307683453</v>
+        <v>0.07889217979475333</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3085722726459696</v>
+        <v>0.1604488216892162</v>
       </c>
       <c r="N252" t="n">
-        <v>0.09128310728311984</v>
+        <v>0.1220700495256469</v>
       </c>
       <c r="O252" t="n">
-        <v>0.307879723738572</v>
+        <v>0.1616012873263978</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0148525895984302</v>
+        <v>0.003861780391915606</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3081999469632035</v>
+        <v>0.05040622096330834</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02596427866348795</v>
+        <v>0.03501020191200381</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1667441224994528</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05735435322939236</v>
+        <v>0.07836426464128413</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3102223917510283</v>
+        <v>0.1613068367784634</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08891572348634513</v>
+        <v>0.1222263333402817</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3095261393735377</v>
+        <v>0.1624654653334908</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01261047706133109</v>
+        <v>0.003924667866927072</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3098393083832205</v>
+        <v>0.05038197529993741</v>
       </c>
       <c r="J254" t="n">
-        <v>0.0255383441944296</v>
+        <v>0.03519742935211105</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.1676310593212584</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05660320338588851</v>
+        <v>0.07873678344574825</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3118725108560869</v>
+        <v>0.1621648518677105</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0882418518100121</v>
+        <v>0.1220832999705989</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3111725550085033</v>
+        <v>0.1633296433405839</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01336728902256636</v>
+        <v>0.003994636613937501</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3114786698032376</v>
+        <v>0.05035772963656648</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02491050340253544</v>
+        <v>0.03528486612817391</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.168517996143064</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05594780296527685</v>
+        <v>0.07850974255083393</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3135226299611455</v>
+        <v>0.1630228669569577</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08706140712940269</v>
+        <v>0.1215409594798726</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3128189706434689</v>
+        <v>0.1641938213476769</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01412301162105273</v>
+        <v>0.004072032011268177</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3131180312232546</v>
+        <v>0.05033348397319556</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02468073149089429</v>
+        <v>0.03507251537260958</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.1694049329648696</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05508809677989288</v>
+        <v>0.07868314829922934</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3151727490662042</v>
+        <v>0.1638808820462048</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08467430431979911</v>
+        <v>0.1213993219313775</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3144653862784345</v>
+        <v>0.16505799935477</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01287763099570701</v>
+        <v>0.004157199437240432</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3147573926432716</v>
+        <v>0.05030923830982463</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02424900366259501</v>
+        <v>0.03526038021783533</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.1702918697866752</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05362402964207208</v>
+        <v>0.07855700703362273</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3168228681712629</v>
+        <v>0.164738897135452</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08408045825648319</v>
+        <v>0.122158397388388</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3161118019134002</v>
+        <v>0.165922177361863</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0116311332854459</v>
+        <v>0.004250484270175561</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3163967540632887</v>
+        <v>0.0502849926464537</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0238152951207264</v>
+        <v>0.03494846379626829</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.1711788066084808</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0526555463641499</v>
+        <v>0.07853132509670224</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3184729872763216</v>
+        <v>0.1655969122246991</v>
       </c>
       <c r="N258" t="n">
-        <v>0.08197978381473708</v>
+        <v>0.1217181959141787</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3177582175483658</v>
+        <v>0.1667863553689561</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01338350462918621</v>
+        <v>0.00435223188839487</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3180361154833057</v>
+        <v>0.05026074698308278</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02307958106837736</v>
+        <v>0.03523676924032568</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.1720657434302864</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05158259175846192</v>
+        <v>0.0788061088311561</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3201231063813803</v>
+        <v>0.1664549273139463</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08057219586984271</v>
+        <v>0.1217787275720237</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3194046331833314</v>
+        <v>0.1676505333760491</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01313473116584464</v>
+        <v>0.004462787670219709</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3196754769033228</v>
+        <v>0.05023650131971184</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0229418367086367</v>
+        <v>0.03502529968242472</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.172952680252092</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05120511063734359</v>
+        <v>0.0787813645796725</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3217732254864389</v>
+        <v>0.1673129424031934</v>
       </c>
       <c r="N260" t="n">
-        <v>0.07885760929708208</v>
+        <v>0.1213400024251977</v>
       </c>
       <c r="O260" t="n">
-        <v>0.321051048818297</v>
+        <v>0.1685147113831421</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01288479903433798</v>
+        <v>0.00458249699397132</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3213148383233398</v>
+        <v>0.05021225565634092</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02230203724459325</v>
+        <v>0.03501405825498266</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.1738396170738976</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05002304781313041</v>
+        <v>0.0780570986849396</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3234233445914975</v>
+        <v>0.1681709574924405</v>
       </c>
       <c r="N261" t="n">
-        <v>0.07713593897173726</v>
+        <v>0.1222020305369753</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3226974644532627</v>
+        <v>0.1693788893902352</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01263369437358298</v>
+        <v>0.004711705237971028</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3229541997433568</v>
+        <v>0.05018800999296999</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02206015787933586</v>
+        <v>0.03510304809041663</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.1747265538957032</v>
       </c>
       <c r="L262" t="n">
-        <v>0.04933634809815779</v>
+        <v>0.07873331748964565</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3250734636965562</v>
+        <v>0.1690289725816877</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0766070997690903</v>
+        <v>0.1215648219706307</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3243438800882283</v>
+        <v>0.1702430673973282</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01138140332249638</v>
+        <v>0.004850757780540151</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3245935611633738</v>
+        <v>0.05016376432959906</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02131617381595341</v>
+        <v>0.03499227232114388</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1756134907175088</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0475449563047613</v>
+        <v>0.07871002733647883</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3267235828016148</v>
+        <v>0.1698869876709349</v>
       </c>
       <c r="N263" t="n">
-        <v>0.07497100656442329</v>
+        <v>0.1222283867894384</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3259902957231939</v>
+        <v>0.1711072454044212</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01012791201999494</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3262329225833909</v>
+        <v>0.05013951866622814</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02097006025753469</v>
+        <v>0.03518173407958161</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.1765004275393144</v>
       </c>
       <c r="L264" t="n">
-        <v>0.04664881724527639</v>
+        <v>0.07818723456812732</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3283737019066735</v>
+        <v>0.170745002760182</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0724275742330181</v>
+        <v>0.121392735056673</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3276367113581595</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1719714234115143</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.0501263607714913</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005278607497256838</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.05012662929995531</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005554473370071422</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.05012689782841933</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005827512402051892</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.05012716635688334</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006097639376830333</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.05012743488534736</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006364769078015163</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.05012770341381138</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006628816289238171</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.0501279719422754</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006889695794108044</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.05012824047073941</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007147322376256329</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.05012850899920343</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007401610819291971</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.05012877752766744</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007652475906846222</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.05012904605613146</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.007899832422528334</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.05012931458459548</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008143595149969256</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.0501295831130595</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008383678872778556</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.05012985164152352</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008619998374586844</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.05013012016998754</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008852468439004023</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.05013038869845155</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009081003849660402</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.05013065722691557</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009305519390166182</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.05013092575537959</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009525929844146575</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.0501311942838436</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009742149995226414</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.05013146281230762</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.009954094627016456</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.05013173134077163</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01016167852314613</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.05013199986923565</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01036481646722656</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.05013226839769967</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01056342324288675</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.05013253692616369</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01075741363373826</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.05013280545462771</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01094705039029396</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.05013307398309173</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01113433609747144</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.05013334251155574</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01131953350578331</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.05013361104001976</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01150255739884171</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.05013387956848377</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01168332256027478</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.05013414809694779</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01186174377369481</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.05013441662541181</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01203773582272975</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.05013468515387583</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01221121349099212</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.05013495368233984</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01238209156210596</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.05013522221080385</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01255028481969506</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.05013549073926787</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01271570804737229</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.05013575926773189</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01287827602876503</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.05013602779619591</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01303790354748639</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.05013629632465993</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01319450538716346</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.05013656485312395</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01334799633140963</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.05013683338158796</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01349829116385174</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.05013710191005198</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01364530466810343</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.05013737043851599</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01378895162779128</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.05013763896698002</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01392914682652922</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.05013790749544403</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.0140658050479435</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.05013817602390805</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01419884107564837</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.05013844455237206</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.0143281696932698</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.05013871308083608</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01445370568442233</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.0501389816093001</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01457536383273158</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.05013925013776412</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01469305892181247</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.05013951866622814</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01469305892181247</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.0501263607714913</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01479651836414952</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05015114349179026</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01489729264033827</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05017592621208922</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01499524036869147</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05020070893238818</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01509022016752188</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05022549165268714</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01518209065514223</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.0502502743729861</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01527071044986527</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05027505709328507</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01535593817000375</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05029983981358403</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01543763243387043</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05032462253388299</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01551565185977804</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05034940525418195</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01558985506603933</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.05037418797448091</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01566010067096707</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05039897069477987</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01572624729287399</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05042375341507883</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01578815355007284</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.0504485361353778</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01584567806087637</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05047331885567676</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01589867944359731</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.05049810157597573</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01594701631654844</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05052288429627469</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01599054729804249</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05054766701657365</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01602913100639221</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05057244973687261</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01606262605991034</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05059723245717157</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01609089107690966</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.05062201517747054</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01611378467570287</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.0506467978977695</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01613116547460276</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05067158061806846</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.01614289209192206</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05069636333836742</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01614882314597351</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05072114605866638</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01614939456362616</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05074592877896535</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01614792881453041</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05077071149926431</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01614486182555529</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05079549421956327</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01614005221501356</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05082027693986223</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01613335860121794</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05084505966016119</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01612463960248121</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05086984238046015</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01611375383711611</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05089462510075912</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01610055992343538</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05091940782105808</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01608491647975177</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05094419054135704</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01606668212437802</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.050968973261656</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01604571547562691</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05099375598195496</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01602187515181114</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05101853870225392</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01599501977124349</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05104332142255289</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01596500795223672</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05106810414285185</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01593169831310354</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05109288686315081</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01589494947215673</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05111766958344978</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01585462004770902</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05114245230374874</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01581056865807316</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0511672350240477</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01576265392156191</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05119201774434666</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01571073445648801</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05121680046464563</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01565466888116421</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05124158318494459</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01559431581390325</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05126636590524355</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01552953387301789</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05129114862554251</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01546018167682087</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05131593134584147</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01538611784362494</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05134071406614044</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01538611784362495</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05134071406614044</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01570225273720851</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05292305856737803</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01601210936014458</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05450540306861563</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01631555210656349</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05608774756985323</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01661244537059561</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05767009207109084</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01690265354637131</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05925243657232843</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01718604102802094</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06083478107356603</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01746247220967487</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06241712557480363</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01773181148546345</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06399947007604123</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.01799392324951705</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06558181457727882</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01824867189596602</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06716415907851643</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01849592181894075</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06874650357975404</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01873553741257156</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07032884808099164</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.01896738307098884</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07191119258222924</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01919132318832294</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07349353708346683</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01940722215870423</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07507588158470443</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.01961494437626305</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07665822608594204</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.01981435423512978</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07824057058717963</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02000531612943478</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07982291508841724</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02018769445330841</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08140525958965483</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02036135360088102</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08298760409089244</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.02052615796628298</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08456994859213003</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02068197194364465</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08615229309336762</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02082865992709641</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08773463759460524</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02096608631076857</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08931698209584284</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02109411548879154</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09089932659708044</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02121261185529566</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09248167109831804</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02132143980441129</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09406401559955563</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0214204637302688</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09564636010079325</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02150954802699853</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09722870460203084</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02158855708873087</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09881104910326843</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02165735530959618</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.100393393604506</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.0217158070837248</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1019757381057436</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.0217637768052471</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1035580826069813</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02180112886829344</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1051404271082188</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02182772766699419</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1067227716094564</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02184815712483326</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.108305116110694</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02184814182009169</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1098874606119316</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02184531396697077</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1114698051131692</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02183784768000594</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1130521496144068</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02182609524132024</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1146344941156444</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02181040893303668</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.116216838616882</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02179114103727829</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1177991831181196</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02176864383616809</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1193815276193572</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02174326961182911</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1209638721205948</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02171537064638437</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1225462166218324</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.0216852992219569</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1241285611230701</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02165340762066971</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1257109056243076</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02162004812464584</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1272932501255453</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.0215855730160083</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1288755946267829</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02155033457688013</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1304579391280204</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02151444750706506</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.132040283629258</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.0214673548966721</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1336226281304956</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02140587237077046</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1352049726317332</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02133366429323485</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1367873171329708</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.02125439502793994</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1383696616342084</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02117172893876046</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1399520061354461</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02108933038957109</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1415343506366837</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02101086374424656</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1431166951379212</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02093999336666153</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1446990396391588</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.02088038362069074</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1462813841403964</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.02083569887020886</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1478637286416341</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.0208022917186826</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02077092608138582</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1510284176441092</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02074140196799619</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1526107621453469</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02071360195803163</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1541931066465844</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02068740863101005</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1557754511478221</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02066270456644934</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1573577956490596</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02063937234386742</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1589401401502973</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02061729454278219</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1605224846515348</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02059635374271154</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1621048291527724</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02057643252317341</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1636871736540101</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02055741346368568</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1652695181552477</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02053917914376626</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1668518626564853</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02052161214293306</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1684342071577229</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02050459504070399</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1700165516589605</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02048801041659695</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1715988961601981</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02047174085012984</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1731812406614356</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02045566892082058</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1747635851626732</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02043967720818705</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1763459296639109</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02042364829174719</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1779282741651484</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02040746475101889</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1795106186663861</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02039100916552004</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1810929631676237</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02037450803731095</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1826753076688613</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02035828267130447</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1842576521700988</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02034234327562819</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1858399966713364</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02032670004015143</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1874223411725741</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02031136315474355</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1890046856738117</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02029634280927388</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1905870301750492</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02028164919361174</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1921693746762869</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02026729249762648</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1937517191775245</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02025328291118742</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1953340636787621</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02023963062416392</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1969164081799997</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02022634582642528</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1984987526812373</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02021343870784086</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.2000810971824749</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02020091945828</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2016634416837124</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.020188798267612</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2032457861849501</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02017708532570623</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2048281306861877</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02016579082243201</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2064104751874253</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02015492494765869</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2079928196886629</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
